--- a/data/new_posteriors/elementary_skills/simple_model/leak/unconstrained/results_model1b_leak_unconstrained.xlsx
+++ b/data/new_posteriors/elementary_skills/simple_model/leak/unconstrained/results_model1b_leak_unconstrained.xlsx
@@ -1598,10 +1598,10 @@
         <v>1.0</v>
       </c>
       <c r="J3" t="n" s="87">
-        <v>0.43098241024609857</v>
+        <v>0.43092671012173467</v>
       </c>
       <c r="K3" t="n" s="87">
-        <v>0.43098241024609857</v>
+        <v>0.4309267101217346</v>
       </c>
       <c r="L3" t="n" s="87">
         <v>1.0</v>
@@ -1631,16 +1631,16 @@
         <v>1.0</v>
       </c>
       <c r="U3" t="n" s="87">
-        <v>0.3341533562285287</v>
+        <v>0.3341943915044145</v>
       </c>
       <c r="V3" t="n" s="87">
         <v>0.4371308702587534</v>
       </c>
       <c r="W3" t="n" s="87">
-        <v>0.31436186422207574</v>
+        <v>0.31440161665571736</v>
       </c>
       <c r="X3" t="n" s="87">
-        <v>0.31436186422207574</v>
+        <v>0.31440161665571736</v>
       </c>
       <c r="Y3" t="n" s="87">
         <v>0.508443082510305</v>
@@ -1655,25 +1655,25 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC3" t="n" s="87">
-        <v>0.3522984213670448</v>
+        <v>0.35268940291182843</v>
       </c>
       <c r="AD3" t="n" s="87">
-        <v>0.3522984213670448</v>
+        <v>0.3526894029118285</v>
       </c>
       <c r="AE3" t="n" s="87">
-        <v>0.33056025279231976</v>
+        <v>0.33093943583620433</v>
       </c>
       <c r="AF3" t="n" s="87">
-        <v>0.33056025279231965</v>
+        <v>0.33093943583620433</v>
       </c>
       <c r="AG3" t="n" s="87">
-        <v>0.28532218997568254</v>
+        <v>0.28567162488902526</v>
       </c>
       <c r="AH3" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI3" t="n" s="87">
-        <v>0.37158062152895593</v>
+        <v>0.3719807126216904</v>
       </c>
       <c r="AJ3" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -1682,7 +1682,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL3" t="n" s="87">
-        <v>0.9890569267272348</v>
+        <v>0.988696443172617</v>
       </c>
       <c r="AM3" t="n" s="87">
         <v>0.6580465123459213</v>
@@ -1691,20 +1691,18 @@
         <v>0.9377249222338784</v>
       </c>
       <c r="AO3" t="n" s="87">
-        <v>0.9998980364876172</v>
+        <v>0.9999012905806585</v>
       </c>
       <c r="AP3" t="n" s="87">
         <v>0.7333951446272348</v>
       </c>
       <c r="AQ3" t="n" s="87">
-        <v>0.9674245398173423</v>
+        <v>0.967413864021865</v>
       </c>
       <c r="AR3" t="n" s="87">
-        <v>0.999904352651752</v>
-      </c>
-      <c r="AS3" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999072216218479</v>
+      </c>
+      <c r="AS3" s="87"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1726,10 +1724,10 @@
         <v>1.0</v>
       </c>
       <c r="J4" t="n" s="87">
-        <v>0.8451239534868393</v>
+        <v>0.8451078791503704</v>
       </c>
       <c r="K4" t="n" s="87">
-        <v>0.8451239534868393</v>
+        <v>0.8451078791503704</v>
       </c>
       <c r="L4" t="n" s="87">
         <v>1.0</v>
@@ -1759,16 +1757,16 @@
         <v>0.45596990980697477</v>
       </c>
       <c r="U4" t="n" s="87">
-        <v>0.3692008036659776</v>
+        <v>0.3692275823462864</v>
       </c>
       <c r="V4" t="n" s="87">
         <v>0.4603163492691197</v>
       </c>
       <c r="W4" t="n" s="87">
-        <v>0.37421535956880625</v>
+        <v>0.3742422861775273</v>
       </c>
       <c r="X4" t="n" s="87">
-        <v>0.37421535956880625</v>
+        <v>0.3742422861775273</v>
       </c>
       <c r="Y4" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -1783,16 +1781,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC4" t="n" s="87">
-        <v>0.3662313977183278</v>
+        <v>0.3665047990657056</v>
       </c>
       <c r="AD4" t="n" s="87">
-        <v>0.36623139771832786</v>
+        <v>0.3665047990657057</v>
       </c>
       <c r="AE4" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.34435608791788436</v>
       </c>
       <c r="AF4" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.3443560879178843</v>
       </c>
       <c r="AG4" t="n" s="87">
         <v>1.0</v>
@@ -1801,7 +1799,7 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI4" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ4" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -1810,7 +1808,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL4" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM4" t="n" s="87">
         <v>0.682956778696853</v>
@@ -1819,7 +1817,7 @@
         <v>0.9591963679410248</v>
       </c>
       <c r="AO4" t="n" s="87">
-        <v>0.9999942859288277</v>
+        <v>0.9999945925346259</v>
       </c>
       <c r="AP4" t="n" s="87">
         <v>0.821675576635382</v>
@@ -1828,11 +1826,9 @@
         <v>0.9951201085298701</v>
       </c>
       <c r="AR4" t="n" s="87">
-        <v>0.9999998143910835</v>
-      </c>
-      <c r="AS4" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999998240618951</v>
+      </c>
+      <c r="AS4" s="87"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1854,10 +1850,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n" s="87">
-        <v>0.9826449104895507</v>
+        <v>0.9826428160916619</v>
       </c>
       <c r="K5" t="n" s="87">
-        <v>0.9826449104895507</v>
+        <v>0.9826428160916619</v>
       </c>
       <c r="L5" t="n" s="87">
         <v>1.0</v>
@@ -1887,16 +1883,16 @@
         <v>0.45152791392858266</v>
       </c>
       <c r="U5" t="n" s="87">
-        <v>0.3527440021669562</v>
+        <v>0.35277025474419205</v>
       </c>
       <c r="V5" t="n" s="87">
         <v>0.44842894975962583</v>
       </c>
       <c r="W5" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="X5" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="Y5" t="n" s="87">
         <v>0.508443082510305</v>
@@ -1911,16 +1907,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC5" t="n" s="87">
-        <v>0.3714443350545217</v>
+        <v>0.371719345489888</v>
       </c>
       <c r="AD5" t="n" s="87">
-        <v>0.3714443350545217</v>
+        <v>0.371719345489888</v>
       </c>
       <c r="AE5" t="n" s="87">
-        <v>0.3491616439798356</v>
+        <v>0.3494293281920188</v>
       </c>
       <c r="AF5" t="n" s="87">
-        <v>0.3491616439798356</v>
+        <v>0.3494293281920188</v>
       </c>
       <c r="AG5" t="n" s="87">
         <v>1.0</v>
@@ -1929,7 +1925,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI5" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ5" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -1938,7 +1934,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL5" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM5" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -1947,7 +1943,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO5" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP5" t="n" s="87">
         <v>0.8884223477657271</v>
@@ -1956,11 +1952,9 @@
         <v>0.9992116235241997</v>
       </c>
       <c r="AR5" t="n" s="87">
-        <v>0.9999999998066252</v>
-      </c>
-      <c r="AS5" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999998167006</v>
+      </c>
+      <c r="AS5" s="87"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2021,10 +2015,10 @@
         <v>0.44842894975962583</v>
       </c>
       <c r="W6" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="X6" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="Y6" t="n" s="87">
         <v>0.508443082510305</v>
@@ -2039,16 +2033,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC6" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD6" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE6" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF6" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG6" t="n" s="87">
         <v>1.0</v>
@@ -2057,7 +2051,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI6" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ6" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -2066,7 +2060,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL6" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM6" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -2075,7 +2069,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO6" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP6" t="n" s="87">
         <v>0.916773436355647</v>
@@ -2084,11 +2078,9 @@
         <v>0.9997059754170516</v>
       </c>
       <c r="AR6" t="n" s="87">
-        <v>0.9999999999934622</v>
-      </c>
-      <c r="AS6" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999938088</v>
+      </c>
+      <c r="AS6" s="87"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2110,10 +2102,10 @@
         <v>1.0</v>
       </c>
       <c r="J7" t="n" s="87">
-        <v>0.9589277997542204</v>
+        <v>0.9589229628405367</v>
       </c>
       <c r="K7" t="n" s="87">
-        <v>0.9589277997542204</v>
+        <v>0.9589229628405367</v>
       </c>
       <c r="L7" t="n" s="87">
         <v>1.0</v>
@@ -2149,10 +2141,10 @@
         <v>0.44758081989265597</v>
       </c>
       <c r="W7" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="X7" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="Y7" t="n" s="87">
         <v>0.508443082510305</v>
@@ -2167,25 +2159,25 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC7" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AD7" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AE7" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AF7" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AG7" t="n" s="87">
-        <v>0.3018051687089048</v>
+        <v>0.3020533966231678</v>
       </c>
       <c r="AH7" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI7" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ7" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -2194,7 +2186,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL7" t="n" s="87">
-        <v>0.9933225520474093</v>
+        <v>0.9928864777123033</v>
       </c>
       <c r="AM7" t="n" s="87">
         <v>0.7111929936636501</v>
@@ -2203,7 +2195,7 @@
         <v>0.9752609794337865</v>
       </c>
       <c r="AO7" t="n" s="87">
-        <v>0.9999979385025969</v>
+        <v>0.9999980491188674</v>
       </c>
       <c r="AP7" t="n" s="87">
         <v>0.8779472885806938</v>
@@ -2212,11 +2204,9 @@
         <v>0.9986448458310482</v>
       </c>
       <c r="AR7" t="n" s="87">
-        <v>0.9999999974807716</v>
-      </c>
-      <c r="AS7" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999976120313</v>
+      </c>
+      <c r="AS7" s="87"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2238,10 +2228,10 @@
         <v>1.0</v>
       </c>
       <c r="J8" t="n" s="87">
-        <v>0.6724374089524741</v>
+        <v>0.6724103590724432</v>
       </c>
       <c r="K8" t="n" s="87">
-        <v>0.6724374089524741</v>
+        <v>0.6724103590724432</v>
       </c>
       <c r="L8" t="n" s="87">
         <v>1.0</v>
@@ -2271,16 +2261,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U8" t="n" s="87">
-        <v>0.3111729902871535</v>
+        <v>0.3111976365094076</v>
       </c>
       <c r="V8" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W8" t="n" s="87">
-        <v>0.3157939665011765</v>
+        <v>0.3158188109173884</v>
       </c>
       <c r="X8" t="n" s="87">
-        <v>0.3157939665011765</v>
+        <v>0.3158188109173884</v>
       </c>
       <c r="Y8" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -2295,25 +2285,25 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC8" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142896</v>
       </c>
       <c r="AD8" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142907</v>
       </c>
       <c r="AE8" t="n" s="87">
-        <v>0.33213373729929546</v>
+        <v>0.3323950342235265</v>
       </c>
       <c r="AF8" t="n" s="87">
-        <v>0.33213373729929546</v>
+        <v>0.33239503422352645</v>
       </c>
       <c r="AG8" t="n" s="87">
-        <v>0.2644573020009575</v>
+        <v>0.26468645728421086</v>
       </c>
       <c r="AH8" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI8" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ8" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -2322,7 +2312,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL8" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM8" t="n" s="87">
         <v>0.682956778696853</v>
@@ -2331,7 +2321,7 @@
         <v>0.9591963679410248</v>
       </c>
       <c r="AO8" t="n" s="87">
-        <v>0.9999942859288277</v>
+        <v>0.9999945925346259</v>
       </c>
       <c r="AP8" t="n" s="87">
         <v>0.6829567786968532</v>
@@ -2340,11 +2330,9 @@
         <v>0.9591963679410248</v>
       </c>
       <c r="AR8" t="n" s="87">
-        <v>0.9999023516405157</v>
-      </c>
-      <c r="AS8" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999074389588621</v>
+      </c>
+      <c r="AS8" s="87"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2405,10 +2393,10 @@
         <v>0.4996357286188256</v>
       </c>
       <c r="W9" t="n" s="87">
-        <v>0.3921339814238887</v>
+        <v>0.39216138937689365</v>
       </c>
       <c r="X9" t="n" s="87">
-        <v>0.3921339814238887</v>
+        <v>0.39216138937689365</v>
       </c>
       <c r="Y9" t="n" s="87">
         <v>0.508443082510305</v>
@@ -2423,16 +2411,16 @@
         <v>0.5059428794416613</v>
       </c>
       <c r="AC9" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AD9" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AE9" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AF9" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AG9" t="n" s="87">
         <v>1.0</v>
@@ -2441,7 +2429,7 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI9" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ9" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -2450,7 +2438,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL9" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM9" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -2459,7 +2447,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO9" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP9" t="n" s="87">
         <v>0.9445419984089427</v>
@@ -2468,11 +2456,9 @@
         <v>0.9999090547450499</v>
       </c>
       <c r="AR9" t="n" s="87">
-        <v>0.9999999999996325</v>
-      </c>
-      <c r="AS9" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999996516</v>
+      </c>
+      <c r="AS9" s="87"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2494,10 +2480,10 @@
         <v>0.538163670638723</v>
       </c>
       <c r="J10" t="n" s="87">
-        <v>0.9866316960049143</v>
+        <v>0.9866300761828397</v>
       </c>
       <c r="K10" t="n" s="87">
-        <v>0.9866316960049143</v>
+        <v>0.9866300761828397</v>
       </c>
       <c r="L10" t="n" s="87">
         <v>1.0</v>
@@ -2533,10 +2519,10 @@
         <v>0.4717114786308504</v>
       </c>
       <c r="W10" t="n" s="87">
-        <v>0.38499957878515495</v>
+        <v>0.3850268039350873</v>
       </c>
       <c r="X10" t="n" s="87">
-        <v>0.38499957878515495</v>
+        <v>0.3850268039350873</v>
       </c>
       <c r="Y10" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -2551,16 +2537,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC10" t="n" s="87">
-        <v>0.3769241178686985</v>
+        <v>0.37720075072079456</v>
       </c>
       <c r="AD10" t="n" s="87">
-        <v>0.3769241178686985</v>
+        <v>0.37720075072079456</v>
       </c>
       <c r="AE10" t="n" s="87">
-        <v>0.35449809738838256</v>
+        <v>0.3547676427072143</v>
       </c>
       <c r="AF10" t="n" s="87">
-        <v>0.35449809738838256</v>
+        <v>0.3547676427072143</v>
       </c>
       <c r="AG10" t="n" s="87">
         <v>1.0</v>
@@ -2569,7 +2555,7 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI10" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ10" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -2578,7 +2564,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL10" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM10" t="n" s="87">
         <v>0.6996969133754085</v>
@@ -2587,7 +2573,7 @@
         <v>0.9690112036423819</v>
       </c>
       <c r="AO10" t="n" s="87">
-        <v>0.9999980890939255</v>
+        <v>0.9999981916297486</v>
       </c>
       <c r="AP10" t="n" s="87">
         <v>0.8769132644579998</v>
@@ -2596,11 +2582,9 @@
         <v>0.9987036182399892</v>
       </c>
       <c r="AR10" t="n" s="87">
-        <v>0.9999999974906041</v>
-      </c>
-      <c r="AS10" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999976213515</v>
+      </c>
+      <c r="AS10" s="87"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2610,7 +2594,7 @@
         <v>1.0</v>
       </c>
       <c r="F11" t="n" s="87">
-        <v>0.9966143827829307</v>
+        <v>0.9966129215218652</v>
       </c>
       <c r="G11" t="n" s="87">
         <v>1.0</v>
@@ -2622,10 +2606,10 @@
         <v>1.0</v>
       </c>
       <c r="J11" t="n" s="87">
-        <v>0.9707325426347444</v>
+        <v>0.9707290534844863</v>
       </c>
       <c r="K11" t="n" s="87">
-        <v>0.9707325426347444</v>
+        <v>0.9707290534844863</v>
       </c>
       <c r="L11" t="n" s="87">
         <v>0.4483641463083361</v>
@@ -2661,10 +2645,10 @@
         <v>0.43498032325693164</v>
       </c>
       <c r="W11" t="n" s="87">
-        <v>0.3259922223976486</v>
+        <v>0.3260174868393712</v>
       </c>
       <c r="X11" t="n" s="87">
-        <v>0.3259922223976486</v>
+        <v>0.3260174868393712</v>
       </c>
       <c r="Y11" t="n" s="87">
         <v>0.49821377345635</v>
@@ -2679,16 +2663,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC11" t="n" s="87">
-        <v>0.3708682709256095</v>
+        <v>0.3711431066934158</v>
       </c>
       <c r="AD11" t="n" s="87">
-        <v>0.3708682709256095</v>
+        <v>0.3711431066934158</v>
       </c>
       <c r="AE11" t="n" s="87">
-        <v>0.3456692881820716</v>
+        <v>0.3459357180904112</v>
       </c>
       <c r="AF11" t="n" s="87">
-        <v>0.3456692881820716</v>
+        <v>0.3459357180904112</v>
       </c>
       <c r="AG11" t="n" s="87">
         <v>1.0</v>
@@ -2697,7 +2681,7 @@
         <v>0.6767977560469417</v>
       </c>
       <c r="AI11" t="n" s="87">
-        <v>0.6297703579495758</v>
+        <v>0.6300449152291466</v>
       </c>
       <c r="AJ11" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -2706,7 +2690,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL11" t="n" s="87">
-        <v>0.9801028063812303</v>
+        <v>0.9792575347315228</v>
       </c>
       <c r="AM11" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -2715,7 +2699,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO11" t="n" s="87">
-        <v>0.9999795477389024</v>
+        <v>0.9999802860510293</v>
       </c>
       <c r="AP11" t="n" s="87">
         <v>0.9141129982330775</v>
@@ -2724,11 +2708,9 @@
         <v>0.999485647757616</v>
       </c>
       <c r="AR11" t="n" s="87">
-        <v>0.9999999907577137</v>
-      </c>
-      <c r="AS11" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999910767206</v>
+      </c>
+      <c r="AS11" s="87"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2750,10 +2732,10 @@
         <v>1.0</v>
       </c>
       <c r="J12" t="n" s="87">
-        <v>0.9933995186972946</v>
+        <v>0.9933987134378107</v>
       </c>
       <c r="K12" t="n" s="87">
-        <v>0.9933995186972946</v>
+        <v>0.9933987134378107</v>
       </c>
       <c r="L12" t="n" s="87">
         <v>1.0</v>
@@ -2789,10 +2771,10 @@
         <v>0.4996357286188256</v>
       </c>
       <c r="W12" t="n" s="87">
-        <v>0.3921339814238887</v>
+        <v>0.39216138937689365</v>
       </c>
       <c r="X12" t="n" s="87">
-        <v>0.3921339814238887</v>
+        <v>0.39216138937689365</v>
       </c>
       <c r="Y12" t="n" s="87">
         <v>0.508443082510305</v>
@@ -2807,16 +2789,16 @@
         <v>0.5059428794416613</v>
       </c>
       <c r="AC12" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AD12" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AE12" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AF12" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AG12" t="n" s="87">
         <v>1.0</v>
@@ -2825,7 +2807,7 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI12" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ12" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -2834,7 +2816,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL12" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM12" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -2843,7 +2825,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO12" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP12" t="n" s="87">
         <v>0.9445419984089427</v>
@@ -2852,11 +2834,9 @@
         <v>0.9999090547450499</v>
       </c>
       <c r="AR12" t="n" s="87">
-        <v>0.9999999999996325</v>
-      </c>
-      <c r="AS12" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999996516</v>
+      </c>
+      <c r="AS12" s="87"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2917,10 +2897,10 @@
         <v>0.4563128014265665</v>
       </c>
       <c r="W13" t="n" s="87">
-        <v>0.37311139742258637</v>
+        <v>0.37309036533709466</v>
       </c>
       <c r="X13" t="n" s="87">
-        <v>0.37311139742258637</v>
+        <v>0.37309036533709466</v>
       </c>
       <c r="Y13" t="n" s="87">
         <v>0.49821377345635</v>
@@ -2935,16 +2915,16 @@
         <v>0.4910016926702666</v>
       </c>
       <c r="AC13" t="n" s="87">
-        <v>0.36807212560597347</v>
+        <v>0.36801481002835185</v>
       </c>
       <c r="AD13" t="n" s="87">
-        <v>0.36807212560597347</v>
+        <v>0.36801481002835196</v>
       </c>
       <c r="AE13" t="n" s="87">
-        <v>0.3602112537551138</v>
+        <v>0.3601544646187419</v>
       </c>
       <c r="AF13" t="n" s="87">
-        <v>0.36021125375511376</v>
+        <v>0.3601544646187419</v>
       </c>
       <c r="AG13" t="n" s="87">
         <v>1.0</v>
@@ -2953,7 +2933,7 @@
         <v>0.715277703592466</v>
       </c>
       <c r="AI13" t="n" s="87">
-        <v>0.6519288920307267</v>
+        <v>0.6518729715604955</v>
       </c>
       <c r="AJ13" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -2962,7 +2942,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL13" t="n" s="87">
-        <v>0.765561827190928</v>
+        <v>0.7672968145919835</v>
       </c>
       <c r="AM13" t="n" s="87">
         <v>0.7159208149572642</v>
@@ -2971,20 +2951,18 @@
         <v>0.9741181682621376</v>
       </c>
       <c r="AO13" t="n" s="87">
-        <v>0.973515703232577</v>
+        <v>0.9734038388075633</v>
       </c>
       <c r="AP13" t="n" s="87">
         <v>0.9651623199857452</v>
       </c>
       <c r="AQ13" t="n" s="87">
-        <v>0.9999555516803592</v>
+        <v>0.9999555422431854</v>
       </c>
       <c r="AR13" t="n" s="87">
-        <v>0.9999415042226387</v>
-      </c>
-      <c r="AS13" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999411413792748</v>
+      </c>
+      <c r="AS13" s="87"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3045,7 +3023,7 @@
         <v>0.40905887575025324</v>
       </c>
       <c r="W14" t="n" s="87">
-        <v>0.3133160919465982</v>
+        <v>0.3133660207883482</v>
       </c>
       <c r="X14" t="n" s="87">
         <v>1.0</v>
@@ -3063,16 +3041,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC14" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.3547033719422817</v>
       </c>
       <c r="AD14" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.35470337194228174</v>
       </c>
       <c r="AE14" t="n" s="87">
-        <v>0.33243182791187037</v>
+        <v>0.3328930776899262</v>
       </c>
       <c r="AF14" t="n" s="87">
-        <v>0.33243182791187037</v>
+        <v>0.33289307768992615</v>
       </c>
       <c r="AG14" t="n" s="87">
         <v>1.0</v>
@@ -3081,7 +3059,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI14" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ14" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -3105,14 +3083,12 @@
         <v>0.8137064249613718</v>
       </c>
       <c r="AQ14" t="n" s="87">
-        <v>0.9830416794582525</v>
+        <v>0.9830324912452061</v>
       </c>
       <c r="AR14" t="n" s="87">
-        <v>0.844925225536645</v>
-      </c>
-      <c r="AS14" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.8446376683795931</v>
+      </c>
+      <c r="AS14" s="87"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3134,10 +3110,10 @@
         <v>1.0</v>
       </c>
       <c r="J15" t="n" s="87">
-        <v>0.7931394078279799</v>
+        <v>0.7931021400118055</v>
       </c>
       <c r="K15" t="n" s="87">
-        <v>0.7931394078279799</v>
+        <v>0.7931021400118055</v>
       </c>
       <c r="L15" t="n" s="87">
         <v>1.0</v>
@@ -3167,16 +3143,16 @@
         <v>0.45511928589625433</v>
       </c>
       <c r="U15" t="n" s="87">
-        <v>0.36376530171951016</v>
+        <v>0.36381901052051596</v>
       </c>
       <c r="V15" t="n" s="87">
         <v>0.45946446496540444</v>
       </c>
       <c r="W15" t="n" s="87">
-        <v>0.36874918841575066</v>
+        <v>0.3688032065221858</v>
       </c>
       <c r="X15" t="n" s="87">
-        <v>0.36874918841575066</v>
+        <v>0.3688032065221858</v>
       </c>
       <c r="Y15" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -3191,16 +3167,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC15" t="n" s="87">
-        <v>0.36362213634380275</v>
+        <v>0.3641030589315423</v>
       </c>
       <c r="AD15" t="n" s="87">
-        <v>0.36362213634380275</v>
+        <v>0.36410305893154243</v>
       </c>
       <c r="AE15" t="n" s="87">
-        <v>0.33865047809954857</v>
+        <v>0.33911597315674097</v>
       </c>
       <c r="AF15" t="n" s="87">
-        <v>0.3386504780995485</v>
+        <v>0.33911597315674086</v>
       </c>
       <c r="AG15" t="n" s="87">
         <v>1.0</v>
@@ -3209,7 +3185,7 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI15" t="n" s="87">
-        <v>0.36782742122470696</v>
+        <v>0.3683106866860508</v>
       </c>
       <c r="AJ15" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -3218,7 +3194,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL15" t="n" s="87">
-        <v>0.9828025514836383</v>
+        <v>0.9816921251693786</v>
       </c>
       <c r="AM15" t="n" s="87">
         <v>0.682956778696853</v>
@@ -3227,20 +3203,18 @@
         <v>0.9591963679410248</v>
       </c>
       <c r="AO15" t="n" s="87">
-        <v>0.999339927544617</v>
+        <v>0.9993753237982494</v>
       </c>
       <c r="AP15" t="n" s="87">
         <v>0.821675576635382</v>
       </c>
       <c r="AQ15" t="n" s="87">
-        <v>0.9893165925736741</v>
+        <v>0.9893107672123089</v>
       </c>
       <c r="AR15" t="n" s="87">
-        <v>0.9999527558023061</v>
-      </c>
-      <c r="AS15" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999551925831351</v>
+      </c>
+      <c r="AS15" s="87"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3301,10 +3275,10 @@
         <v>0.4651384955227411</v>
       </c>
       <c r="W16" t="n" s="87">
-        <v>0.36227335264310295</v>
+        <v>0.362299917452368</v>
       </c>
       <c r="X16" t="n" s="87">
-        <v>0.36227335264310295</v>
+        <v>0.362299917452368</v>
       </c>
       <c r="Y16" t="n" s="87">
         <v>0.49821377345635</v>
@@ -3319,16 +3293,16 @@
         <v>0.4910016926702666</v>
       </c>
       <c r="AC16" t="n" s="87">
-        <v>0.37154726778318004</v>
+        <v>0.3718223093462778</v>
       </c>
       <c r="AD16" t="n" s="87">
-        <v>0.37154726778318004</v>
+        <v>0.3718223093462779</v>
       </c>
       <c r="AE16" t="n" s="87">
-        <v>0.34926183295566365</v>
+        <v>0.3495295527272813</v>
       </c>
       <c r="AF16" t="n" s="87">
-        <v>0.3492618329556636</v>
+        <v>0.34952955272728126</v>
       </c>
       <c r="AG16" t="n" s="87">
         <v>1.0</v>
@@ -3337,7 +3311,7 @@
         <v>0.4641131508645797</v>
       </c>
       <c r="AI16" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ16" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -3364,11 +3338,9 @@
         <v>0.9999321846976571</v>
       </c>
       <c r="AR16" t="n" s="87">
-        <v>0.9999965067716154</v>
-      </c>
-      <c r="AS16" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999965010311246</v>
+      </c>
+      <c r="AS16" s="87"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3423,16 +3395,16 @@
         <v>0.45596990980697477</v>
       </c>
       <c r="U17" t="n" s="87">
-        <v>0.37950640690913084</v>
+        <v>0.3793630309631222</v>
       </c>
       <c r="V17" t="n" s="87">
         <v>0.4603163492691197</v>
       </c>
       <c r="W17" t="n" s="87">
-        <v>0.38457559917705275</v>
+        <v>0.3844314946381857</v>
       </c>
       <c r="X17" t="n" s="87">
-        <v>0.38457559917705275</v>
+        <v>0.3844314946381857</v>
       </c>
       <c r="Y17" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -3447,16 +3419,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC17" t="n" s="87">
-        <v>0.37779311269802196</v>
+        <v>0.3766101314717092</v>
       </c>
       <c r="AD17" t="n" s="87">
-        <v>0.37779311269802196</v>
+        <v>0.3766101314717092</v>
       </c>
       <c r="AE17" t="n" s="87">
-        <v>0.3553448758421174</v>
+        <v>0.3541921728034685</v>
       </c>
       <c r="AF17" t="n" s="87">
-        <v>0.35534487584211727</v>
+        <v>0.35419217280346843</v>
       </c>
       <c r="AG17" t="n" s="87">
         <v>1.0</v>
@@ -3465,7 +3437,7 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI17" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ17" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -3474,7 +3446,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL17" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM17" t="n" s="87">
         <v>0.6996969133754084</v>
@@ -3483,7 +3455,7 @@
         <v>0.9690112036423819</v>
       </c>
       <c r="AO17" t="n" s="87">
-        <v>0.9999981797641869</v>
+        <v>0.9999982774348134</v>
       </c>
       <c r="AP17" t="n" s="87">
         <v>0.8733346251103457</v>
@@ -3492,11 +3464,9 @@
         <v>0.9986276716196846</v>
       </c>
       <c r="AR17" t="n" s="87">
-        <v>0.9999999980009896</v>
-      </c>
-      <c r="AS17" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999999998107018</v>
+      </c>
+      <c r="AS17" s="87"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3557,10 +3527,10 @@
         <v>0.4996357286188256</v>
       </c>
       <c r="W18" t="n" s="87">
-        <v>0.3898890143956791</v>
+        <v>0.389744179746509</v>
       </c>
       <c r="X18" t="n" s="87">
-        <v>0.3898890143956791</v>
+        <v>0.389744179746509</v>
       </c>
       <c r="Y18" t="n" s="87">
         <v>0.508443082510305</v>
@@ -3575,16 +3545,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC18" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD18" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE18" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF18" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG18" t="n" s="87">
         <v>1.0</v>
@@ -3593,7 +3563,7 @@
         <v>0.473971888569348</v>
       </c>
       <c r="AI18" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ18" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -3602,7 +3572,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL18" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM18" t="n" s="87">
         <v>0.7534243418060365</v>
@@ -3611,7 +3581,7 @@
         <v>0.9876280663827864</v>
       </c>
       <c r="AO18" t="n" s="87">
-        <v>0.9999999389553557</v>
+        <v>0.9999999422309085</v>
       </c>
       <c r="AP18" t="n" s="87">
         <v>0.9471644072694204</v>
@@ -3620,11 +3590,9 @@
         <v>0.9999300113286804</v>
       </c>
       <c r="AR18" t="n" s="87">
-        <v>0.999999999999915</v>
-      </c>
-      <c r="AS18" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999999195</v>
+      </c>
+      <c r="AS18" s="87"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3685,10 +3653,10 @@
         <v>0.44842894975962583</v>
       </c>
       <c r="W19" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="X19" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="Y19" t="n" s="87">
         <v>0.508443082510305</v>
@@ -3703,16 +3671,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC19" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD19" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE19" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF19" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG19" t="n" s="87">
         <v>1.0</v>
@@ -3721,7 +3689,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI19" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ19" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -3730,7 +3698,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL19" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM19" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -3739,7 +3707,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO19" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP19" t="n" s="87">
         <v>0.916773436355647</v>
@@ -3748,11 +3716,9 @@
         <v>0.9997059754170516</v>
       </c>
       <c r="AR19" t="n" s="87">
-        <v>0.9999999999934622</v>
-      </c>
-      <c r="AS19" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999938088</v>
+      </c>
+      <c r="AS19" s="87"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3774,7 +3740,7 @@
         <v>1.0</v>
       </c>
       <c r="J20" t="n" s="87">
-        <v>0.9826449104895507</v>
+        <v>0.9826428160916619</v>
       </c>
       <c r="K20" t="n" s="87">
         <v>1.0</v>
@@ -3813,10 +3779,10 @@
         <v>0.44842894975962583</v>
       </c>
       <c r="W20" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="X20" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="Y20" t="n" s="87">
         <v>0.508443082510305</v>
@@ -3831,16 +3797,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC20" t="n" s="87">
-        <v>0.3714443350545217</v>
+        <v>0.371719345489888</v>
       </c>
       <c r="AD20" t="n" s="87">
-        <v>0.3714443350545217</v>
+        <v>0.371719345489888</v>
       </c>
       <c r="AE20" t="n" s="87">
-        <v>0.3491616439798356</v>
+        <v>0.3494293281920188</v>
       </c>
       <c r="AF20" t="n" s="87">
-        <v>0.3491616439798356</v>
+        <v>0.3494293281920188</v>
       </c>
       <c r="AG20" t="n" s="87">
         <v>1.0</v>
@@ -3849,7 +3815,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI20" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ20" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -3858,7 +3824,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL20" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM20" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -3867,7 +3833,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO20" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP20" t="n" s="87">
         <v>0.8884223477657271</v>
@@ -3876,11 +3842,9 @@
         <v>0.9992116235241997</v>
       </c>
       <c r="AR20" t="n" s="87">
-        <v>0.9999999998066252</v>
-      </c>
-      <c r="AS20" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999998167006</v>
+      </c>
+      <c r="AS20" s="87"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3941,10 +3905,10 @@
         <v>0.4996357286188256</v>
       </c>
       <c r="W21" t="n" s="87">
-        <v>0.4026710908958826</v>
+        <v>0.40252464068771343</v>
       </c>
       <c r="X21" t="n" s="87">
-        <v>0.4026710908958826</v>
+        <v>0.40252464068771343</v>
       </c>
       <c r="Y21" t="n" s="87">
         <v>0.508443082510305</v>
@@ -3959,16 +3923,16 @@
         <v>0.5059428794416613</v>
       </c>
       <c r="AC21" t="n" s="87">
-        <v>0.39577470185264685</v>
+        <v>0.39457112108396536</v>
       </c>
       <c r="AD21" t="n" s="87">
-        <v>0.39577470185264685</v>
+        <v>0.39457112108396536</v>
       </c>
       <c r="AE21" t="n" s="87">
-        <v>0.3728983518113258</v>
+        <v>0.37172154083567915</v>
       </c>
       <c r="AF21" t="n" s="87">
-        <v>0.3728983518113258</v>
+        <v>0.37172154083567915</v>
       </c>
       <c r="AG21" t="n" s="87">
         <v>1.0</v>
@@ -3977,7 +3941,7 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI21" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ21" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -3986,7 +3950,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL21" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM21" t="n" s="87">
         <v>0.7534243418060365</v>
@@ -3995,7 +3959,7 @@
         <v>0.9876280663827864</v>
       </c>
       <c r="AO21" t="n" s="87">
-        <v>0.9999999389553557</v>
+        <v>0.9999999422309085</v>
       </c>
       <c r="AP21" t="n" s="87">
         <v>0.9635197905171162</v>
@@ -4004,11 +3968,9 @@
         <v>0.9999765013162607</v>
       </c>
       <c r="AR21" t="n" s="87">
-        <v>0.9999999999999961</v>
-      </c>
-      <c r="AS21" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999999963</v>
+      </c>
+      <c r="AS21" s="87"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4063,16 +4025,16 @@
         <v>1.0</v>
       </c>
       <c r="U22" t="n" s="87">
-        <v>0.3650369203644128</v>
+        <v>0.3650635718164199</v>
       </c>
       <c r="V22" t="n" s="87">
         <v>0.44842894975962583</v>
       </c>
       <c r="W22" t="n" s="87">
-        <v>0.3443622553338705</v>
+        <v>0.34438821601799957</v>
       </c>
       <c r="X22" t="n" s="87">
-        <v>0.3443622553338705</v>
+        <v>0.34438821601799957</v>
       </c>
       <c r="Y22" t="n" s="87">
         <v>0.508443082510305</v>
@@ -4087,16 +4049,16 @@
         <v>0.5059428794416613</v>
       </c>
       <c r="AC22" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AD22" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AE22" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AF22" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AG22" t="n" s="87">
         <v>1.0</v>
@@ -4105,7 +4067,7 @@
         <v>0.4362638694223085</v>
       </c>
       <c r="AI22" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ22" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -4114,7 +4076,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL22" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM22" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -4123,7 +4085,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO22" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP22" t="n" s="87">
         <v>0.9214535332316106</v>
@@ -4132,11 +4094,9 @@
         <v>0.9997351763609814</v>
       </c>
       <c r="AR22" t="n" s="87">
-        <v>0.999999999991108</v>
-      </c>
-      <c r="AS22" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999915712</v>
+      </c>
+      <c r="AS22" s="87"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4197,10 +4157,10 @@
         <v>0.44842894975962583</v>
       </c>
       <c r="W23" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="X23" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="Y23" t="n" s="87">
         <v>0.508443082510305</v>
@@ -4215,16 +4175,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC23" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD23" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE23" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF23" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG23" t="n" s="87">
         <v>1.0</v>
@@ -4233,7 +4193,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI23" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ23" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -4242,7 +4202,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL23" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM23" t="n" s="87">
         <v>0.7534243418060365</v>
@@ -4251,7 +4211,7 @@
         <v>0.9876280663827864</v>
       </c>
       <c r="AO23" t="n" s="87">
-        <v>0.9999999389553557</v>
+        <v>0.9999999422309085</v>
       </c>
       <c r="AP23" t="n" s="87">
         <v>0.9250811156436469</v>
@@ -4260,11 +4220,9 @@
         <v>0.9997961917049657</v>
       </c>
       <c r="AR23" t="n" s="87">
-        <v>0.9999999999979419</v>
-      </c>
-      <c r="AS23" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999999999998051</v>
+      </c>
+      <c r="AS23" s="87"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4286,10 +4244,10 @@
         <v>1.0</v>
       </c>
       <c r="J24" t="n" s="87">
-        <v>0.9924473112381713</v>
+        <v>0.9924463906925959</v>
       </c>
       <c r="K24" t="n" s="87">
-        <v>0.9924473112381713</v>
+        <v>0.9924463906925959</v>
       </c>
       <c r="L24" t="n" s="87">
         <v>1.0</v>
@@ -4325,10 +4283,10 @@
         <v>0.44842894975962583</v>
       </c>
       <c r="W24" t="n" s="87">
-        <v>0.3443622553338705</v>
+        <v>0.34438821601799957</v>
       </c>
       <c r="X24" t="n" s="87">
-        <v>0.3443622553338705</v>
+        <v>0.34438821601799957</v>
       </c>
       <c r="Y24" t="n" s="87">
         <v>0.508443082510305</v>
@@ -4343,25 +4301,25 @@
         <v>0.5059428794416613</v>
       </c>
       <c r="AC24" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AD24" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AE24" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AF24" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AG24" t="n" s="87">
-        <v>0.3139200203118172</v>
+        <v>0.31417372873014787</v>
       </c>
       <c r="AH24" t="n" s="87">
         <v>0.4362638694223085</v>
       </c>
       <c r="AI24" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ24" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -4370,7 +4328,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL24" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM24" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -4379,7 +4337,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO24" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP24" t="n" s="87">
         <v>0.9214535332316106</v>
@@ -4388,11 +4346,9 @@
         <v>0.9997351763609814</v>
       </c>
       <c r="AR24" t="n" s="87">
-        <v>0.999999999991108</v>
-      </c>
-      <c r="AS24" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999915712</v>
+      </c>
+      <c r="AS24" s="87"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4414,10 +4370,10 @@
         <v>1.0</v>
       </c>
       <c r="J25" t="n" s="87">
-        <v>0.9821464708443363</v>
+        <v>0.9821443173881738</v>
       </c>
       <c r="K25" t="n" s="87">
-        <v>0.9821464708443363</v>
+        <v>0.9821443173881738</v>
       </c>
       <c r="L25" t="n" s="87">
         <v>1.0</v>
@@ -4453,10 +4409,10 @@
         <v>0.44758081989265597</v>
       </c>
       <c r="W25" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="X25" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="Y25" t="n" s="87">
         <v>0.508443082510305</v>
@@ -4471,16 +4427,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC25" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AD25" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AE25" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AF25" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AG25" t="n" s="87">
         <v>1.0</v>
@@ -4489,7 +4445,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI25" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ25" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -4498,7 +4454,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL25" t="n" s="87">
-        <v>0.9933225520474093</v>
+        <v>0.9928864777123033</v>
       </c>
       <c r="AM25" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -4507,7 +4463,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO25" t="n" s="87">
-        <v>0.9999993418239272</v>
+        <v>0.9999993771405273</v>
       </c>
       <c r="AP25" t="n" s="87">
         <v>0.8884223477657271</v>
@@ -4516,11 +4472,9 @@
         <v>0.9990340794065372</v>
       </c>
       <c r="AR25" t="n" s="87">
-        <v>0.9999999991956848</v>
-      </c>
-      <c r="AS25" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999992375923</v>
+      </c>
+      <c r="AS25" s="87"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4575,16 +4529,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U26" t="n" s="87">
-        <v>0.3134275063030318</v>
+        <v>0.31329648982588393</v>
       </c>
       <c r="V26" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W26" t="n" s="87">
-        <v>0.31852669206905304</v>
+        <v>0.31839453255294786</v>
       </c>
       <c r="X26" t="n" s="87">
-        <v>0.31852669206905304</v>
+        <v>0.31839453255294786</v>
       </c>
       <c r="Y26" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -4599,16 +4553,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC26" t="n" s="87">
-        <v>0.3612084871198496</v>
+        <v>0.36004738654632384</v>
       </c>
       <c r="AD26" t="n" s="87">
-        <v>0.3612084871198496</v>
+        <v>0.3600473865463239</v>
       </c>
       <c r="AE26" t="n" s="87">
-        <v>0.3392084618472652</v>
+        <v>0.33808065213643296</v>
       </c>
       <c r="AF26" t="n" s="87">
-        <v>0.33920846184726516</v>
+        <v>0.3380806521364329</v>
       </c>
       <c r="AG26" t="n" s="87">
         <v>1.0</v>
@@ -4617,7 +4571,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI26" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ26" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -4626,7 +4580,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL26" t="n" s="87">
-        <v>0.9010174926852031</v>
+        <v>0.9035805342402435</v>
       </c>
       <c r="AM26" t="n" s="87">
         <v>0.682956778696853</v>
@@ -4635,7 +4589,7 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO26" t="n" s="87">
-        <v>0.9981819946341294</v>
+        <v>0.998158269457723</v>
       </c>
       <c r="AP26" t="n" s="87">
         <v>0.7487507733148964</v>
@@ -4644,11 +4598,9 @@
         <v>0.9485920236634007</v>
       </c>
       <c r="AR26" t="n" s="87">
-        <v>0.9972341244860969</v>
-      </c>
-      <c r="AS26" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9971962399631065</v>
+      </c>
+      <c r="AS26" s="87"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4703,13 +4655,13 @@
         <v>0.4412543813673934</v>
       </c>
       <c r="U27" t="n" s="87">
-        <v>0.33711490289460033</v>
+        <v>0.33716676208459456</v>
       </c>
       <c r="V27" t="n" s="87">
         <v>0.4445182169919299</v>
       </c>
       <c r="W27" t="n" s="87">
-        <v>0.3424072684305041</v>
+        <v>0.342459521158366</v>
       </c>
       <c r="X27" t="n" s="87">
         <v>1.0</v>
@@ -4727,16 +4679,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC27" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.3547033719422817</v>
       </c>
       <c r="AD27" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.35470337194228174</v>
       </c>
       <c r="AE27" t="n" s="87">
-        <v>0.3295673271301924</v>
+        <v>0.33002656728703655</v>
       </c>
       <c r="AF27" t="n" s="87">
-        <v>0.3295673271301924</v>
+        <v>0.33002656728703655</v>
       </c>
       <c r="AG27" t="n" s="87">
         <v>1.0</v>
@@ -4745,7 +4697,7 @@
         <v>0.4549116989102941</v>
       </c>
       <c r="AI27" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ27" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -4754,7 +4706,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL27" t="n" s="87">
-        <v>0.7808802385435512</v>
+        <v>0.782534062961587</v>
       </c>
       <c r="AM27" t="n" s="87">
         <v>0.7385601264156041</v>
@@ -4763,20 +4715,18 @@
         <v>0.9822697973580395</v>
       </c>
       <c r="AO27" t="n" s="87">
-        <v>0.9642162148415847</v>
+        <v>0.9640665210552349</v>
       </c>
       <c r="AP27" t="n" s="87">
         <v>0.8542867787449654</v>
       </c>
       <c r="AQ27" t="n" s="87">
-        <v>0.9904627372073824</v>
+        <v>0.9904575307783599</v>
       </c>
       <c r="AR27" t="n" s="87">
-        <v>0.7471853966623343</v>
-      </c>
-      <c r="AS27" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7459512565672533</v>
+      </c>
+      <c r="AS27" s="87"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4798,10 +4748,10 @@
         <v>1.0</v>
       </c>
       <c r="J28" t="n" s="87">
-        <v>0.9530513751592123</v>
+        <v>0.9530458800878816</v>
       </c>
       <c r="K28" t="n" s="87">
-        <v>0.9530513751592123</v>
+        <v>0.9530458800878815</v>
       </c>
       <c r="L28" t="n" s="87">
         <v>1.0</v>
@@ -4837,10 +4787,10 @@
         <v>0.44758081989265597</v>
       </c>
       <c r="W28" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="X28" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="Y28" t="n" s="87">
         <v>0.508443082510305</v>
@@ -4855,25 +4805,25 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC28" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AD28" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AE28" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AF28" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AG28" t="n" s="87">
-        <v>0.3018051687089048</v>
+        <v>0.3020533966231678</v>
       </c>
       <c r="AH28" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI28" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ28" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -4882,7 +4832,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL28" t="n" s="87">
-        <v>0.9933225520474093</v>
+        <v>0.9928864777123033</v>
       </c>
       <c r="AM28" t="n" s="87">
         <v>0.6924341580012732</v>
@@ -4891,7 +4841,7 @@
         <v>0.9665117971876827</v>
       </c>
       <c r="AO28" t="n" s="87">
-        <v>0.9999934327165154</v>
+        <v>0.9999937851037204</v>
       </c>
       <c r="AP28" t="n" s="87">
         <v>0.8680094586607203</v>
@@ -4900,11 +4850,9 @@
         <v>0.9981498947549644</v>
       </c>
       <c r="AR28" t="n" s="87">
-        <v>0.9999999919744929</v>
-      </c>
-      <c r="AS28" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999923926474</v>
+      </c>
+      <c r="AS28" s="87"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4926,10 +4874,10 @@
         <v>1.0</v>
       </c>
       <c r="J29" t="n" s="87">
-        <v>0.4325611873465659</v>
+        <v>0.43253104528358827</v>
       </c>
       <c r="K29" t="n" s="87">
-        <v>0.4325611873465659</v>
+        <v>0.4325310452835882</v>
       </c>
       <c r="L29" t="n" s="87">
         <v>0.4504947723308551</v>
@@ -4959,16 +4907,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U29" t="n" s="87">
-        <v>0.3334444913852948</v>
+        <v>0.3334700476310695</v>
       </c>
       <c r="V29" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W29" t="n" s="87">
-        <v>0.33823380269038567</v>
+        <v>0.33825953972674294</v>
       </c>
       <c r="X29" t="n" s="87">
-        <v>0.33823380269038567</v>
+        <v>0.33825953972674294</v>
       </c>
       <c r="Y29" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -4983,16 +4931,16 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC29" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142896</v>
       </c>
       <c r="AD29" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142907</v>
       </c>
       <c r="AE29" t="n" s="87">
-        <v>0.3551320032101397</v>
+        <v>0.3554017651462192</v>
       </c>
       <c r="AF29" t="n" s="87">
-        <v>0.35513200321013966</v>
+        <v>0.3554017651462192</v>
       </c>
       <c r="AG29" t="n" s="87">
         <v>1.0</v>
@@ -5001,7 +4949,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI29" t="n" s="87">
-        <v>0.3968064807957032</v>
+        <v>0.3970884061525297</v>
       </c>
       <c r="AJ29" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -5010,7 +4958,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL29" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM29" t="n" s="87">
         <v>0.640178587661418</v>
@@ -5019,7 +4967,7 @@
         <v>0.9245978509765803</v>
       </c>
       <c r="AO29" t="n" s="87">
-        <v>0.9999429875628986</v>
+        <v>0.9999460465894054</v>
       </c>
       <c r="AP29" t="n" s="87">
         <v>0.7075836143247648</v>
@@ -5028,11 +4976,9 @@
         <v>0.9695879344009517</v>
       </c>
       <c r="AR29" t="n" s="87">
-        <v>0.9999710467104923</v>
-      </c>
-      <c r="AS29" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999725552273157</v>
+      </c>
+      <c r="AS29" s="87"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5054,10 +5000,10 @@
         <v>1.0</v>
       </c>
       <c r="J30" t="n" s="87">
-        <v>0.2672685024525803</v>
+        <v>0.2672240242303948</v>
       </c>
       <c r="K30" t="n" s="87">
-        <v>0.26726850245258027</v>
+        <v>0.26722402423039476</v>
       </c>
       <c r="L30" t="n" s="87">
         <v>1.0</v>
@@ -5087,16 +5033,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U30" t="n" s="87">
-        <v>0.29982550005371283</v>
+        <v>0.29987421790626223</v>
       </c>
       <c r="V30" t="n" s="87">
         <v>0.4029408553204122</v>
       </c>
       <c r="W30" t="n" s="87">
-        <v>0.30622834319851255</v>
+        <v>0.30627764633776083</v>
       </c>
       <c r="X30" t="n" s="87">
-        <v>0.30622834319851255</v>
+        <v>0.30627764633776083</v>
       </c>
       <c r="Y30" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -5111,16 +5057,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC30" t="n" s="87">
-        <v>0.3496176363597056</v>
+        <v>0.350090226357723</v>
       </c>
       <c r="AD30" t="n" s="87">
-        <v>0.3496176363597056</v>
+        <v>0.350090226357723</v>
       </c>
       <c r="AE30" t="n" s="87">
-        <v>0.3251163864262868</v>
+        <v>0.32557243625417087</v>
       </c>
       <c r="AF30" t="n" s="87">
-        <v>0.3251163864262868</v>
+        <v>0.3255724362541708</v>
       </c>
       <c r="AG30" t="n" s="87">
         <v>1.0</v>
@@ -5129,7 +5075,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI30" t="n" s="87">
-        <v>0.36782742122470696</v>
+        <v>0.3683106866860508</v>
       </c>
       <c r="AJ30" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -5138,7 +5084,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL30" t="n" s="87">
-        <v>0.821566641564054</v>
+        <v>0.8257891991248921</v>
       </c>
       <c r="AM30" t="n" s="87">
         <v>0.640178587661418</v>
@@ -5147,20 +5093,18 @@
         <v>0.8970096398906141</v>
       </c>
       <c r="AO30" t="n" s="87">
-        <v>0.9107061646293688</v>
+        <v>0.9096442052256988</v>
       </c>
       <c r="AP30" t="n" s="87">
         <v>0.6401785876614181</v>
       </c>
       <c r="AQ30" t="n" s="87">
-        <v>0.6642570294609809</v>
+        <v>0.664134131953919</v>
       </c>
       <c r="AR30" t="n" s="87">
-        <v>0.11937594091912532</v>
-      </c>
-      <c r="AS30" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.11778908141854055</v>
+      </c>
+      <c r="AS30" s="87"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5221,10 +5165,10 @@
         <v>0.4996357286188256</v>
       </c>
       <c r="W31" t="n" s="87">
-        <v>0.3898890143956791</v>
+        <v>0.389744179746509</v>
       </c>
       <c r="X31" t="n" s="87">
-        <v>0.3898890143956791</v>
+        <v>0.389744179746509</v>
       </c>
       <c r="Y31" t="n" s="87">
         <v>0.508443082510305</v>
@@ -5239,16 +5183,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC31" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD31" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE31" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF31" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG31" t="n" s="87">
         <v>1.0</v>
@@ -5257,7 +5201,7 @@
         <v>0.473971888569348</v>
       </c>
       <c r="AI31" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ31" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -5266,7 +5210,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL31" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM31" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -5275,7 +5219,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO31" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP31" t="n" s="87">
         <v>0.9411497385795025</v>
@@ -5284,11 +5228,9 @@
         <v>0.9998990246732269</v>
       </c>
       <c r="AR31" t="n" s="87">
-        <v>0.9999999999997298</v>
-      </c>
-      <c r="AS31" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999997441</v>
+      </c>
+      <c r="AS31" s="87"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5310,10 +5252,10 @@
         <v>1.0</v>
       </c>
       <c r="J32" t="n" s="87">
-        <v>0.2909522563590226</v>
+        <v>0.2909269228095576</v>
       </c>
       <c r="K32" t="n" s="87">
-        <v>0.2909522563590226</v>
+        <v>0.29092692280955756</v>
       </c>
       <c r="L32" t="n" s="87">
         <v>1.0</v>
@@ -5343,16 +5285,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U32" t="n" s="87">
-        <v>0.29962355161151655</v>
+        <v>0.299657676545663</v>
       </c>
       <c r="V32" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W32" t="n" s="87">
-        <v>0.30459779336465354</v>
+        <v>0.30463223841363346</v>
       </c>
       <c r="X32" t="n" s="87">
-        <v>0.30459779336465354</v>
+        <v>0.30463223841363346</v>
       </c>
       <c r="Y32" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -5367,25 +5309,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC32" t="n" s="87">
-        <v>0.34797758522094235</v>
+        <v>0.34832762935953465</v>
       </c>
       <c r="AD32" t="n" s="87">
-        <v>0.34797758522094235</v>
+        <v>0.3483276293595347</v>
       </c>
       <c r="AE32" t="n" s="87">
-        <v>0.3235340956260805</v>
+        <v>0.32387176475664015</v>
       </c>
       <c r="AF32" t="n" s="87">
-        <v>0.3235340956260805</v>
+        <v>0.3238717647566401</v>
       </c>
       <c r="AG32" t="n" s="87">
-        <v>0.25267048456822894</v>
+        <v>0.2529618510066298</v>
       </c>
       <c r="AH32" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI32" t="n" s="87">
-        <v>0.3677120177726493</v>
+        <v>0.3680707071728931</v>
       </c>
       <c r="AJ32" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -5394,7 +5336,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL32" t="n" s="87">
-        <v>0.7353005866539182</v>
+        <v>0.7409208299177656</v>
       </c>
       <c r="AM32" t="n" s="87">
         <v>0.640178587661418</v>
@@ -5403,20 +5345,18 @@
         <v>0.8928587871312639</v>
       </c>
       <c r="AO32" t="n" s="87">
-        <v>0.8536839278918799</v>
+        <v>0.8520539788644846</v>
       </c>
       <c r="AP32" t="n" s="87">
         <v>0.6401785876614181</v>
       </c>
       <c r="AQ32" t="n" s="87">
-        <v>0.6386841355488476</v>
+        <v>0.638635141225934</v>
       </c>
       <c r="AR32" t="n" s="87">
-        <v>0.06752374157915655</v>
-      </c>
-      <c r="AS32" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.0665950943672549</v>
+      </c>
+      <c r="AS32" s="87"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5471,16 +5411,16 @@
         <v>0.3938665003220677</v>
       </c>
       <c r="U33" t="n" s="87">
-        <v>0.30276966391818083</v>
+        <v>0.30281865326137286</v>
       </c>
       <c r="V33" t="n" s="87">
         <v>0.3957199859479192</v>
       </c>
       <c r="W33" t="n" s="87">
-        <v>0.308357353815444</v>
+        <v>0.3084068473527507</v>
       </c>
       <c r="X33" t="n" s="87">
-        <v>0.308357353815444</v>
+        <v>0.3084068473527507</v>
       </c>
       <c r="Y33" t="n" s="87">
         <v>0.4754596498940317</v>
@@ -5495,25 +5435,25 @@
         <v>0.4682695703355419</v>
       </c>
       <c r="AC33" t="n" s="87">
-        <v>0.35189529787371393</v>
+        <v>0.3523692986115516</v>
       </c>
       <c r="AD33" t="n" s="87">
-        <v>0.35189529787371393</v>
+        <v>0.3523692986115516</v>
       </c>
       <c r="AE33" t="n" s="87">
-        <v>0.327314759706025</v>
+        <v>0.32777239557574844</v>
       </c>
       <c r="AF33" t="n" s="87">
-        <v>0.32731475970602497</v>
+        <v>0.3277723955757484</v>
       </c>
       <c r="AG33" t="n" s="87">
-        <v>0.29383327705997075</v>
+        <v>0.29426457861074357</v>
       </c>
       <c r="AH33" t="n" s="87">
         <v>0.4282959160201773</v>
       </c>
       <c r="AI33" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ33" t="n" s="87">
         <v>0.5288302161232977</v>
@@ -5522,7 +5462,7 @@
         <v>0.6228050676329872</v>
       </c>
       <c r="AL33" t="n" s="87">
-        <v>0.5732752109068764</v>
+        <v>0.5803723764663934</v>
       </c>
       <c r="AM33" t="n" s="87">
         <v>0.6300681261923512</v>
@@ -5531,20 +5471,18 @@
         <v>0.8968971403946814</v>
       </c>
       <c r="AO33" t="n" s="87">
-        <v>0.7180919638244126</v>
+        <v>0.7154549970487019</v>
       </c>
       <c r="AP33" t="n" s="87">
         <v>0.6348517099960014</v>
       </c>
       <c r="AQ33" t="n" s="87">
-        <v>0.7754389339131894</v>
+        <v>0.7753429698431349</v>
       </c>
       <c r="AR33" t="n" s="87">
-        <v>0.05585879228391753</v>
-      </c>
-      <c r="AS33" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.055063469506312274</v>
+      </c>
+      <c r="AS33" s="87"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5566,10 +5504,10 @@
         <v>1.0</v>
       </c>
       <c r="J34" t="n" s="87">
-        <v>0.40120881876860104</v>
+        <v>0.4011542538066491</v>
       </c>
       <c r="K34" t="n" s="87">
-        <v>0.40120881876860104</v>
+        <v>0.4011542538066491</v>
       </c>
       <c r="L34" t="n" s="87">
         <v>1.0</v>
@@ -5599,16 +5537,16 @@
         <v>0.43335738158399995</v>
       </c>
       <c r="U34" t="n" s="87">
-        <v>0.3299809711686017</v>
+        <v>0.3300322793089743</v>
       </c>
       <c r="V34" t="n" s="87">
         <v>0.4366084488492332</v>
       </c>
       <c r="W34" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="X34" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="Y34" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -5623,25 +5561,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC34" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD34" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE34" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF34" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG34" t="n" s="87">
-        <v>0.28007979288742785</v>
+        <v>0.28049892539813304</v>
       </c>
       <c r="AH34" t="n" s="87">
         <v>0.4549116989102941</v>
       </c>
       <c r="AI34" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ34" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -5650,7 +5588,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL34" t="n" s="87">
-        <v>0.7131464276712869</v>
+        <v>0.7190573344990832</v>
       </c>
       <c r="AM34" t="n" s="87">
         <v>0.682956778696853</v>
@@ -5659,20 +5597,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO34" t="n" s="87">
-        <v>0.84826768378386</v>
+        <v>0.8465882410497882</v>
       </c>
       <c r="AP34" t="n" s="87">
         <v>0.7577173936703123</v>
       </c>
       <c r="AQ34" t="n" s="87">
-        <v>0.9137594853859232</v>
+        <v>0.913716054074902</v>
       </c>
       <c r="AR34" t="n" s="87">
-        <v>0.1605070397511441</v>
-      </c>
-      <c r="AS34" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.1584718168046745</v>
+      </c>
+      <c r="AS34" s="87"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5727,16 +5663,16 @@
         <v>0.39239606263403903</v>
       </c>
       <c r="U35" t="n" s="87">
-        <v>0.29332175317539355</v>
+        <v>0.2933501308220714</v>
       </c>
       <c r="V35" t="n" s="87">
         <v>0.3942471293397098</v>
       </c>
       <c r="W35" t="n" s="87">
-        <v>0.29643657003320145</v>
+        <v>0.2964651226051077</v>
       </c>
       <c r="X35" t="n" s="87">
-        <v>0.29643657003320145</v>
+        <v>0.2964651226051077</v>
       </c>
       <c r="Y35" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -5751,25 +5687,25 @@
         <v>0.4610917027033609</v>
       </c>
       <c r="AC35" t="n" s="87">
-        <v>0.3432234323619545</v>
+        <v>0.3435002370628802</v>
       </c>
       <c r="AD35" t="n" s="87">
-        <v>0.3432234323619545</v>
+        <v>0.3435002370628803</v>
       </c>
       <c r="AE35" t="n" s="87">
-        <v>0.31895053549720953</v>
+        <v>0.31921727898022606</v>
       </c>
       <c r="AF35" t="n" s="87">
-        <v>0.3189505354972094</v>
+        <v>0.31921727898022606</v>
       </c>
       <c r="AG35" t="n" s="87">
-        <v>0.3117047063155704</v>
+        <v>0.3119681658075901</v>
       </c>
       <c r="AH35" t="n" s="87">
         <v>0.44585118391102757</v>
       </c>
       <c r="AI35" t="n" s="87">
-        <v>0.3670860743960838</v>
+        <v>0.36737135925123693</v>
       </c>
       <c r="AJ35" t="n" s="87">
         <v>0.5080313957270569</v>
@@ -5778,7 +5714,7 @@
         <v>0.5666519883624488</v>
       </c>
       <c r="AL35" t="n" s="87">
-        <v>0.5767096458084434</v>
+        <v>0.5814343452775702</v>
       </c>
       <c r="AM35" t="n" s="87">
         <v>0.5768975016553616</v>
@@ -5787,20 +5723,18 @@
         <v>0.7796722286703439</v>
       </c>
       <c r="AO35" t="n" s="87">
-        <v>0.542403207166081</v>
+        <v>0.5402530908806238</v>
       </c>
       <c r="AP35" t="n" s="87">
         <v>0.4515371670838811</v>
       </c>
       <c r="AQ35" t="n" s="87">
-        <v>0.2986619596265637</v>
+        <v>0.29859101793928583</v>
       </c>
       <c r="AR35" t="n" s="87">
-        <v>0.010157625268690162</v>
-      </c>
-      <c r="AS35" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.010057694809888289</v>
+      </c>
+      <c r="AS35" s="87"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5822,10 +5756,10 @@
         <v>1.0</v>
       </c>
       <c r="J36" t="n" s="87">
-        <v>0.37615077917767253</v>
+        <v>0.37609748164288764</v>
       </c>
       <c r="K36" t="n" s="87">
-        <v>0.3761507791776725</v>
+        <v>0.3760974816428877</v>
       </c>
       <c r="L36" t="n" s="87">
         <v>1.0</v>
@@ -5855,16 +5789,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U36" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V36" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W36" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X36" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y36" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -5879,25 +5813,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC36" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD36" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE36" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF36" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG36" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH36" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI36" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ36" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -5906,7 +5840,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL36" t="n" s="87">
-        <v>0.7131464276712869</v>
+        <v>0.7190573344990832</v>
       </c>
       <c r="AM36" t="n" s="87">
         <v>0.682956778696853</v>
@@ -5915,20 +5849,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO36" t="n" s="87">
-        <v>0.8278402435120712</v>
+        <v>0.8259810841335778</v>
       </c>
       <c r="AP36" t="n" s="87">
         <v>0.6829567786968532</v>
       </c>
       <c r="AQ36" t="n" s="87">
-        <v>0.7599527007488124</v>
+        <v>0.7598521682967407</v>
       </c>
       <c r="AR36" t="n" s="87">
-        <v>0.04683539357075047</v>
-      </c>
-      <c r="AS36" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.04616226517147868</v>
+      </c>
+      <c r="AS36" s="87"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5983,16 +5915,16 @@
         <v>0.43335738158399995</v>
       </c>
       <c r="U37" t="n" s="87">
-        <v>0.3299809711686017</v>
+        <v>0.3300322793089743</v>
       </c>
       <c r="V37" t="n" s="87">
         <v>0.4366084488492332</v>
       </c>
       <c r="W37" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="X37" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="Y37" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6007,16 +5939,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC37" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD37" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE37" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF37" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG37" t="n" s="87">
         <v>1.0</v>
@@ -6025,7 +5957,7 @@
         <v>0.4549116989102941</v>
       </c>
       <c r="AI37" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ37" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -6034,7 +5966,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL37" t="n" s="87">
-        <v>0.7131464276712869</v>
+        <v>0.7190573344990832</v>
       </c>
       <c r="AM37" t="n" s="87">
         <v>0.682956778696853</v>
@@ -6043,20 +5975,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO37" t="n" s="87">
-        <v>0.84826768378386</v>
+        <v>0.8465882410497882</v>
       </c>
       <c r="AP37" t="n" s="87">
         <v>0.7577173936703123</v>
       </c>
       <c r="AQ37" t="n" s="87">
-        <v>0.9137594853859232</v>
+        <v>0.913716054074902</v>
       </c>
       <c r="AR37" t="n" s="87">
-        <v>0.1605070397511441</v>
-      </c>
-      <c r="AS37" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.1584718168046745</v>
+      </c>
+      <c r="AS37" s="87"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6111,16 +6041,16 @@
         <v>0.4341997435789006</v>
       </c>
       <c r="U38" t="n" s="87">
-        <v>0.3502118387190142</v>
+        <v>0.3501913763848782</v>
       </c>
       <c r="V38" t="n" s="87">
         <v>0.4374522516299245</v>
       </c>
       <c r="W38" t="n" s="87">
-        <v>0.3555995157994245</v>
+        <v>0.3555789109339265</v>
       </c>
       <c r="X38" t="n" s="87">
-        <v>0.3555995157994245</v>
+        <v>0.3555789109339265</v>
       </c>
       <c r="Y38" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6135,16 +6065,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC38" t="n" s="87">
-        <v>0.36508288825657503</v>
+        <v>0.3650257692794593</v>
       </c>
       <c r="AD38" t="n" s="87">
-        <v>0.36508288825657503</v>
+        <v>0.3650257692794593</v>
       </c>
       <c r="AE38" t="n" s="87">
-        <v>0.34297358437173314</v>
+        <v>0.3429180562416695</v>
       </c>
       <c r="AF38" t="n" s="87">
-        <v>0.34297358437173303</v>
+        <v>0.3429180562416695</v>
       </c>
       <c r="AG38" t="n" s="87">
         <v>1.0</v>
@@ -6153,7 +6083,7 @@
         <v>0.4641131508645797</v>
       </c>
       <c r="AI38" t="n" s="87">
-        <v>0.3787122725610601</v>
+        <v>0.3786542929197252</v>
       </c>
       <c r="AJ38" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -6162,7 +6092,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL38" t="n" s="87">
-        <v>0.879534186742921</v>
+        <v>0.8825810203069718</v>
       </c>
       <c r="AM38" t="n" s="87">
         <v>0.7071485155481357</v>
@@ -6171,20 +6101,18 @@
         <v>0.96470759351361</v>
       </c>
       <c r="AO38" t="n" s="87">
-        <v>0.9979138622531948</v>
+        <v>0.997886645327209</v>
       </c>
       <c r="AP38" t="n" s="87">
         <v>0.8772336177014239</v>
       </c>
       <c r="AQ38" t="n" s="87">
-        <v>0.9969608923215049</v>
+        <v>0.9969602489973657</v>
       </c>
       <c r="AR38" t="n" s="87">
-        <v>0.9970317495785794</v>
-      </c>
-      <c r="AS38" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9969874947170237</v>
+      </c>
+      <c r="AS38" s="87"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6239,16 +6167,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U39" t="n" s="87">
-        <v>0.3065636984002855</v>
+        <v>0.3066130316700534</v>
       </c>
       <c r="V39" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W39" t="n" s="87">
-        <v>0.3116018968306582</v>
+        <v>0.311651676482046</v>
       </c>
       <c r="X39" t="n" s="87">
-        <v>0.3116018968306582</v>
+        <v>0.311651676482046</v>
       </c>
       <c r="Y39" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6263,16 +6191,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC39" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.35583868176366007</v>
       </c>
       <c r="AD39" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.3558386817636602</v>
       </c>
       <c r="AE39" t="n" s="87">
-        <v>0.33066340940044403</v>
+        <v>0.33112342255710003</v>
       </c>
       <c r="AF39" t="n" s="87">
-        <v>0.330663409400444</v>
+        <v>0.33112342255710003</v>
       </c>
       <c r="AG39" t="n" s="87">
         <v>1.0</v>
@@ -6281,7 +6209,7 @@
         <v>0.4282959160201773</v>
       </c>
       <c r="AI39" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ39" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -6290,7 +6218,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL39" t="n" s="87">
-        <v>0.7131464276712869</v>
+        <v>0.7190573344990832</v>
       </c>
       <c r="AM39" t="n" s="87">
         <v>0.682956778696853</v>
@@ -6299,20 +6227,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO39" t="n" s="87">
-        <v>0.841473881490228</v>
+        <v>0.8397334490911575</v>
       </c>
       <c r="AP39" t="n" s="87">
         <v>0.7604100612629137</v>
       </c>
       <c r="AQ39" t="n" s="87">
-        <v>0.9121727132997778</v>
+        <v>0.9121285597256471</v>
       </c>
       <c r="AR39" t="n" s="87">
-        <v>0.15106489426075267</v>
-      </c>
-      <c r="AS39" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.14912812912940093</v>
+      </c>
+      <c r="AS39" s="87"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6367,16 +6293,16 @@
         <v>0.43335738158399995</v>
       </c>
       <c r="U40" t="n" s="87">
-        <v>0.3299809711686017</v>
+        <v>0.3300322793089743</v>
       </c>
       <c r="V40" t="n" s="87">
         <v>0.4366084488492332</v>
       </c>
       <c r="W40" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="X40" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="Y40" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6391,16 +6317,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC40" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD40" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE40" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF40" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG40" t="n" s="87">
         <v>1.0</v>
@@ -6409,7 +6335,7 @@
         <v>0.4549116989102941</v>
       </c>
       <c r="AI40" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ40" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -6418,7 +6344,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL40" t="n" s="87">
-        <v>0.6836746720479175</v>
+        <v>0.689928826297344</v>
       </c>
       <c r="AM40" t="n" s="87">
         <v>0.6680425829099692</v>
@@ -6427,20 +6353,18 @@
         <v>0.9274601453485772</v>
       </c>
       <c r="AO40" t="n" s="87">
-        <v>0.7741605999004308</v>
+        <v>0.7718814902576374</v>
       </c>
       <c r="AP40" t="n" s="87">
         <v>0.7450069766943055</v>
       </c>
       <c r="AQ40" t="n" s="87">
-        <v>0.8819792509497183</v>
+        <v>0.881921883065921</v>
       </c>
       <c r="AR40" t="n" s="87">
-        <v>0.10493235142608077</v>
-      </c>
-      <c r="AS40" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.10351492113114148</v>
+      </c>
+      <c r="AS40" s="87"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6462,10 +6386,10 @@
         <v>0.5151471362158454</v>
       </c>
       <c r="J41" t="n" s="87">
-        <v>0.9862142687559493</v>
+        <v>0.9862125990614977</v>
       </c>
       <c r="K41" t="n" s="87">
-        <v>0.9862142687559493</v>
+        <v>0.9862125990614977</v>
       </c>
       <c r="L41" t="n" s="87">
         <v>1.0</v>
@@ -6501,10 +6425,10 @@
         <v>0.4794238873304297</v>
       </c>
       <c r="W41" t="n" s="87">
-        <v>0.3686310609816474</v>
+        <v>0.3686578224888157</v>
       </c>
       <c r="X41" t="n" s="87">
-        <v>0.3686310609816474</v>
+        <v>0.3686578224888157</v>
       </c>
       <c r="Y41" t="n" s="87">
         <v>0.508443082510305</v>
@@ -6519,16 +6443,16 @@
         <v>0.5012308378278012</v>
       </c>
       <c r="AC41" t="n" s="87">
-        <v>0.37797126754062044</v>
+        <v>0.37824820237270473</v>
       </c>
       <c r="AD41" t="n" s="87">
-        <v>0.37797126754062044</v>
+        <v>0.37824820237270473</v>
       </c>
       <c r="AE41" t="n" s="87">
-        <v>0.35551849340939057</v>
+        <v>0.355788386951558</v>
       </c>
       <c r="AF41" t="n" s="87">
-        <v>0.35551849340939057</v>
+        <v>0.355788386951558</v>
       </c>
       <c r="AG41" t="n" s="87">
         <v>1.0</v>
@@ -6537,7 +6461,7 @@
         <v>0.4641131508645797</v>
       </c>
       <c r="AI41" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ41" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -6546,7 +6470,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL41" t="n" s="87">
-        <v>0.9836087370347111</v>
+        <v>0.9825494412345284</v>
       </c>
       <c r="AM41" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -6555,7 +6479,7 @@
         <v>0.9814607405710658</v>
       </c>
       <c r="AO41" t="n" s="87">
-        <v>0.9999971340782222</v>
+        <v>0.9999972878583513</v>
       </c>
       <c r="AP41" t="n" s="87">
         <v>0.9445419984089427</v>
@@ -6564,11 +6488,9 @@
         <v>0.9998977441800377</v>
       </c>
       <c r="AR41" t="n" s="87">
-        <v>0.999999999645557</v>
-      </c>
-      <c r="AS41" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999996640246</v>
+      </c>
+      <c r="AS41" s="87"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6623,16 +6545,16 @@
         <v>0.3955262264113151</v>
       </c>
       <c r="U42" t="n" s="87">
-        <v>0.2966339254564623</v>
+        <v>0.29668234445893227</v>
       </c>
       <c r="V42" t="n" s="87">
         <v>0.39899374794856657</v>
       </c>
       <c r="W42" t="n" s="87">
-        <v>0.3011823513746818</v>
+        <v>0.3012311948466337</v>
       </c>
       <c r="X42" t="n" s="87">
-        <v>0.3011823513746818</v>
+        <v>0.3012311948466337</v>
       </c>
       <c r="Y42" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6647,25 +6569,25 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC42" t="n" s="87">
-        <v>0.3442114067861698</v>
+        <v>0.344680561877687</v>
       </c>
       <c r="AD42" t="n" s="87">
-        <v>0.3442114067861699</v>
+        <v>0.3446805618776871</v>
       </c>
       <c r="AE42" t="n" s="87">
-        <v>0.31990267222457974</v>
+        <v>0.32035488017761393</v>
       </c>
       <c r="AF42" t="n" s="87">
-        <v>0.31990267222457974</v>
+        <v>0.3203548801776139</v>
       </c>
       <c r="AG42" t="n" s="87">
-        <v>0.24954104028175753</v>
+        <v>0.2499303378641244</v>
       </c>
       <c r="AH42" t="n" s="87">
         <v>0.41946027274563624</v>
       </c>
       <c r="AI42" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ42" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -6674,7 +6596,7 @@
         <v>0.6853804562558511</v>
       </c>
       <c r="AL42" t="n" s="87">
-        <v>0.7911003778175529</v>
+        <v>0.7942856717754772</v>
       </c>
       <c r="AM42" t="n" s="87">
         <v>0.6695500471016048</v>
@@ -6683,20 +6605,18 @@
         <v>0.8718805078360214</v>
       </c>
       <c r="AO42" t="n" s="87">
-        <v>0.7918046022139652</v>
+        <v>0.7903734521120379</v>
       </c>
       <c r="AP42" t="n" s="87">
         <v>0.5614916978029197</v>
       </c>
       <c r="AQ42" t="n" s="87">
-        <v>0.4708894796025463</v>
+        <v>0.47075219586461586</v>
       </c>
       <c r="AR42" t="n" s="87">
-        <v>0.03213265620374634</v>
-      </c>
-      <c r="AS42" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.03179684619214343</v>
+      </c>
+      <c r="AS42" s="87"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6751,16 +6671,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U43" t="n" s="87">
-        <v>0.30237941547279407</v>
+        <v>0.3024283690612587</v>
       </c>
       <c r="V43" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W43" t="n" s="87">
-        <v>0.30737932962963316</v>
+        <v>0.30742873596320214</v>
       </c>
       <c r="X43" t="n" s="87">
-        <v>0.30737932962963316</v>
+        <v>0.30742873596320214</v>
       </c>
       <c r="Y43" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6775,25 +6695,25 @@
         <v>0.46617707652867163</v>
       </c>
       <c r="AC43" t="n" s="87">
-        <v>0.35084923238348487</v>
+        <v>0.35132258788771353</v>
       </c>
       <c r="AD43" t="n" s="87">
-        <v>0.35084923238348487</v>
+        <v>0.35132258788771353</v>
       </c>
       <c r="AE43" t="n" s="87">
-        <v>0.32630497505277295</v>
+        <v>0.32676188489809077</v>
       </c>
       <c r="AF43" t="n" s="87">
-        <v>0.32630497505277295</v>
+        <v>0.3267618848980907</v>
       </c>
       <c r="AG43" t="n" s="87">
-        <v>0.2550632940435742</v>
+        <v>0.25545827406698596</v>
       </c>
       <c r="AH43" t="n" s="87">
         <v>0.423464762723566</v>
       </c>
       <c r="AI43" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ43" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -6802,7 +6722,7 @@
         <v>0.7340691274635649</v>
       </c>
       <c r="AL43" t="n" s="87">
-        <v>0.7102312104772701</v>
+        <v>0.7161782809286813</v>
       </c>
       <c r="AM43" t="n" s="87">
         <v>0.7071485155481357</v>
@@ -6811,20 +6731,18 @@
         <v>0.9511621374398553</v>
       </c>
       <c r="AO43" t="n" s="87">
-        <v>0.8615670290262781</v>
+        <v>0.8600104966019904</v>
       </c>
       <c r="AP43" t="n" s="87">
         <v>0.7805904607825251</v>
       </c>
       <c r="AQ43" t="n" s="87">
-        <v>0.833647475039201</v>
+        <v>0.8335710470624179</v>
       </c>
       <c r="AR43" t="n" s="87">
-        <v>0.08567354157819673</v>
-      </c>
-      <c r="AS43" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.08449170277514759</v>
+      </c>
+      <c r="AS43" s="87"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6879,16 +6797,16 @@
         <v>0.43335738158399995</v>
       </c>
       <c r="U44" t="n" s="87">
-        <v>0.33090857152699277</v>
+        <v>0.3309445759300128</v>
       </c>
       <c r="V44" t="n" s="87">
         <v>0.4366084488492332</v>
       </c>
       <c r="W44" t="n" s="87">
-        <v>0.3361529128228471</v>
+        <v>0.3361892011287349</v>
       </c>
       <c r="X44" t="n" s="87">
-        <v>0.3361529128228471</v>
+        <v>0.3361892011287349</v>
       </c>
       <c r="Y44" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6903,25 +6821,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC44" t="n" s="87">
-        <v>0.34797758522094235</v>
+        <v>0.34832762935953465</v>
       </c>
       <c r="AD44" t="n" s="87">
-        <v>0.34797758522094235</v>
+        <v>0.3483276293595347</v>
       </c>
       <c r="AE44" t="n" s="87">
-        <v>0.3235340956260805</v>
+        <v>0.32387176475664015</v>
       </c>
       <c r="AF44" t="n" s="87">
-        <v>0.3235340956260805</v>
+        <v>0.3238717647566401</v>
       </c>
       <c r="AG44" t="n" s="87">
-        <v>0.28102004425650284</v>
+        <v>0.2813317953321369</v>
       </c>
       <c r="AH44" t="n" s="87">
         <v>0.4549116989102941</v>
       </c>
       <c r="AI44" t="n" s="87">
-        <v>0.3677120177726493</v>
+        <v>0.3680707071728931</v>
       </c>
       <c r="AJ44" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -6930,7 +6848,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL44" t="n" s="87">
-        <v>0.7747417484299349</v>
+        <v>0.7797753698923087</v>
       </c>
       <c r="AM44" t="n" s="87">
         <v>0.682956778696853</v>
@@ -6939,20 +6857,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO44" t="n" s="87">
-        <v>0.9481040167186751</v>
+        <v>0.9474611661330284</v>
       </c>
       <c r="AP44" t="n" s="87">
         <v>0.7577173936703123</v>
       </c>
       <c r="AQ44" t="n" s="87">
-        <v>0.9278964448363413</v>
+        <v>0.9278822393712236</v>
       </c>
       <c r="AR44" t="n" s="87">
-        <v>0.4314527659486959</v>
-      </c>
-      <c r="AS44" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.4278153443134126</v>
+      </c>
+      <c r="AS44" s="87"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6974,10 +6890,10 @@
         <v>1.0</v>
       </c>
       <c r="J45" t="n" s="87">
-        <v>0.44176567844165376</v>
+        <v>0.44170966651681776</v>
       </c>
       <c r="K45" t="n" s="87">
-        <v>0.44176567844165376</v>
+        <v>0.44170966651681776</v>
       </c>
       <c r="L45" t="n" s="87">
         <v>1.0</v>
@@ -7013,10 +6929,10 @@
         <v>0.4206250441567103</v>
       </c>
       <c r="W45" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X45" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y45" t="n" s="87">
         <v>0.49821377345635</v>
@@ -7031,16 +6947,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC45" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD45" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE45" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF45" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG45" t="n" s="87">
         <v>1.0</v>
@@ -7049,7 +6965,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI45" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ45" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -7058,7 +6974,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL45" t="n" s="87">
-        <v>0.7402111854788673</v>
+        <v>0.7439212593163967</v>
       </c>
       <c r="AM45" t="n" s="87">
         <v>0.6996969133754084</v>
@@ -7067,20 +6983,18 @@
         <v>0.9631272288594732</v>
       </c>
       <c r="AO45" t="n" s="87">
-        <v>0.9029246575754527</v>
+        <v>0.9021629721496619</v>
       </c>
       <c r="AP45" t="n" s="87">
         <v>0.7690884299928437</v>
       </c>
       <c r="AQ45" t="n" s="87">
-        <v>0.9385881177715649</v>
+        <v>0.9385563495352404</v>
       </c>
       <c r="AR45" t="n" s="87">
-        <v>0.24152807397702786</v>
-      </c>
-      <c r="AS45" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.23954553675135182</v>
+      </c>
+      <c r="AS45" s="87"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7090,10 +7004,10 @@
         <v>1.0</v>
       </c>
       <c r="F46" t="n" s="87">
-        <v>0.06824053677552389</v>
+        <v>0.06819052063825565</v>
       </c>
       <c r="G46" t="n" s="87">
-        <v>0.1896545053897053</v>
+        <v>0.18953360191913637</v>
       </c>
       <c r="H46" t="n" s="87">
         <v>1.0</v>
@@ -7102,10 +7016,10 @@
         <v>1.0</v>
       </c>
       <c r="J46" t="n" s="87">
-        <v>0.13016723397457414</v>
+        <v>0.13014151943837965</v>
       </c>
       <c r="K46" t="n" s="87">
-        <v>0.13016723397457414</v>
+        <v>0.13014151943837965</v>
       </c>
       <c r="L46" t="n" s="87">
         <v>0.42841092371392897</v>
@@ -7135,16 +7049,16 @@
         <v>0.3896926267871693</v>
       </c>
       <c r="U46" t="n" s="87">
-        <v>0.2915553788469895</v>
+        <v>0.2916033125608331</v>
       </c>
       <c r="V46" t="n" s="87">
         <v>0.3915391584969836</v>
       </c>
       <c r="W46" t="n" s="87">
-        <v>0.29702427353757277</v>
+        <v>0.2970727293449187</v>
       </c>
       <c r="X46" t="n" s="87">
-        <v>0.29702427353757277</v>
+        <v>0.2970727293449187</v>
       </c>
       <c r="Y46" t="n" s="87">
         <v>0.4754596498940317</v>
@@ -7159,25 +7073,25 @@
         <v>0.4592717505240577</v>
       </c>
       <c r="AC46" t="n" s="87">
-        <v>0.34368826966758587</v>
+        <v>0.3441570859272636</v>
       </c>
       <c r="AD46" t="n" s="87">
-        <v>0.3436882696675859</v>
+        <v>0.34415708592726363</v>
       </c>
       <c r="AE46" t="n" s="87">
-        <v>0.31939848609964083</v>
+        <v>0.3198503165321779</v>
       </c>
       <c r="AF46" t="n" s="87">
-        <v>0.3193984860996408</v>
+        <v>0.3198503165321778</v>
       </c>
       <c r="AG46" t="n" s="87">
-        <v>0.19651750322628</v>
+        <v>0.19684577860384045</v>
       </c>
       <c r="AH46" t="n" s="87">
         <v>0.3501316687484259</v>
       </c>
       <c r="AI46" t="n" s="87">
-        <v>0.3051997019177224</v>
+        <v>0.30564046644298765</v>
       </c>
       <c r="AJ46" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -7186,7 +7100,7 @@
         <v>0.602415603582251</v>
       </c>
       <c r="AL46" t="n" s="87">
-        <v>0.3546427644269906</v>
+        <v>0.36132510571279597</v>
       </c>
       <c r="AM46" t="n" s="87">
         <v>0.5533464899334563</v>
@@ -7195,20 +7109,18 @@
         <v>0.4454497392998044</v>
       </c>
       <c r="AO46" t="n" s="87">
-        <v>0.036028280310884314</v>
+        <v>0.0355798619037807</v>
       </c>
       <c r="AP46" t="n" s="87">
         <v>0.3878839640455175</v>
       </c>
       <c r="AQ46" t="n" s="87">
-        <v>0.059037780467059445</v>
+        <v>0.059007177934026864</v>
       </c>
       <c r="AR46" t="n" s="87">
-        <v>1.9482636272877437E-4</v>
-      </c>
-      <c r="AS46" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>1.9189132547891484E-4</v>
+      </c>
+      <c r="AS46" s="87"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7230,7 +7142,7 @@
         <v>1.0</v>
       </c>
       <c r="J47" t="n" s="87">
-        <v>0.3270807037617072</v>
+        <v>0.32703071428571867</v>
       </c>
       <c r="K47" t="n" s="87">
         <v>1.0</v>
@@ -7263,16 +7175,16 @@
         <v>1.0</v>
       </c>
       <c r="U47" t="n" s="87">
-        <v>0.29770773682063856</v>
+        <v>0.2977562568995762</v>
       </c>
       <c r="V47" t="n" s="87">
         <v>0.4011493987760339</v>
       </c>
       <c r="W47" t="n" s="87">
-        <v>0.30226555218797674</v>
+        <v>0.3023144953309173</v>
       </c>
       <c r="X47" t="n" s="87">
-        <v>0.30226555218797674</v>
+        <v>0.3023144953309173</v>
       </c>
       <c r="Y47" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -7287,25 +7199,25 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC47" t="n" s="87">
-        <v>0.34807134349685775</v>
+        <v>0.3485429634538138</v>
       </c>
       <c r="AD47" t="n" s="87">
-        <v>0.34807134349685775</v>
+        <v>0.3485429634538138</v>
       </c>
       <c r="AE47" t="n" s="87">
-        <v>0.32002577297037693</v>
+        <v>0.3204780729371931</v>
       </c>
       <c r="AF47" t="n" s="87">
-        <v>0.32002577297037693</v>
+        <v>0.32047807293719305</v>
       </c>
       <c r="AG47" t="n" s="87">
-        <v>0.25050509117454534</v>
+        <v>0.25089538991693605</v>
       </c>
       <c r="AH47" t="n" s="87">
         <v>0.420574886552213</v>
       </c>
       <c r="AI47" t="n" s="87">
-        <v>0.36280914984092744</v>
+        <v>0.3632896110089473</v>
       </c>
       <c r="AJ47" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -7314,7 +7226,7 @@
         <v>0.6979677322722034</v>
       </c>
       <c r="AL47" t="n" s="87">
-        <v>0.8259455378017038</v>
+        <v>0.8287145525055678</v>
       </c>
       <c r="AM47" t="n" s="87">
         <v>0.6736794950649516</v>
@@ -7323,20 +7235,18 @@
         <v>0.7856453779716053</v>
       </c>
       <c r="AO47" t="n" s="87">
-        <v>0.7418733409871235</v>
+        <v>0.7402115727735816</v>
       </c>
       <c r="AP47" t="n" s="87">
         <v>0.6494259613683465</v>
       </c>
       <c r="AQ47" t="n" s="87">
-        <v>0.438860633338225</v>
+        <v>0.43872494472313717</v>
       </c>
       <c r="AR47" t="n" s="87">
-        <v>0.047297524267704755</v>
-      </c>
-      <c r="AS47" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.04681089525528706</v>
+      </c>
+      <c r="AS47" s="87"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7358,10 +7268,10 @@
         <v>1.0</v>
       </c>
       <c r="J48" t="n" s="87">
-        <v>0.21641850598048282</v>
+        <v>0.21637999112003586</v>
       </c>
       <c r="K48" t="n" s="87">
-        <v>0.21641850598048282</v>
+        <v>0.21637999112003586</v>
       </c>
       <c r="L48" t="n" s="87">
         <v>1.0</v>
@@ -7391,16 +7301,16 @@
         <v>0.3949593737081118</v>
       </c>
       <c r="U48" t="n" s="87">
-        <v>0.29613936670176394</v>
+        <v>0.29618773897204104</v>
       </c>
       <c r="V48" t="n" s="87">
         <v>0.3968146353632</v>
       </c>
       <c r="W48" t="n" s="87">
-        <v>0.30165763366352255</v>
+        <v>0.3017065209357487</v>
       </c>
       <c r="X48" t="n" s="87">
-        <v>0.30165763366352255</v>
+        <v>0.3017065209357487</v>
       </c>
       <c r="Y48" t="n" s="87">
         <v>0.4754596498940317</v>
@@ -7415,25 +7325,25 @@
         <v>0.4592717505240577</v>
       </c>
       <c r="AC48" t="n" s="87">
-        <v>0.34368826966758587</v>
+        <v>0.3441570859272636</v>
       </c>
       <c r="AD48" t="n" s="87">
-        <v>0.3436882696675859</v>
+        <v>0.34415708592726363</v>
       </c>
       <c r="AE48" t="n" s="87">
-        <v>0.31939848609964083</v>
+        <v>0.3198503165321779</v>
       </c>
       <c r="AF48" t="n" s="87">
-        <v>0.3193984860996408</v>
+        <v>0.3198503165321778</v>
       </c>
       <c r="AG48" t="n" s="87">
-        <v>0.24784156797273862</v>
+        <v>0.2482290912454805</v>
       </c>
       <c r="AH48" t="n" s="87">
         <v>0.420574886552213</v>
       </c>
       <c r="AI48" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ48" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -7442,7 +7352,7 @@
         <v>0.6496782534060546</v>
       </c>
       <c r="AL48" t="n" s="87">
-        <v>0.7634572309994243</v>
+        <v>0.7686677220151629</v>
       </c>
       <c r="AM48" t="n" s="87">
         <v>0.6567090786588992</v>
@@ -7451,20 +7361,18 @@
         <v>0.8446799206625284</v>
       </c>
       <c r="AO48" t="n" s="87">
-        <v>0.7552445084140041</v>
+        <v>0.7528354496915597</v>
       </c>
       <c r="AP48" t="n" s="87">
         <v>0.5283122493710866</v>
       </c>
       <c r="AQ48" t="n" s="87">
-        <v>0.4130896855608391</v>
+        <v>0.4129561010904337</v>
       </c>
       <c r="AR48" t="n" s="87">
-        <v>0.03131607302267183</v>
-      </c>
-      <c r="AS48" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.03085877048952137</v>
+      </c>
+      <c r="AS48" s="87"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7486,10 +7394,10 @@
         <v>1.0</v>
       </c>
       <c r="J49" t="n" s="87">
-        <v>0.22947231013190228</v>
+        <v>0.2294321523618166</v>
       </c>
       <c r="K49" t="n" s="87">
-        <v>0.22947231013190225</v>
+        <v>0.22943215236181655</v>
       </c>
       <c r="L49" t="n" s="87">
         <v>1.0</v>
@@ -7519,16 +7427,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U49" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V49" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W49" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X49" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y49" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -7543,25 +7451,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC49" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD49" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE49" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF49" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG49" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH49" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI49" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ49" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -7570,7 +7478,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL49" t="n" s="87">
-        <v>0.6675482975978242</v>
+        <v>0.673969242884812</v>
       </c>
       <c r="AM49" t="n" s="87">
         <v>0.640178587661418</v>
@@ -7579,20 +7487,18 @@
         <v>0.8928587871312639</v>
       </c>
       <c r="AO49" t="n" s="87">
-        <v>0.6409862675476384</v>
+        <v>0.6379916529447432</v>
       </c>
       <c r="AP49" t="n" s="87">
         <v>0.6401785876614181</v>
       </c>
       <c r="AQ49" t="n" s="87">
-        <v>0.5927312987743535</v>
+        <v>0.5925982772977038</v>
       </c>
       <c r="AR49" t="n" s="87">
-        <v>0.017917483596198318</v>
-      </c>
-      <c r="AS49" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.01765227261612233</v>
+      </c>
+      <c r="AS49" s="87"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7614,10 +7520,10 @@
         <v>1.0</v>
       </c>
       <c r="J50" t="n" s="87">
-        <v>0.1550331558487811</v>
+        <v>0.1550034044106142</v>
       </c>
       <c r="K50" t="n" s="87">
-        <v>0.15503315584878108</v>
+        <v>0.15500340441061417</v>
       </c>
       <c r="L50" t="n" s="87">
         <v>1.0</v>
@@ -7647,16 +7553,16 @@
         <v>0.3973321606181815</v>
       </c>
       <c r="U50" t="n" s="87">
-        <v>0.297369081417271</v>
+        <v>0.29741756967679756</v>
       </c>
       <c r="V50" t="n" s="87">
         <v>0.3984379375836811</v>
       </c>
       <c r="W50" t="n" s="87">
-        <v>0.30050860086070436</v>
+        <v>0.30055738206260335</v>
       </c>
       <c r="X50" t="n" s="87">
-        <v>0.30050860086070436</v>
+        <v>0.30055738206260335</v>
       </c>
       <c r="Y50" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -7671,25 +7577,25 @@
         <v>0.4610917027033609</v>
       </c>
       <c r="AC50" t="n" s="87">
-        <v>0.3434887124239015</v>
+        <v>0.34395739913196804</v>
       </c>
       <c r="AD50" t="n" s="87">
-        <v>0.3434887124239016</v>
+        <v>0.3439573991319681</v>
       </c>
       <c r="AE50" t="n" s="87">
-        <v>0.3192061729182779</v>
+        <v>0.3196578590734577</v>
       </c>
       <c r="AF50" t="n" s="87">
-        <v>0.31920617291827774</v>
+        <v>0.3196578590734577</v>
       </c>
       <c r="AG50" t="n" s="87">
-        <v>0.24894165942842675</v>
+        <v>0.24933033260797233</v>
       </c>
       <c r="AH50" t="n" s="87">
         <v>0.41848006318594666</v>
       </c>
       <c r="AI50" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ50" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -7698,7 +7604,7 @@
         <v>0.670776244757283</v>
       </c>
       <c r="AL50" t="n" s="87">
-        <v>0.5378900954566629</v>
+        <v>0.545108792147092</v>
       </c>
       <c r="AM50" t="n" s="87">
         <v>0.6068110543172652</v>
@@ -7707,20 +7613,18 @@
         <v>0.7844408531006882</v>
       </c>
       <c r="AO50" t="n" s="87">
-        <v>0.4039817945725544</v>
+        <v>0.40085812493218187</v>
       </c>
       <c r="AP50" t="n" s="87">
         <v>0.5565936040162456</v>
       </c>
       <c r="AQ50" t="n" s="87">
-        <v>0.3407720874287434</v>
+        <v>0.34064831549458136</v>
       </c>
       <c r="AR50" t="n" s="87">
-        <v>0.0056019339605368765</v>
-      </c>
-      <c r="AS50" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.005517991024421457</v>
+      </c>
+      <c r="AS50" s="87"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7826,7 +7730,7 @@
         <v>0.5871266109552733</v>
       </c>
       <c r="AL51" t="n" s="87">
-        <v>0.8337360070005491</v>
+        <v>0.8334794221165546</v>
       </c>
       <c r="AM51" t="n" s="87">
         <v>0.5972506306648782</v>
@@ -7835,7 +7739,7 @@
         <v>0.41417809034457986</v>
       </c>
       <c r="AO51" t="n" s="87">
-        <v>0.23262108492601502</v>
+        <v>0.23436145259652305</v>
       </c>
       <c r="AP51" t="n" s="87">
         <v>0.28806655084454974</v>
@@ -7844,11 +7748,9 @@
         <v>0.07545942929931607</v>
       </c>
       <c r="AR51" t="n" s="87">
-        <v>0.010999888430034984</v>
-      </c>
-      <c r="AS51" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.01110618177687915</v>
+      </c>
+      <c r="AS51" s="87"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7903,16 +7805,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U52" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V52" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W52" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X52" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y52" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -7927,25 +7829,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC52" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD52" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE52" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF52" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG52" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH52" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI52" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ52" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -7954,7 +7856,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL52" t="n" s="87">
-        <v>0.7105108062338504</v>
+        <v>0.7164544292959851</v>
       </c>
       <c r="AM52" t="n" s="87">
         <v>0.6856762743610991</v>
@@ -7963,20 +7865,18 @@
         <v>0.9487171792127546</v>
       </c>
       <c r="AO52" t="n" s="87">
-        <v>0.8289027347557011</v>
+        <v>0.8270526522047922</v>
       </c>
       <c r="AP52" t="n" s="87">
         <v>0.6856762743610991</v>
       </c>
       <c r="AQ52" t="n" s="87">
-        <v>0.7636403232945096</v>
+        <v>0.7635408546931527</v>
       </c>
       <c r="AR52" t="n" s="87">
-        <v>0.047170147193950754</v>
-      </c>
-      <c r="AS52" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.04649244231644498</v>
+      </c>
+      <c r="AS52" s="87"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8031,16 +7931,16 @@
         <v>0.46494632451890644</v>
       </c>
       <c r="U53" t="n" s="87">
-        <v>0.3631791832788388</v>
+        <v>0.36323285494703583</v>
       </c>
       <c r="V53" t="n" s="87">
         <v>0.46457174408340707</v>
       </c>
       <c r="W53" t="n" s="87">
-        <v>0.3702195914243733</v>
+        <v>0.370273698583108</v>
       </c>
       <c r="X53" t="n" s="87">
-        <v>0.3702195914243733</v>
+        <v>0.370273698583108</v>
       </c>
       <c r="Y53" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -8055,16 +7955,16 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC53" t="n" s="87">
-        <v>0.3620906700788816</v>
+        <v>0.36257072117743133</v>
       </c>
       <c r="AD53" t="n" s="87">
-        <v>0.3620906700788816</v>
+        <v>0.36257072117743144</v>
       </c>
       <c r="AE53" t="n" s="87">
-        <v>0.34006551797194134</v>
+        <v>0.34053195656660645</v>
       </c>
       <c r="AF53" t="n" s="87">
-        <v>0.3400655179719413</v>
+        <v>0.34053195656660645</v>
       </c>
       <c r="AG53" t="n" s="87">
         <v>1.0</v>
@@ -8073,7 +7973,7 @@
         <v>0.4735728457164237</v>
       </c>
       <c r="AI53" t="n" s="87">
-        <v>0.3708405244959674</v>
+        <v>0.3713254234083565</v>
       </c>
       <c r="AJ53" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -8097,14 +7997,12 @@
         <v>0.8942062119989407</v>
       </c>
       <c r="AQ53" t="n" s="87">
-        <v>0.9984726529406527</v>
+        <v>0.9984718124093609</v>
       </c>
       <c r="AR53" t="n" s="87">
-        <v>0.9999737199772261</v>
-      </c>
-      <c r="AS53" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999736622837274</v>
+      </c>
+      <c r="AS53" s="87"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8165,7 +8063,7 @@
         <v>0.47447676046782844</v>
       </c>
       <c r="W54" t="n" s="87">
-        <v>0.35814028455294966</v>
+        <v>0.35800032339509713</v>
       </c>
       <c r="X54" t="n" s="87">
         <v>1.0</v>
@@ -8183,16 +8081,16 @@
         <v>0.4919690770864768</v>
       </c>
       <c r="AC54" t="n" s="87">
-        <v>0.36864608376029995</v>
+        <v>0.36747482860879915</v>
       </c>
       <c r="AD54" t="n" s="87">
-        <v>0.36864608376029995</v>
+        <v>0.36747482860879915</v>
       </c>
       <c r="AE54" t="n" s="87">
-        <v>0.34643873622459237</v>
+        <v>0.3452994489971085</v>
       </c>
       <c r="AF54" t="n" s="87">
-        <v>0.34643873622459237</v>
+        <v>0.34529944899710835</v>
       </c>
       <c r="AG54" t="n" s="87">
         <v>1.0</v>
@@ -8201,7 +8099,7 @@
         <v>0.4549116989102941</v>
       </c>
       <c r="AI54" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ54" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -8210,7 +8108,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL54" t="n" s="87">
-        <v>0.9562099682450294</v>
+        <v>0.9553122028623141</v>
       </c>
       <c r="AM54" t="n" s="87">
         <v>0.7534243418060365</v>
@@ -8219,7 +8117,7 @@
         <v>0.9876280663827864</v>
       </c>
       <c r="AO54" t="n" s="87">
-        <v>0.9999397413581603</v>
+        <v>0.9999408389592835</v>
       </c>
       <c r="AP54" t="n" s="87">
         <v>0.9261480365065415</v>
@@ -8228,11 +8126,9 @@
         <v>0.9996579064491617</v>
       </c>
       <c r="AR54" t="n" s="87">
-        <v>0.999999723760271</v>
-      </c>
-      <c r="AS54" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999997286151564</v>
+      </c>
+      <c r="AS54" s="87"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8254,10 +8150,10 @@
         <v>1.0</v>
       </c>
       <c r="J55" t="n" s="87">
-        <v>0.876271255437917</v>
+        <v>0.8762466277282448</v>
       </c>
       <c r="K55" t="n" s="87">
-        <v>0.876271255437917</v>
+        <v>0.8762466277282447</v>
       </c>
       <c r="L55" t="n" s="87">
         <v>1.0</v>
@@ -8293,10 +8189,10 @@
         <v>0.4284654654867112</v>
       </c>
       <c r="W55" t="n" s="87">
-        <v>0.31795114815574704</v>
+        <v>0.3180014735670542</v>
       </c>
       <c r="X55" t="n" s="87">
-        <v>0.31795114815574704</v>
+        <v>0.3180014735670542</v>
       </c>
       <c r="Y55" t="n" s="87">
         <v>0.49821377345635</v>
@@ -8311,25 +8207,25 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC55" t="n" s="87">
-        <v>0.35915168628187294</v>
+        <v>0.3596300376139399</v>
       </c>
       <c r="AD55" t="n" s="87">
-        <v>0.35915168628187294</v>
+        <v>0.3596300376139401</v>
       </c>
       <c r="AE55" t="n" s="87">
-        <v>0.3372108038110932</v>
+        <v>0.33767533035706343</v>
       </c>
       <c r="AF55" t="n" s="87">
-        <v>0.3372108038110931</v>
+        <v>0.3376753303570634</v>
       </c>
       <c r="AG55" t="n" s="87">
-        <v>0.28032528794119715</v>
+        <v>0.28074464456442344</v>
       </c>
       <c r="AH55" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI55" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ55" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -8353,14 +8249,12 @@
         <v>0.8884223477657271</v>
       </c>
       <c r="AQ55" t="n" s="87">
-        <v>0.9976994406711391</v>
+        <v>0.9976981756057907</v>
       </c>
       <c r="AR55" t="n" s="87">
-        <v>0.9813787086307064</v>
-      </c>
-      <c r="AS55" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9813385904481391</v>
+      </c>
+      <c r="AS55" s="87"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8415,16 +8309,16 @@
         <v>0.45152791392858266</v>
       </c>
       <c r="U56" t="n" s="87">
-        <v>0.3628544815966831</v>
+        <v>0.3627137192159051</v>
       </c>
       <c r="V56" t="n" s="87">
         <v>0.44842894975962583</v>
       </c>
       <c r="W56" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="X56" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="Y56" t="n" s="87">
         <v>0.508443082510305</v>
@@ -8439,16 +8333,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC56" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD56" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE56" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF56" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG56" t="n" s="87">
         <v>1.0</v>
@@ -8457,7 +8351,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI56" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ56" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -8466,7 +8360,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL56" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM56" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -8475,7 +8369,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO56" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP56" t="n" s="87">
         <v>0.916773436355647</v>
@@ -8484,11 +8378,9 @@
         <v>0.9997059754170516</v>
       </c>
       <c r="AR56" t="n" s="87">
-        <v>0.9999999999934622</v>
-      </c>
-      <c r="AS56" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999938088</v>
+      </c>
+      <c r="AS56" s="87"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8549,10 +8441,10 @@
         <v>0.40905887575025324</v>
       </c>
       <c r="W57" t="n" s="87">
-        <v>0.3150416570197351</v>
+        <v>0.3150814559124032</v>
       </c>
       <c r="X57" t="n" s="87">
-        <v>0.3150416570197351</v>
+        <v>0.3150814559124032</v>
       </c>
       <c r="Y57" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -8567,25 +8459,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC57" t="n" s="87">
-        <v>0.3561347027331855</v>
+        <v>0.3565275982413363</v>
       </c>
       <c r="AD57" t="n" s="87">
-        <v>0.35613470273318554</v>
+        <v>0.3565275982413364</v>
       </c>
       <c r="AE57" t="n" s="87">
-        <v>0.33428198975137663</v>
+        <v>0.33466330774346703</v>
       </c>
       <c r="AF57" t="n" s="87">
-        <v>0.3342819897513766</v>
+        <v>0.3346633077434669</v>
       </c>
       <c r="AG57" t="n" s="87">
-        <v>0.26197594884051273</v>
+        <v>0.26230728570674916</v>
       </c>
       <c r="AH57" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI57" t="n" s="87">
-        <v>0.37158062152895593</v>
+        <v>0.3719807126216904</v>
       </c>
       <c r="AJ57" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -8594,7 +8486,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL57" t="n" s="87">
-        <v>0.9041406283889977</v>
+        <v>0.904977342100472</v>
       </c>
       <c r="AM57" t="n" s="87">
         <v>0.7385601264156041</v>
@@ -8603,20 +8495,18 @@
         <v>0.9822697973580395</v>
       </c>
       <c r="AO57" t="n" s="87">
-        <v>0.9987666579084107</v>
+        <v>0.9987613128093391</v>
       </c>
       <c r="AP57" t="n" s="87">
         <v>0.8015188431096741</v>
       </c>
       <c r="AQ57" t="n" s="87">
-        <v>0.9823033952938778</v>
+        <v>0.9822975064455309</v>
       </c>
       <c r="AR57" t="n" s="87">
-        <v>0.979370571422701</v>
-      </c>
-      <c r="AS57" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9792426884745483</v>
+      </c>
+      <c r="AS57" s="87"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8638,10 +8528,10 @@
         <v>1.0</v>
       </c>
       <c r="J58" t="n" s="87">
-        <v>0.6724374089524741</v>
+        <v>0.6724103590724432</v>
       </c>
       <c r="K58" t="n" s="87">
-        <v>0.6724374089524741</v>
+        <v>0.6724103590724432</v>
       </c>
       <c r="L58" t="n" s="87">
         <v>1.0</v>
@@ -8671,16 +8561,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U58" t="n" s="87">
-        <v>0.3111729902871535</v>
+        <v>0.3111976365094076</v>
       </c>
       <c r="V58" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W58" t="n" s="87">
-        <v>0.3157939665011765</v>
+        <v>0.3158188109173884</v>
       </c>
       <c r="X58" t="n" s="87">
-        <v>0.3157939665011765</v>
+        <v>0.3158188109173884</v>
       </c>
       <c r="Y58" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -8695,25 +8585,25 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC58" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142896</v>
       </c>
       <c r="AD58" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142907</v>
       </c>
       <c r="AE58" t="n" s="87">
-        <v>0.33213373729929546</v>
+        <v>0.3323950342235265</v>
       </c>
       <c r="AF58" t="n" s="87">
-        <v>0.33213373729929546</v>
+        <v>0.33239503422352645</v>
       </c>
       <c r="AG58" t="n" s="87">
-        <v>0.2644573020009575</v>
+        <v>0.26468645728421086</v>
       </c>
       <c r="AH58" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI58" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ58" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -8722,7 +8612,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL58" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM58" t="n" s="87">
         <v>0.682956778696853</v>
@@ -8731,7 +8621,7 @@
         <v>0.9591963679410248</v>
       </c>
       <c r="AO58" t="n" s="87">
-        <v>0.9999942859288277</v>
+        <v>0.9999945925346259</v>
       </c>
       <c r="AP58" t="n" s="87">
         <v>0.6829567786968532</v>
@@ -8740,11 +8630,9 @@
         <v>0.9591963679410248</v>
       </c>
       <c r="AR58" t="n" s="87">
-        <v>0.9999023516405157</v>
-      </c>
-      <c r="AS58" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999074389588621</v>
+      </c>
+      <c r="AS58" s="87"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8766,10 +8654,10 @@
         <v>1.0</v>
       </c>
       <c r="J59" t="n" s="87">
-        <v>0.9102074720695082</v>
+        <v>0.9101974348723332</v>
       </c>
       <c r="K59" t="n" s="87">
-        <v>0.9102074720695082</v>
+        <v>0.9101974348723332</v>
       </c>
       <c r="L59" t="n" s="87">
         <v>1.0</v>
@@ -8805,10 +8693,10 @@
         <v>0.4115155987833584</v>
       </c>
       <c r="W59" t="n" s="87">
-        <v>0.3186812934483406</v>
+        <v>0.3187062592093457</v>
       </c>
       <c r="X59" t="n" s="87">
-        <v>0.3186812934483406</v>
+        <v>0.3187062592093457</v>
       </c>
       <c r="Y59" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -8823,25 +8711,25 @@
         <v>0.46249027824216116</v>
       </c>
       <c r="AC59" t="n" s="87">
-        <v>0.36010690319653504</v>
+        <v>0.36037833226804616</v>
       </c>
       <c r="AD59" t="n" s="87">
-        <v>0.36010690319653504</v>
+        <v>0.36037833226804616</v>
       </c>
       <c r="AE59" t="n" s="87">
-        <v>0.338138456264853</v>
+        <v>0.3384020836009816</v>
       </c>
       <c r="AF59" t="n" s="87">
-        <v>0.338138456264853</v>
+        <v>0.33840208360098156</v>
       </c>
       <c r="AG59" t="n" s="87">
-        <v>0.26533071876711517</v>
+        <v>0.2655603576316559</v>
       </c>
       <c r="AH59" t="n" s="87">
         <v>0.41985008443551575</v>
       </c>
       <c r="AI59" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ59" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -8850,7 +8738,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL59" t="n" s="87">
-        <v>0.9724106763740196</v>
+        <v>0.9729259714413383</v>
       </c>
       <c r="AM59" t="n" s="87">
         <v>0.6996969133754085</v>
@@ -8859,7 +8747,7 @@
         <v>0.9638320414678478</v>
       </c>
       <c r="AO59" t="n" s="87">
-        <v>0.9999467472366562</v>
+        <v>0.9999462841091921</v>
       </c>
       <c r="AP59" t="n" s="87">
         <v>0.7690884299928437</v>
@@ -8868,11 +8756,9 @@
         <v>0.9792050254132088</v>
       </c>
       <c r="AR59" t="n" s="87">
-        <v>0.9994851710143944</v>
-      </c>
-      <c r="AS59" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9994798428036943</v>
+      </c>
+      <c r="AS59" s="87"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8933,7 +8819,7 @@
         <v>0.4209588706031546</v>
       </c>
       <c r="W60" t="n" s="87">
-        <v>0.3257710342163068</v>
+        <v>0.3257962898019283</v>
       </c>
       <c r="X60" t="n" s="87">
         <v>1.0</v>
@@ -8951,25 +8837,25 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC60" t="n" s="87">
-        <v>0.3644606619892339</v>
+        <v>0.36473350218908757</v>
       </c>
       <c r="AD60" t="n" s="87">
-        <v>0.3644606619892339</v>
+        <v>0.36473350218908757</v>
       </c>
       <c r="AE60" t="n" s="87">
-        <v>0.34236872061860657</v>
+        <v>0.3426339386854806</v>
       </c>
       <c r="AF60" t="n" s="87">
-        <v>0.34236872061860657</v>
+        <v>0.3426339386854806</v>
       </c>
       <c r="AG60" t="n" s="87">
-        <v>0.27346069816729307</v>
+        <v>0.27369475204853594</v>
       </c>
       <c r="AH60" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI60" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ60" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -8978,7 +8864,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL60" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM60" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -8987,7 +8873,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO60" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP60" t="n" s="87">
         <v>0.795775009482367</v>
@@ -8996,11 +8882,9 @@
         <v>0.993676360438277</v>
       </c>
       <c r="AR60" t="n" s="87">
-        <v>0.9999998660205447</v>
-      </c>
-      <c r="AS60" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999998730012984</v>
+      </c>
+      <c r="AS60" s="87"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9022,7 +8906,7 @@
         <v>1.0</v>
       </c>
       <c r="J61" t="n" s="87">
-        <v>0.9189159004860344</v>
+        <v>0.9189067500078544</v>
       </c>
       <c r="K61" t="n" s="87">
         <v>1.0</v>
@@ -9061,10 +8945,10 @@
         <v>0.42930552280396966</v>
       </c>
       <c r="W61" t="n" s="87">
-        <v>0.321350355570731</v>
+        <v>0.3213754317982554</v>
       </c>
       <c r="X61" t="n" s="87">
-        <v>0.321350355570731</v>
+        <v>0.3213754317982554</v>
       </c>
       <c r="Y61" t="n" s="87">
         <v>0.49821377345635</v>
@@ -9079,16 +8963,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC61" t="n" s="87">
-        <v>0.3629380967878219</v>
+        <v>0.3632104485773051</v>
       </c>
       <c r="AD61" t="n" s="87">
-        <v>0.36293809678782196</v>
+        <v>0.3632104485773052</v>
       </c>
       <c r="AE61" t="n" s="87">
-        <v>0.340888943587085</v>
+        <v>0.34115361000104405</v>
       </c>
       <c r="AF61" t="n" s="87">
-        <v>0.34088894358708494</v>
+        <v>0.34115361000104405</v>
       </c>
       <c r="AG61" t="n" s="87">
         <v>1.0</v>
@@ -9097,7 +8981,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI61" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ61" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -9124,11 +9008,9 @@
         <v>0.9988784109365518</v>
       </c>
       <c r="AR61" t="n" s="87">
-        <v>0.9999190022219072</v>
-      </c>
-      <c r="AS61" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999188691269985</v>
+      </c>
+      <c r="AS61" s="87"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9150,10 +9032,10 @@
         <v>1.0</v>
       </c>
       <c r="J62" t="n" s="87">
-        <v>0.9745118527175274</v>
+        <v>0.9745088022901902</v>
       </c>
       <c r="K62" t="n" s="87">
-        <v>0.9745118527175274</v>
+        <v>0.9745088022901902</v>
       </c>
       <c r="L62" t="n" s="87">
         <v>1.0</v>
@@ -9189,10 +9071,10 @@
         <v>0.4374862023890248</v>
       </c>
       <c r="W62" t="n" s="87">
-        <v>0.32522088116772685</v>
+        <v>0.32524611467710435</v>
       </c>
       <c r="X62" t="n" s="87">
-        <v>0.32522088116772685</v>
+        <v>0.32524611467710435</v>
       </c>
       <c r="Y62" t="n" s="87">
         <v>0.49821377345635</v>
@@ -9207,16 +9089,16 @@
         <v>0.48236262520090534</v>
       </c>
       <c r="AC62" t="n" s="87">
-        <v>0.3668799687640323</v>
+        <v>0.3671535737952336</v>
       </c>
       <c r="AD62" t="n" s="87">
-        <v>0.3668799687640323</v>
+        <v>0.3671535737952336</v>
       </c>
       <c r="AE62" t="n" s="87">
-        <v>0.341804747703091</v>
+        <v>0.34206975613252155</v>
       </c>
       <c r="AF62" t="n" s="87">
-        <v>0.341804747703091</v>
+        <v>0.34206975613252155</v>
       </c>
       <c r="AG62" t="n" s="87">
         <v>1.0</v>
@@ -9225,7 +9107,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI62" t="n" s="87">
-        <v>0.3684495275733031</v>
+        <v>0.3687236214224831</v>
       </c>
       <c r="AJ62" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -9234,7 +9116,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL62" t="n" s="87">
-        <v>0.9733119351616559</v>
+        <v>0.9727547972203073</v>
       </c>
       <c r="AM62" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -9243,7 +9125,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO62" t="n" s="87">
-        <v>0.99994170988075</v>
+        <v>0.9999427716276144</v>
       </c>
       <c r="AP62" t="n" s="87">
         <v>0.8884223477657271</v>
@@ -9252,11 +9134,9 @@
         <v>0.9984867534193816</v>
       </c>
       <c r="AR62" t="n" s="87">
-        <v>0.9999904082291168</v>
-      </c>
-      <c r="AS62" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999990567475186</v>
+      </c>
+      <c r="AS62" s="87"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9311,13 +9191,13 @@
         <v>0.4178602721346756</v>
       </c>
       <c r="U63" t="n" s="87">
-        <v>0.32120142078395203</v>
+        <v>0.32124163288218016</v>
       </c>
       <c r="V63" t="n" s="87">
         <v>0.41318629949241703</v>
       </c>
       <c r="W63" t="n" s="87">
-        <v>0.32636696060440695</v>
+        <v>0.3264075084239858</v>
       </c>
       <c r="X63" t="n" s="87">
         <v>1.0</v>
@@ -9335,25 +9215,25 @@
         <v>0.46249027824216116</v>
       </c>
       <c r="AC63" t="n" s="87">
-        <v>0.3649810649666819</v>
+        <v>0.36537818169083963</v>
       </c>
       <c r="AD63" t="n" s="87">
-        <v>0.36498106496668203</v>
+        <v>0.3653781816908397</v>
       </c>
       <c r="AE63" t="n" s="87">
-        <v>0.3428745974314621</v>
+        <v>0.3432606631017295</v>
       </c>
       <c r="AF63" t="n" s="87">
-        <v>0.3428745974314621</v>
+        <v>0.3432606631017295</v>
       </c>
       <c r="AG63" t="n" s="87">
-        <v>0.2721515684186678</v>
+        <v>0.27249102328745756</v>
       </c>
       <c r="AH63" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI63" t="n" s="87">
-        <v>0.37158062152895593</v>
+        <v>0.3719807126216904</v>
       </c>
       <c r="AJ63" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -9362,7 +9242,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL63" t="n" s="87">
-        <v>0.9775368691611913</v>
+        <v>0.977065852367452</v>
       </c>
       <c r="AM63" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -9371,20 +9251,18 @@
         <v>0.9814607405710658</v>
       </c>
       <c r="AO63" t="n" s="87">
-        <v>0.9999900296202894</v>
+        <v>0.999990211238062</v>
       </c>
       <c r="AP63" t="n" s="87">
         <v>0.8477949709403929</v>
       </c>
       <c r="AQ63" t="n" s="87">
-        <v>0.9964029991838281</v>
+        <v>0.996401785033639</v>
       </c>
       <c r="AR63" t="n" s="87">
-        <v>0.9999964978422091</v>
-      </c>
-      <c r="AS63" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999965548199508</v>
+      </c>
+      <c r="AS63" s="87"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9445,10 +9323,10 @@
         <v>0.4717114786308504</v>
       </c>
       <c r="W64" t="n" s="87">
-        <v>0.37242870572522246</v>
+        <v>0.37245558029115244</v>
       </c>
       <c r="X64" t="n" s="87">
-        <v>0.37242870572522246</v>
+        <v>0.37245558029115244</v>
       </c>
       <c r="Y64" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -9463,16 +9341,16 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC64" t="n" s="87">
-        <v>0.3644606619892339</v>
+        <v>0.36473350218908757</v>
       </c>
       <c r="AD64" t="n" s="87">
-        <v>0.3644606619892339</v>
+        <v>0.36473350218908757</v>
       </c>
       <c r="AE64" t="n" s="87">
-        <v>0.34236872061860657</v>
+        <v>0.3426339386854806</v>
       </c>
       <c r="AF64" t="n" s="87">
-        <v>0.34236872061860657</v>
+        <v>0.3426339386854806</v>
       </c>
       <c r="AG64" t="n" s="87">
         <v>1.0</v>
@@ -9481,7 +9359,7 @@
         <v>0.473971888569348</v>
       </c>
       <c r="AI64" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ64" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -9490,7 +9368,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL64" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM64" t="n" s="87">
         <v>0.6996969133754085</v>
@@ -9499,7 +9377,7 @@
         <v>0.9690112036423819</v>
       </c>
       <c r="AO64" t="n" s="87">
-        <v>0.9999980890939255</v>
+        <v>0.9999981916297486</v>
       </c>
       <c r="AP64" t="n" s="87">
         <v>0.8286349044740197</v>
@@ -9508,11 +9386,9 @@
         <v>0.9961485452698958</v>
       </c>
       <c r="AR64" t="n" s="87">
-        <v>0.999999945428507</v>
-      </c>
-      <c r="AS64" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999482718548</v>
+      </c>
+      <c r="AS64" s="87"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9534,10 +9410,10 @@
         <v>1.0</v>
       </c>
       <c r="J65" t="n" s="87">
-        <v>0.9694773477778695</v>
+        <v>0.9694706260026922</v>
       </c>
       <c r="K65" t="n" s="87">
-        <v>0.9694773477778695</v>
+        <v>0.9694706260026922</v>
       </c>
       <c r="L65" t="n" s="87">
         <v>0.44806075231924875</v>
@@ -9573,10 +9449,10 @@
         <v>0.449525727553332</v>
       </c>
       <c r="W65" t="n" s="87">
-        <v>0.3386939432376913</v>
+        <v>0.3387352524469755</v>
       </c>
       <c r="X65" t="n" s="87">
-        <v>0.3386939432376913</v>
+        <v>0.3387352524469755</v>
       </c>
       <c r="Y65" t="n" s="87">
         <v>0.49821377345635</v>
@@ -9591,16 +9467,16 @@
         <v>0.48236262520090534</v>
       </c>
       <c r="AC65" t="n" s="87">
-        <v>0.3687907216317351</v>
+        <v>0.36918957355755044</v>
       </c>
       <c r="AD65" t="n" s="87">
-        <v>0.3687907216317351</v>
+        <v>0.36918957355755044</v>
       </c>
       <c r="AE65" t="n" s="87">
-        <v>0.34365579234681326</v>
+        <v>0.34404227709684093</v>
       </c>
       <c r="AF65" t="n" s="87">
-        <v>0.34365579234681326</v>
+        <v>0.34404227709684093</v>
       </c>
       <c r="AG65" t="n" s="87">
         <v>1.0</v>
@@ -9609,7 +9485,7 @@
         <v>0.4359311459048929</v>
       </c>
       <c r="AI65" t="n" s="87">
-        <v>0.36856502756635745</v>
+        <v>0.3689637780808335</v>
       </c>
       <c r="AJ65" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -9618,7 +9494,7 @@
         <v>0.7363918248531863</v>
       </c>
       <c r="AL65" t="n" s="87">
-        <v>0.9671276723618986</v>
+        <v>0.9657504535925896</v>
       </c>
       <c r="AM65" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -9627,20 +9503,18 @@
         <v>0.9748476127605846</v>
       </c>
       <c r="AO65" t="n" s="87">
-        <v>0.999959312421249</v>
+        <v>0.999960781185349</v>
       </c>
       <c r="AP65" t="n" s="87">
         <v>0.9203812701916122</v>
       </c>
       <c r="AQ65" t="n" s="87">
-        <v>0.9984919559041951</v>
+        <v>0.9984914458036733</v>
       </c>
       <c r="AR65" t="n" s="87">
-        <v>0.9999994973766718</v>
-      </c>
-      <c r="AS65" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999995145608174</v>
+      </c>
+      <c r="AS65" s="87"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9662,10 +9536,10 @@
         <v>1.0</v>
       </c>
       <c r="J66" t="n" s="87">
-        <v>0.19323538115366387</v>
+        <v>0.19319997481912426</v>
       </c>
       <c r="K66" t="n" s="87">
-        <v>0.19323538115366384</v>
+        <v>0.1931999748191242</v>
       </c>
       <c r="L66" t="n" s="87">
         <v>1.0</v>
@@ -9695,16 +9569,16 @@
         <v>0.3973321606181815</v>
       </c>
       <c r="U66" t="n" s="87">
-        <v>0.3007428984439526</v>
+        <v>0.3007917013242369</v>
       </c>
       <c r="V66" t="n" s="87">
         <v>0.40050398727484665</v>
       </c>
       <c r="W66" t="n" s="87">
-        <v>0.30572761135982873</v>
+        <v>0.3057768694128668</v>
       </c>
       <c r="X66" t="n" s="87">
-        <v>0.30572761135982873</v>
+        <v>0.3057768694128668</v>
       </c>
       <c r="Y66" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -9719,25 +9593,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC66" t="n" s="87">
-        <v>0.34614807711087</v>
+        <v>0.3466184766611928</v>
       </c>
       <c r="AD66" t="n" s="87">
-        <v>0.34614807711087003</v>
+        <v>0.34661847666119283</v>
       </c>
       <c r="AE66" t="n" s="87">
-        <v>0.32459921997373126</v>
+        <v>0.32505489376480545</v>
       </c>
       <c r="AF66" t="n" s="87">
-        <v>0.3245992199737312</v>
+        <v>0.3250548937648054</v>
       </c>
       <c r="AG66" t="n" s="87">
-        <v>0.2535897708825633</v>
+        <v>0.2539832470540241</v>
       </c>
       <c r="AH66" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI66" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ66" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -9746,7 +9620,7 @@
         <v>0.7311609750999611</v>
       </c>
       <c r="AL66" t="n" s="87">
-        <v>0.7085218765504628</v>
+        <v>0.7144899258921064</v>
       </c>
       <c r="AM66" t="n" s="87">
         <v>0.634559262505203</v>
@@ -9755,20 +9629,18 @@
         <v>0.8786309520813101</v>
       </c>
       <c r="AO66" t="n" s="87">
-        <v>0.8405067608435238</v>
+        <v>0.8387577451666722</v>
       </c>
       <c r="AP66" t="n" s="87">
         <v>0.6152941700326903</v>
       </c>
       <c r="AQ66" t="n" s="87">
-        <v>0.6015592895418295</v>
+        <v>0.6014272125634617</v>
       </c>
       <c r="AR66" t="n" s="87">
-        <v>0.06042116598448061</v>
-      </c>
-      <c r="AS66" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.05956498193221402</v>
+      </c>
+      <c r="AS66" s="87"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9778,7 +9650,7 @@
         <v>1.0</v>
       </c>
       <c r="F67" t="n" s="87">
-        <v>0.9586046563125658</v>
+        <v>0.9585734200399294</v>
       </c>
       <c r="G67" t="n" s="87">
         <v>1.0</v>
@@ -9790,10 +9662,10 @@
         <v>1.0</v>
       </c>
       <c r="J67" t="n" s="87">
-        <v>0.8869440614111593</v>
+        <v>0.8869212839394341</v>
       </c>
       <c r="K67" t="n" s="87">
-        <v>0.8869440614111594</v>
+        <v>0.8869212839394339</v>
       </c>
       <c r="L67" t="n" s="87">
         <v>1.0</v>
@@ -9829,10 +9701,10 @@
         <v>0.46428536444769425</v>
       </c>
       <c r="W67" t="n" s="87">
-        <v>0.34725505304195936</v>
+        <v>0.34730765484035697</v>
       </c>
       <c r="X67" t="n" s="87">
-        <v>0.34725505304195936</v>
+        <v>0.34730765484035697</v>
       </c>
       <c r="Y67" t="n" s="87">
         <v>0.49821377345635</v>
@@ -9847,16 +9719,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC67" t="n" s="87">
-        <v>0.35915168628187294</v>
+        <v>0.3596300376139399</v>
       </c>
       <c r="AD67" t="n" s="87">
-        <v>0.35915168628187294</v>
+        <v>0.3596300376139401</v>
       </c>
       <c r="AE67" t="n" s="87">
-        <v>0.3343257466865859</v>
+        <v>0.334788306419535</v>
       </c>
       <c r="AF67" t="n" s="87">
-        <v>0.3343257466865859</v>
+        <v>0.334788306419535</v>
       </c>
       <c r="AG67" t="n" s="87">
         <v>1.0</v>
@@ -9865,7 +9737,7 @@
         <v>0.6173291465273902</v>
       </c>
       <c r="AI67" t="n" s="87">
-        <v>0.5280625616365364</v>
+        <v>0.5285803248699809</v>
       </c>
       <c r="AJ67" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -9889,14 +9761,12 @@
         <v>0.9392168554791204</v>
       </c>
       <c r="AQ67" t="n" s="87">
-        <v>0.9996450848295034</v>
+        <v>0.9996448892827287</v>
       </c>
       <c r="AR67" t="n" s="87">
-        <v>0.9789705585121788</v>
-      </c>
-      <c r="AS67" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9789253635635664</v>
+      </c>
+      <c r="AS67" s="87"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -9918,10 +9788,10 @@
         <v>1.0</v>
       </c>
       <c r="J68" t="n" s="87">
-        <v>0.8840841730265212</v>
+        <v>0.8840715876323708</v>
       </c>
       <c r="K68" t="n" s="87">
-        <v>0.8840841730265213</v>
+        <v>0.8840715876323708</v>
       </c>
       <c r="L68" t="n" s="87">
         <v>1.0</v>
@@ -9957,10 +9827,10 @@
         <v>0.40988817174170833</v>
       </c>
       <c r="W68" t="n" s="87">
-        <v>0.3187496573711947</v>
+        <v>0.3187746259820743</v>
       </c>
       <c r="X68" t="n" s="87">
-        <v>0.3187496573711947</v>
+        <v>0.3187746259820743</v>
       </c>
       <c r="Y68" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -9975,16 +9845,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC68" t="n" s="87">
-        <v>0.3601794558496114</v>
+        <v>0.36045090880268627</v>
       </c>
       <c r="AD68" t="n" s="87">
-        <v>0.3601794558496115</v>
+        <v>0.3604509088026863</v>
       </c>
       <c r="AE68" t="n" s="87">
-        <v>0.3382089221876841</v>
+        <v>0.3384725763669375</v>
       </c>
       <c r="AF68" t="n" s="87">
-        <v>0.3382089221876841</v>
+        <v>0.3384725763669374</v>
       </c>
       <c r="AG68" t="n" s="87">
         <v>1.0</v>
@@ -9993,7 +9863,7 @@
         <v>0.6767977560469417</v>
       </c>
       <c r="AI68" t="n" s="87">
-        <v>0.6327813947608513</v>
+        <v>0.63305502015413</v>
       </c>
       <c r="AJ68" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -10002,7 +9872,7 @@
         <v>0.7385601264156041</v>
       </c>
       <c r="AL68" t="n" s="87">
-        <v>0.9395745889061948</v>
+        <v>0.9401224981935409</v>
       </c>
       <c r="AM68" t="n" s="87">
         <v>0.7159208149572642</v>
@@ -10011,7 +9881,7 @@
         <v>0.965059611596614</v>
       </c>
       <c r="AO68" t="n" s="87">
-        <v>0.9997948831473549</v>
+        <v>0.9997939932859691</v>
       </c>
       <c r="AP68" t="n" s="87">
         <v>0.8731546465174028</v>
@@ -10020,11 +9890,9 @@
         <v>0.9932944496849465</v>
       </c>
       <c r="AR68" t="n" s="87">
-        <v>0.9999508339789943</v>
-      </c>
-      <c r="AS68" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999505395055936</v>
+      </c>
+      <c r="AS68" s="87"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -10130,7 +9998,7 @@
         <v>0.70939292953723</v>
       </c>
       <c r="AL69" t="n" s="87">
-        <v>0.8440266885867658</v>
+        <v>0.8437830090570941</v>
       </c>
       <c r="AM69" t="n" s="87">
         <v>0.6786340583501135</v>
@@ -10139,7 +10007,7 @@
         <v>0.8721191005308162</v>
       </c>
       <c r="AO69" t="n" s="87">
-        <v>0.821180773250947</v>
+        <v>0.8226042491712997</v>
       </c>
       <c r="AP69" t="n" s="87">
         <v>0.5592666348244343</v>
@@ -10148,11 +10016,9 @@
         <v>0.5463832355935949</v>
       </c>
       <c r="AR69" t="n" s="87">
-        <v>0.09031540370952759</v>
-      </c>
-      <c r="AS69" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.09111752066863897</v>
+      </c>
+      <c r="AS69" s="87"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -10174,10 +10040,10 @@
         <v>1.0</v>
       </c>
       <c r="J70" t="n" s="87">
-        <v>0.5634471617614705</v>
+        <v>0.5633912923616702</v>
       </c>
       <c r="K70" t="n" s="87">
-        <v>0.5634471617614705</v>
+        <v>0.5633912923616702</v>
       </c>
       <c r="L70" t="n" s="87">
         <v>1.0</v>
@@ -10207,16 +10073,16 @@
         <v>0.4341997435789006</v>
       </c>
       <c r="U70" t="n" s="87">
-        <v>0.34189613305310407</v>
+        <v>0.3419483483403491</v>
       </c>
       <c r="V70" t="n" s="87">
         <v>0.4374522516299245</v>
       </c>
       <c r="W70" t="n" s="87">
-        <v>0.3472242418361901</v>
+        <v>0.3472768414504348</v>
       </c>
       <c r="X70" t="n" s="87">
-        <v>0.3472242418361901</v>
+        <v>0.3472768414504348</v>
       </c>
       <c r="Y70" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -10231,16 +10097,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC70" t="n" s="87">
-        <v>0.35614861868441816</v>
+        <v>0.356625196078886</v>
       </c>
       <c r="AD70" t="n" s="87">
-        <v>0.35614861868441827</v>
+        <v>0.356625196078886</v>
       </c>
       <c r="AE70" t="n" s="87">
-        <v>0.33429549515121026</v>
+        <v>0.3347580340775307</v>
       </c>
       <c r="AF70" t="n" s="87">
-        <v>0.33429549515121015</v>
+        <v>0.3347580340775306</v>
       </c>
       <c r="AG70" t="n" s="87">
         <v>1.0</v>
@@ -10249,7 +10115,7 @@
         <v>0.4641131508645797</v>
       </c>
       <c r="AI70" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ70" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -10258,7 +10124,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL70" t="n" s="87">
-        <v>0.826273967123482</v>
+        <v>0.8304081227530603</v>
       </c>
       <c r="AM70" t="n" s="87">
         <v>0.682956778696853</v>
@@ -10267,20 +10133,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO70" t="n" s="87">
-        <v>0.9861442452236896</v>
+        <v>0.9859656347809413</v>
       </c>
       <c r="AP70" t="n" s="87">
         <v>0.821675576635382</v>
       </c>
       <c r="AQ70" t="n" s="87">
-        <v>0.982214092944678</v>
+        <v>0.9822044644528406</v>
       </c>
       <c r="AR70" t="n" s="87">
-        <v>0.9269353336501559</v>
-      </c>
-      <c r="AS70" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.925900395086565</v>
+      </c>
+      <c r="AS70" s="87"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10302,10 +10166,10 @@
         <v>1.0</v>
       </c>
       <c r="J71" t="n" s="87">
-        <v>0.7306118014607127</v>
+        <v>0.7305670954690068</v>
       </c>
       <c r="K71" t="n" s="87">
-        <v>0.7306118014607128</v>
+        <v>0.7305670954690068</v>
       </c>
       <c r="L71" t="n" s="87">
         <v>1.0</v>
@@ -10341,10 +10205,10 @@
         <v>0.42207933160421585</v>
       </c>
       <c r="W71" t="n" s="87">
-        <v>0.3097880018022579</v>
+        <v>0.30983762210091237</v>
       </c>
       <c r="X71" t="n" s="87">
-        <v>0.3097880018022579</v>
+        <v>0.30983762210091237</v>
       </c>
       <c r="Y71" t="n" s="87">
         <v>0.49821377345635</v>
@@ -10359,25 +10223,25 @@
         <v>0.4809577270857152</v>
       </c>
       <c r="AC71" t="n" s="87">
-        <v>0.3564468804981803</v>
+        <v>0.3569236357561107</v>
       </c>
       <c r="AD71" t="n" s="87">
-        <v>0.3564468804981803</v>
+        <v>0.35692363575611075</v>
       </c>
       <c r="AE71" t="n" s="87">
-        <v>0.33266868585869747</v>
+        <v>0.3331301002791281</v>
       </c>
       <c r="AF71" t="n" s="87">
-        <v>0.3326686858586974</v>
+        <v>0.333130100279128</v>
       </c>
       <c r="AG71" t="n" s="87">
-        <v>0.311074392921937</v>
+        <v>0.3115198376453482</v>
       </c>
       <c r="AH71" t="n" s="87">
         <v>0.44585118391102757</v>
       </c>
       <c r="AI71" t="n" s="87">
-        <v>0.36763252088558246</v>
+        <v>0.3681156793882265</v>
       </c>
       <c r="AJ71" t="n" s="87">
         <v>0.5235939236880895</v>
@@ -10401,14 +10265,12 @@
         <v>0.7820002061576705</v>
       </c>
       <c r="AQ71" t="n" s="87">
-        <v>0.9822052980763609</v>
+        <v>0.9821956649096808</v>
       </c>
       <c r="AR71" t="n" s="87">
-        <v>0.7644374259052308</v>
-      </c>
-      <c r="AS71" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7640422993014969</v>
+      </c>
+      <c r="AS71" s="87"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -10430,10 +10292,10 @@
         <v>1.0</v>
       </c>
       <c r="J72" t="n" s="87">
-        <v>0.5666425320809492</v>
+        <v>0.5666123764102908</v>
       </c>
       <c r="K72" t="n" s="87">
-        <v>0.5666425320809492</v>
+        <v>0.5666123764102908</v>
       </c>
       <c r="L72" t="n" s="87">
         <v>1.0</v>
@@ -10463,16 +10325,16 @@
         <v>0.3981537006666771</v>
       </c>
       <c r="U72" t="n" s="87">
-        <v>0.3119362996428976</v>
+        <v>0.3119609789421341</v>
       </c>
       <c r="V72" t="n" s="87">
         <v>0.4013277182950731</v>
       </c>
       <c r="W72" t="n" s="87">
-        <v>0.31702242705467415</v>
+        <v>0.3170473233333468</v>
       </c>
       <c r="X72" t="n" s="87">
-        <v>0.31702242705467415</v>
+        <v>0.3170473233333468</v>
       </c>
       <c r="Y72" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -10487,16 +10349,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC72" t="n" s="87">
-        <v>0.35834581594894543</v>
+        <v>0.3586166615327493</v>
       </c>
       <c r="AD72" t="n" s="87">
-        <v>0.35834581594894555</v>
+        <v>0.35861666153274935</v>
       </c>
       <c r="AE72" t="n" s="87">
-        <v>0.3364283196575467</v>
+        <v>0.3366912919498779</v>
       </c>
       <c r="AF72" t="n" s="87">
-        <v>0.3364283196575467</v>
+        <v>0.33669129194987774</v>
       </c>
       <c r="AG72" t="n" s="87">
         <v>1.0</v>
@@ -10505,7 +10367,7 @@
         <v>0.4282959160201773</v>
       </c>
       <c r="AI72" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ72" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -10514,7 +10376,7 @@
         <v>0.7311609750999611</v>
       </c>
       <c r="AL72" t="n" s="87">
-        <v>0.9105177570896847</v>
+        <v>0.9128585915334199</v>
       </c>
       <c r="AM72" t="n" s="87">
         <v>0.6577806204005215</v>
@@ -10523,7 +10385,7 @@
         <v>0.9145054951671459</v>
       </c>
       <c r="AO72" t="n" s="87">
-        <v>0.9990781872967149</v>
+        <v>0.9990661465945958</v>
       </c>
       <c r="AP72" t="n" s="87">
         <v>0.7228714521594305</v>
@@ -10532,11 +10394,9 @@
         <v>0.9376137031599457</v>
       </c>
       <c r="AR72" t="n" s="87">
-        <v>0.9889013843839514</v>
-      </c>
-      <c r="AS72" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.988739643850057</v>
+      </c>
+      <c r="AS72" s="87"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -10546,7 +10406,7 @@
         <v>1.0</v>
       </c>
       <c r="F73" t="n" s="87">
-        <v>0.7287035144504672</v>
+        <v>0.7285479233967029</v>
       </c>
       <c r="G73" t="n" s="87">
         <v>1.0</v>
@@ -10591,16 +10451,16 @@
         <v>0.3973321606181815</v>
       </c>
       <c r="U73" t="n" s="87">
-        <v>0.2980295511340212</v>
+        <v>0.298078101400683</v>
       </c>
       <c r="V73" t="n" s="87">
         <v>0.40050398727484665</v>
       </c>
       <c r="W73" t="n" s="87">
-        <v>0.3029887779941194</v>
+        <v>0.3030377873816473</v>
       </c>
       <c r="X73" t="n" s="87">
-        <v>0.3029887779941194</v>
+        <v>0.3030377873816473</v>
       </c>
       <c r="Y73" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -10615,25 +10475,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC73" t="n" s="87">
-        <v>0.34614807711087</v>
+        <v>0.3466184766611928</v>
       </c>
       <c r="AD73" t="n" s="87">
-        <v>0.34614807711087003</v>
+        <v>0.34661847666119283</v>
       </c>
       <c r="AE73" t="n" s="87">
-        <v>0.32176967989921784</v>
+        <v>0.3222232766070504</v>
       </c>
       <c r="AF73" t="n" s="87">
-        <v>0.3217696798992178</v>
+        <v>0.3222232766070504</v>
       </c>
       <c r="AG73" t="n" s="87">
-        <v>0.23697241606170888</v>
+        <v>0.23734830726327477</v>
       </c>
       <c r="AH73" t="n" s="87">
         <v>0.4006604371953827</v>
       </c>
       <c r="AI73" t="n" s="87">
-        <v>0.3489721493306121</v>
+        <v>0.3494443356023422</v>
       </c>
       <c r="AJ73" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -10642,7 +10502,7 @@
         <v>0.7311609750999611</v>
       </c>
       <c r="AL73" t="n" s="87">
-        <v>0.7071663649025772</v>
+        <v>0.7131509320374935</v>
       </c>
       <c r="AM73" t="n" s="87">
         <v>0.70208835645269</v>
@@ -10651,20 +10511,18 @@
         <v>0.9486770600729185</v>
       </c>
       <c r="AO73" t="n" s="87">
-        <v>0.6780052287532679</v>
+        <v>0.6751629132866985</v>
       </c>
       <c r="AP73" t="n" s="87">
         <v>0.6547383179208073</v>
       </c>
       <c r="AQ73" t="n" s="87">
-        <v>0.7220370459119089</v>
+        <v>0.7219264446165596</v>
       </c>
       <c r="AR73" t="n" s="87">
-        <v>0.0246743108450966</v>
-      </c>
-      <c r="AS73" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.024311562508060103</v>
+      </c>
+      <c r="AS73" s="87"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10686,10 +10544,10 @@
         <v>1.0</v>
       </c>
       <c r="J74" t="n" s="87">
-        <v>0.8265166108542821</v>
+        <v>0.8264990017655738</v>
       </c>
       <c r="K74" t="n" s="87">
-        <v>0.8265166108542821</v>
+        <v>0.8264990017655738</v>
       </c>
       <c r="L74" t="n" s="87">
         <v>1.0</v>
@@ -10719,16 +10577,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U74" t="n" s="87">
-        <v>0.32273955743330107</v>
+        <v>0.3227646905085092</v>
       </c>
       <c r="V74" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W74" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="X74" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="Y74" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -10743,16 +10601,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC74" t="n" s="87">
-        <v>0.3662313977183278</v>
+        <v>0.3665047990657056</v>
       </c>
       <c r="AD74" t="n" s="87">
-        <v>0.36623139771832786</v>
+        <v>0.3665047990657057</v>
       </c>
       <c r="AE74" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.34435608791788436</v>
       </c>
       <c r="AF74" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.3443560879178843</v>
       </c>
       <c r="AG74" t="n" s="87">
         <v>1.0</v>
@@ -10761,7 +10619,7 @@
         <v>0.4362638694223085</v>
       </c>
       <c r="AI74" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ74" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -10770,7 +10628,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL74" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM74" t="n" s="87">
         <v>0.682956778696853</v>
@@ -10779,7 +10637,7 @@
         <v>0.9591963679410248</v>
       </c>
       <c r="AO74" t="n" s="87">
-        <v>0.9999942859288277</v>
+        <v>0.9999945925346259</v>
       </c>
       <c r="AP74" t="n" s="87">
         <v>0.7604100612629137</v>
@@ -10788,11 +10646,9 @@
         <v>0.9859191716282969</v>
       </c>
       <c r="AR74" t="n" s="87">
-        <v>0.9999955093548759</v>
-      </c>
-      <c r="AS74" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999957433307355</v>
+      </c>
+      <c r="AS74" s="87"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -10853,10 +10709,10 @@
         <v>0.4284654654867112</v>
       </c>
       <c r="W75" t="n" s="87">
-        <v>0.3302621719582936</v>
+        <v>0.330127502062655</v>
       </c>
       <c r="X75" t="n" s="87">
-        <v>0.3302621719582936</v>
+        <v>0.330127502062655</v>
       </c>
       <c r="Y75" t="n" s="87">
         <v>0.49821377345635</v>
@@ -10871,16 +10727,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC75" t="n" s="87">
-        <v>0.37365427111174176</v>
+        <v>0.3724764915124924</v>
       </c>
       <c r="AD75" t="n" s="87">
-        <v>0.37365427111174176</v>
+        <v>0.3724764915124924</v>
       </c>
       <c r="AE75" t="n" s="87">
-        <v>0.35131310509997343</v>
+        <v>0.35016637660135974</v>
       </c>
       <c r="AF75" t="n" s="87">
-        <v>0.35131310509997343</v>
+        <v>0.3501663766013597</v>
       </c>
       <c r="AG75" t="n" s="87">
         <v>1.0</v>
@@ -10889,7 +10745,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI75" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ75" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -10916,11 +10772,9 @@
         <v>0.9994873528352233</v>
       </c>
       <c r="AR75" t="n" s="87">
-        <v>0.9999886088994568</v>
-      </c>
-      <c r="AS75" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999886014622864</v>
+      </c>
+      <c r="AS75" s="87"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -10981,10 +10835,10 @@
         <v>0.40905887575025324</v>
       </c>
       <c r="W76" t="n" s="87">
-        <v>0.33566623470288126</v>
+        <v>0.3357179839041704</v>
       </c>
       <c r="X76" t="n" s="87">
-        <v>0.33566623470288126</v>
+        <v>0.3357179839041704</v>
       </c>
       <c r="Y76" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -10999,25 +10853,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC76" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.3547033719422817</v>
       </c>
       <c r="AD76" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.35470337194228174</v>
       </c>
       <c r="AE76" t="n" s="87">
-        <v>0.35543974963411357</v>
+        <v>0.3559159028216717</v>
       </c>
       <c r="AF76" t="n" s="87">
-        <v>0.35543974963411357</v>
+        <v>0.3559159028216717</v>
       </c>
       <c r="AG76" t="n" s="87">
-        <v>0.28048542815905275</v>
+        <v>0.28090493083919016</v>
       </c>
       <c r="AH76" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI76" t="n" s="87">
-        <v>0.39370299234917927</v>
+        <v>0.3941990552942635</v>
       </c>
       <c r="AJ76" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -11026,7 +10880,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL76" t="n" s="87">
-        <v>0.7948813349097306</v>
+        <v>0.798023696109473</v>
       </c>
       <c r="AM76" t="n" s="87">
         <v>0.6996969133754085</v>
@@ -11035,20 +10889,18 @@
         <v>0.9622610462040685</v>
       </c>
       <c r="AO76" t="n" s="87">
-        <v>0.9670904357220853</v>
+        <v>0.9668137118347427</v>
       </c>
       <c r="AP76" t="n" s="87">
         <v>0.8191662308162034</v>
       </c>
       <c r="AQ76" t="n" s="87">
-        <v>0.9796500870872183</v>
+        <v>0.9796390993311439</v>
       </c>
       <c r="AR76" t="n" s="87">
-        <v>0.9767553132919358</v>
-      </c>
-      <c r="AS76" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9765076320618652</v>
+      </c>
+      <c r="AS76" s="87"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -11070,10 +10922,10 @@
         <v>1.0</v>
       </c>
       <c r="J77" t="n" s="87">
-        <v>0.22464233069867054</v>
+        <v>0.22460277179402352</v>
       </c>
       <c r="K77" t="n" s="87">
-        <v>0.22464233069867054</v>
+        <v>0.22460277179402346</v>
       </c>
       <c r="L77" t="n" s="87">
         <v>0.4348126573122394</v>
@@ -11103,16 +10955,16 @@
         <v>0.39760156174017675</v>
       </c>
       <c r="U77" t="n" s="87">
-        <v>0.298264944568297</v>
+        <v>0.29831351688554913</v>
       </c>
       <c r="V77" t="n" s="87">
         <v>0.40077410884036674</v>
       </c>
       <c r="W77" t="n" s="87">
-        <v>0.30322639639952664</v>
+        <v>0.30327542749895975</v>
       </c>
       <c r="X77" t="n" s="87">
-        <v>0.30322639639952664</v>
+        <v>0.30327542749895975</v>
       </c>
       <c r="Y77" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -11127,25 +10979,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC77" t="n" s="87">
-        <v>0.34640272143626083</v>
+        <v>0.3468732834545441</v>
       </c>
       <c r="AD77" t="n" s="87">
-        <v>0.34640272143626083</v>
+        <v>0.3468732834545442</v>
       </c>
       <c r="AE77" t="n" s="87">
-        <v>0.3220152225304239</v>
+        <v>0.322469000803705</v>
       </c>
       <c r="AF77" t="n" s="87">
-        <v>0.32201522253042386</v>
+        <v>0.32246900080370494</v>
       </c>
       <c r="AG77" t="n" s="87">
-        <v>0.22897243937191142</v>
+        <v>0.22933945491894145</v>
       </c>
       <c r="AH77" t="n" s="87">
         <v>0.38969106625102584</v>
       </c>
       <c r="AI77" t="n" s="87">
-        <v>0.33861838145729045</v>
+        <v>0.33908385501609095</v>
       </c>
       <c r="AJ77" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -11154,7 +11006,7 @@
         <v>0.7311609750999611</v>
       </c>
       <c r="AL77" t="n" s="87">
-        <v>0.6664119581653735</v>
+        <v>0.6728440946260975</v>
       </c>
       <c r="AM77" t="n" s="87">
         <v>0.6647696909053259</v>
@@ -11163,20 +11015,18 @@
         <v>0.8968223942377306</v>
       </c>
       <c r="AO77" t="n" s="87">
-        <v>0.45027367334325485</v>
+        <v>0.44706054730224154</v>
       </c>
       <c r="AP77" t="n" s="87">
         <v>0.6146822790996586</v>
       </c>
       <c r="AQ77" t="n" s="87">
-        <v>0.5429605742087117</v>
+        <v>0.5428238350452418</v>
       </c>
       <c r="AR77" t="n" s="87">
-        <v>0.008734003131815462</v>
-      </c>
-      <c r="AS77" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.008603533345765841</v>
+      </c>
+      <c r="AS77" s="87"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -11198,10 +11048,10 @@
         <v>1.0</v>
       </c>
       <c r="J78" t="n" s="87">
-        <v>0.38635395257457633</v>
+        <v>0.38632483821626</v>
       </c>
       <c r="K78" t="n" s="87">
-        <v>0.3863539525745763</v>
+        <v>0.38632483821626</v>
       </c>
       <c r="L78" t="n" s="87">
         <v>1.0</v>
@@ -11231,16 +11081,16 @@
         <v>0.4026547622489978</v>
       </c>
       <c r="U78" t="n" s="87">
-        <v>0.3068421747732477</v>
+        <v>0.306876761623497</v>
       </c>
       <c r="V78" t="n" s="87">
         <v>0.40687307396861927</v>
       </c>
       <c r="W78" t="n" s="87">
-        <v>0.3133278060798135</v>
+        <v>0.3133627934880228</v>
       </c>
       <c r="X78" t="n" s="87">
-        <v>0.3133278060798135</v>
+        <v>0.3133627934880228</v>
       </c>
       <c r="Y78" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -11255,25 +11105,25 @@
         <v>0.46249027824216116</v>
       </c>
       <c r="AC78" t="n" s="87">
-        <v>0.3512373926864163</v>
+        <v>0.35158894777215793</v>
       </c>
       <c r="AD78" t="n" s="87">
-        <v>0.3512373926864164</v>
+        <v>0.351588947772158</v>
       </c>
       <c r="AE78" t="n" s="87">
-        <v>0.3295313846948983</v>
+        <v>0.32987226084028654</v>
       </c>
       <c r="AF78" t="n" s="87">
-        <v>0.3295313846948983</v>
+        <v>0.3298722608402865</v>
       </c>
       <c r="AG78" t="n" s="87">
-        <v>0.2604696685658362</v>
+        <v>0.2607668904611456</v>
       </c>
       <c r="AH78" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI78" t="n" s="87">
-        <v>0.3707247300786817</v>
+        <v>0.3710846335166819</v>
       </c>
       <c r="AJ78" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -11282,7 +11132,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL78" t="n" s="87">
-        <v>0.9785774668581568</v>
+        <v>0.9778794927060539</v>
       </c>
       <c r="AM78" t="n" s="87">
         <v>0.640178587661418</v>
@@ -11291,20 +11141,18 @@
         <v>0.9188310599100563</v>
       </c>
       <c r="AO78" t="n" s="87">
-        <v>0.996592437442733</v>
+        <v>0.9967008392970564</v>
       </c>
       <c r="AP78" t="n" s="87">
         <v>0.6401785876614181</v>
       </c>
       <c r="AQ78" t="n" s="87">
-        <v>0.8501926800467347</v>
+        <v>0.850165637816905</v>
       </c>
       <c r="AR78" t="n" s="87">
-        <v>0.8956084958608945</v>
-      </c>
-      <c r="AS78" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.8984334786883642</v>
+      </c>
+      <c r="AS78" s="87"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -11359,16 +11207,16 @@
         <v>0.3996832524560099</v>
       </c>
       <c r="U79" t="n" s="87">
-        <v>0.3045029815045692</v>
+        <v>0.30454204098948745</v>
       </c>
       <c r="V79" t="n" s="87">
         <v>0.4028613014993786</v>
       </c>
       <c r="W79" t="n" s="87">
-        <v>0.3088893483095813</v>
+        <v>0.30892872052545484</v>
       </c>
       <c r="X79" t="n" s="87">
-        <v>0.3088893483095813</v>
+        <v>0.30892872052545484</v>
       </c>
       <c r="Y79" t="n" s="87">
         <v>0.47903141456775666</v>
@@ -11383,25 +11231,25 @@
         <v>0.4626135206857456</v>
       </c>
       <c r="AC79" t="n" s="87">
-        <v>0.34958948043733196</v>
+        <v>0.34997908006563705</v>
       </c>
       <c r="AD79" t="n" s="87">
-        <v>0.349589480437332</v>
+        <v>0.34997908006563716</v>
       </c>
       <c r="AE79" t="n" s="87">
-        <v>0.3279338341938433</v>
+        <v>0.328311482025458</v>
       </c>
       <c r="AF79" t="n" s="87">
-        <v>0.32793383419384325</v>
+        <v>0.328311482025458</v>
       </c>
       <c r="AG79" t="n" s="87">
-        <v>0.2570375176543919</v>
+        <v>0.2573647866779599</v>
       </c>
       <c r="AH79" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI79" t="n" s="87">
-        <v>0.37158062152895593</v>
+        <v>0.3719807126216904</v>
       </c>
       <c r="AJ79" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -11410,7 +11258,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL79" t="n" s="87">
-        <v>0.9441436479887619</v>
+        <v>0.9440460133979907</v>
       </c>
       <c r="AM79" t="n" s="87">
         <v>0.7231291424266528</v>
@@ -11419,20 +11267,18 @@
         <v>0.967283710994274</v>
       </c>
       <c r="AO79" t="n" s="87">
-        <v>0.9993792505694212</v>
+        <v>0.9993852539272589</v>
       </c>
       <c r="AP79" t="n" s="87">
         <v>0.6998686177960017</v>
       </c>
       <c r="AQ79" t="n" s="87">
-        <v>0.9226103061602585</v>
+        <v>0.9225861188584842</v>
       </c>
       <c r="AR79" t="n" s="87">
-        <v>0.9796196435544803</v>
-      </c>
-      <c r="AS79" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9797736704547727</v>
+      </c>
+      <c r="AS79" s="87"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -11454,7 +11300,7 @@
         <v>1.0</v>
       </c>
       <c r="J80" t="n" s="87">
-        <v>0.4172728335675684</v>
+        <v>0.4172176061226278</v>
       </c>
       <c r="K80" t="n" s="87">
         <v>1.0</v>
@@ -11487,16 +11333,16 @@
         <v>0.403303173377494</v>
       </c>
       <c r="U80" t="n" s="87">
-        <v>0.3032591831917856</v>
+        <v>0.3033082172849886</v>
       </c>
       <c r="V80" t="n" s="87">
         <v>0.3992567501698555</v>
       </c>
       <c r="W80" t="n" s="87">
-        <v>0.306433767668571</v>
+        <v>0.306483089270701</v>
       </c>
       <c r="X80" t="n" s="87">
-        <v>0.306433767668571</v>
+        <v>0.306483089270701</v>
       </c>
       <c r="Y80" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -11511,16 +11357,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC80" t="n" s="87">
-        <v>0.3498374902251395</v>
+        <v>0.3503102173372916</v>
       </c>
       <c r="AD80" t="n" s="87">
-        <v>0.34983749022513955</v>
+        <v>0.35031021733729173</v>
       </c>
       <c r="AE80" t="n" s="87">
-        <v>0.32532853985179533</v>
+        <v>0.3257847436166887</v>
       </c>
       <c r="AF80" t="n" s="87">
-        <v>0.32532853985179533</v>
+        <v>0.32578474361668863</v>
       </c>
       <c r="AG80" t="n" s="87">
         <v>1.0</v>
@@ -11529,7 +11375,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI80" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ80" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -11538,7 +11384,7 @@
         <v>0.7245095177617773</v>
       </c>
       <c r="AL80" t="n" s="87">
-        <v>0.710342605897736</v>
+        <v>0.7143146063098149</v>
       </c>
       <c r="AM80" t="n" s="87">
         <v>0.6946591041572618</v>
@@ -11547,20 +11393,18 @@
         <v>0.9564297022746282</v>
       </c>
       <c r="AO80" t="n" s="87">
-        <v>0.8865797543228738</v>
+        <v>0.8857060551714823</v>
       </c>
       <c r="AP80" t="n" s="87">
         <v>0.7548954760303925</v>
       </c>
       <c r="AQ80" t="n" s="87">
-        <v>0.9243841718522883</v>
+        <v>0.9243456481996615</v>
       </c>
       <c r="AR80" t="n" s="87">
-        <v>0.2030028071640508</v>
-      </c>
-      <c r="AS80" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.20125258964785603</v>
+      </c>
+      <c r="AS80" s="87"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -11615,16 +11459,16 @@
         <v>0.4150027699831104</v>
       </c>
       <c r="U81" t="n" s="87">
-        <v>0.31771279572534256</v>
+        <v>0.31774804620216035</v>
       </c>
       <c r="V81" t="n" s="87">
         <v>0.4161237688456105</v>
       </c>
       <c r="W81" t="n" s="87">
-        <v>0.3132925251598187</v>
+        <v>0.3133275104260586</v>
       </c>
       <c r="X81" t="n" s="87">
-        <v>0.3132925251598187</v>
+        <v>0.3133275104260586</v>
       </c>
       <c r="Y81" t="n" s="87">
         <v>0.4871431549000324</v>
@@ -11639,16 +11483,16 @@
         <v>0.4699114656337176</v>
       </c>
       <c r="AC81" t="n" s="87">
-        <v>0.3583268596431807</v>
+        <v>0.3586815875072187</v>
       </c>
       <c r="AD81" t="n" s="87">
-        <v>0.3583268596431807</v>
+        <v>0.3586815875072187</v>
       </c>
       <c r="AE81" t="n" s="87">
-        <v>0.33640991490674566</v>
+        <v>0.3367543325894102</v>
       </c>
       <c r="AF81" t="n" s="87">
-        <v>0.33640991490674566</v>
+        <v>0.3367543325894102</v>
       </c>
       <c r="AG81" t="n" s="87">
         <v>1.0</v>
@@ -11657,7 +11501,7 @@
         <v>0.44585118391102757</v>
       </c>
       <c r="AI81" t="n" s="87">
-        <v>0.3719280563719641</v>
+        <v>0.37228843688649443</v>
       </c>
       <c r="AJ81" t="n" s="87">
         <v>0.5235939236880895</v>
@@ -11666,7 +11510,7 @@
         <v>0.6189132037080556</v>
       </c>
       <c r="AL81" t="n" s="87">
-        <v>0.8839974305289396</v>
+        <v>0.8828086184005981</v>
       </c>
       <c r="AM81" t="n" s="87">
         <v>0.624904825158454</v>
@@ -11675,20 +11519,18 @@
         <v>0.8701570354269352</v>
       </c>
       <c r="AO81" t="n" s="87">
-        <v>0.99884974144659</v>
+        <v>0.9988657759548056</v>
       </c>
       <c r="AP81" t="n" s="87">
         <v>0.7315109290600303</v>
       </c>
       <c r="AQ81" t="n" s="87">
-        <v>0.9092431388382274</v>
+        <v>0.909225617912509</v>
       </c>
       <c r="AR81" t="n" s="87">
-        <v>0.9984906900981468</v>
-      </c>
-      <c r="AS81" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9985089641672454</v>
+      </c>
+      <c r="AS81" s="87"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -11710,10 +11552,10 @@
         <v>1.0</v>
       </c>
       <c r="J82" t="n" s="87">
-        <v>0.37698466099056593</v>
+        <v>0.3769313166906019</v>
       </c>
       <c r="K82" t="n" s="87">
-        <v>0.3769846609905658</v>
+        <v>0.37693131669060187</v>
       </c>
       <c r="L82" t="n" s="87">
         <v>1.0</v>
@@ -11743,16 +11585,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U82" t="n" s="87">
-        <v>0.30146155372528805</v>
+        <v>0.3015104229402114</v>
       </c>
       <c r="V82" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W82" t="n" s="87">
-        <v>0.3064529578497201</v>
+        <v>0.3065022811756007</v>
       </c>
       <c r="X82" t="n" s="87">
-        <v>0.3064529578497201</v>
+        <v>0.3065022811756007</v>
       </c>
       <c r="Y82" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -11767,25 +11609,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC82" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD82" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE82" t="n" s="87">
-        <v>0.32534835823743874</v>
+        <v>0.3258045763728488</v>
       </c>
       <c r="AF82" t="n" s="87">
-        <v>0.3253483582374387</v>
+        <v>0.3258045763728488</v>
       </c>
       <c r="AG82" t="n" s="87">
-        <v>0.2542367163221647</v>
+        <v>0.254630853867583</v>
       </c>
       <c r="AH82" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI82" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ82" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -11794,7 +11636,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL82" t="n" s="87">
-        <v>0.7717558888014165</v>
+        <v>0.776837013129118</v>
       </c>
       <c r="AM82" t="n" s="87">
         <v>0.682956778696853</v>
@@ -11803,20 +11645,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO82" t="n" s="87">
-        <v>0.942323838552676</v>
+        <v>0.9416137965464277</v>
       </c>
       <c r="AP82" t="n" s="87">
         <v>0.6829567786968532</v>
       </c>
       <c r="AQ82" t="n" s="87">
-        <v>0.8040930655625953</v>
+        <v>0.8040062516002362</v>
       </c>
       <c r="AR82" t="n" s="87">
-        <v>0.1779372719515628</v>
-      </c>
-      <c r="AS82" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.17572729835456347</v>
+      </c>
+      <c r="AS82" s="87"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -11838,10 +11678,10 @@
         <v>1.0</v>
       </c>
       <c r="J83" t="n" s="87">
-        <v>0.37615077917767253</v>
+        <v>0.37609748164288764</v>
       </c>
       <c r="K83" t="n" s="87">
-        <v>0.3761507791776725</v>
+        <v>0.3760974816428877</v>
       </c>
       <c r="L83" t="n" s="87">
         <v>1.0</v>
@@ -11871,16 +11711,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U83" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V83" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W83" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X83" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y83" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -11895,25 +11735,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC83" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD83" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE83" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF83" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG83" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH83" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI83" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ83" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -11922,7 +11762,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL83" t="n" s="87">
-        <v>0.7131464276712869</v>
+        <v>0.7190573344990832</v>
       </c>
       <c r="AM83" t="n" s="87">
         <v>0.682956778696853</v>
@@ -11931,20 +11771,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO83" t="n" s="87">
-        <v>0.8278402435120712</v>
+        <v>0.8259810841335778</v>
       </c>
       <c r="AP83" t="n" s="87">
         <v>0.6829567786968532</v>
       </c>
       <c r="AQ83" t="n" s="87">
-        <v>0.7599527007488124</v>
+        <v>0.7598521682967407</v>
       </c>
       <c r="AR83" t="n" s="87">
-        <v>0.04683539357075047</v>
-      </c>
-      <c r="AS83" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.04616226517147868</v>
+      </c>
+      <c r="AS83" s="87"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -12005,7 +11843,7 @@
         <v>0.46697965765355387</v>
       </c>
       <c r="W84" t="n" s="87">
-        <v>0.3670481366168274</v>
+        <v>0.3670748500197903</v>
       </c>
       <c r="X84" t="n" s="87">
         <v>1.0</v>
@@ -12023,16 +11861,16 @@
         <v>0.46249027824216116</v>
       </c>
       <c r="AC84" t="n" s="87">
-        <v>0.36211199862055493</v>
+        <v>0.3623840831270661</v>
       </c>
       <c r="AD84" t="n" s="87">
-        <v>0.36211199862055493</v>
+        <v>0.3623840831270661</v>
       </c>
       <c r="AE84" t="n" s="87">
-        <v>0.33718909814720754</v>
+        <v>0.3374523626961554</v>
       </c>
       <c r="AF84" t="n" s="87">
-        <v>0.33718909814720754</v>
+        <v>0.3374523626961554</v>
       </c>
       <c r="AG84" t="n" s="87">
         <v>1.0</v>
@@ -12041,7 +11879,7 @@
         <v>0.473971888569348</v>
       </c>
       <c r="AI84" t="n" s="87">
-        <v>0.3696498069643087</v>
+        <v>0.36992427070708</v>
       </c>
       <c r="AJ84" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -12050,7 +11888,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL84" t="n" s="87">
-        <v>0.9804479805732518</v>
+        <v>0.9796170676409923</v>
       </c>
       <c r="AM84" t="n" s="87">
         <v>0.7534243418060365</v>
@@ -12059,7 +11897,7 @@
         <v>0.9876280663827864</v>
       </c>
       <c r="AO84" t="n" s="87">
-        <v>0.9999923314971476</v>
+        <v>0.9999926083280756</v>
       </c>
       <c r="AP84" t="n" s="87">
         <v>0.8637848419524466</v>
@@ -12068,11 +11906,9 @@
         <v>0.9969555684531559</v>
       </c>
       <c r="AR84" t="n" s="87">
-        <v>0.9999995584286583</v>
-      </c>
-      <c r="AS84" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999995736699288</v>
+      </c>
+      <c r="AS84" s="87"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -12094,10 +11930,10 @@
         <v>1.0</v>
       </c>
       <c r="J85" t="n" s="87">
-        <v>0.8451239534868393</v>
+        <v>0.8451078791503704</v>
       </c>
       <c r="K85" t="n" s="87">
-        <v>0.8451239534868393</v>
+        <v>0.8451078791503704</v>
       </c>
       <c r="L85" t="n" s="87">
         <v>1.0</v>
@@ -12127,16 +11963,16 @@
         <v>0.45596990980697477</v>
       </c>
       <c r="U85" t="n" s="87">
-        <v>0.3692008036659776</v>
+        <v>0.3692275823462864</v>
       </c>
       <c r="V85" t="n" s="87">
         <v>0.4603163492691197</v>
       </c>
       <c r="W85" t="n" s="87">
-        <v>0.37421535956880625</v>
+        <v>0.3742422861775273</v>
       </c>
       <c r="X85" t="n" s="87">
-        <v>0.37421535956880625</v>
+        <v>0.3742422861775273</v>
       </c>
       <c r="Y85" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -12151,16 +11987,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC85" t="n" s="87">
-        <v>0.3662313977183278</v>
+        <v>0.3665047990657056</v>
       </c>
       <c r="AD85" t="n" s="87">
-        <v>0.36623139771832786</v>
+        <v>0.3665047990657057</v>
       </c>
       <c r="AE85" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.34435608791788436</v>
       </c>
       <c r="AF85" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.3443560879178843</v>
       </c>
       <c r="AG85" t="n" s="87">
         <v>1.0</v>
@@ -12169,7 +12005,7 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI85" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ85" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -12178,7 +12014,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL85" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM85" t="n" s="87">
         <v>0.682956778696853</v>
@@ -12187,7 +12023,7 @@
         <v>0.9591963679410248</v>
       </c>
       <c r="AO85" t="n" s="87">
-        <v>0.9999942859288277</v>
+        <v>0.9999945925346259</v>
       </c>
       <c r="AP85" t="n" s="87">
         <v>0.821675576635382</v>
@@ -12196,11 +12032,9 @@
         <v>0.9951201085298701</v>
       </c>
       <c r="AR85" t="n" s="87">
-        <v>0.9999998143910835</v>
-      </c>
-      <c r="AS85" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999998240618951</v>
+      </c>
+      <c r="AS85" s="87"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -12222,7 +12056,7 @@
         <v>1.0</v>
       </c>
       <c r="J86" t="n" s="87">
-        <v>0.8860899277888497</v>
+        <v>0.8860775321046975</v>
       </c>
       <c r="K86" t="n" s="87">
         <v>1.0</v>
@@ -12255,13 +12089,13 @@
         <v>0.4088284443978012</v>
       </c>
       <c r="U86" t="n" s="87">
-        <v>0.31350601988754245</v>
+        <v>0.313530766787376</v>
       </c>
       <c r="V86" t="n" s="87">
         <v>0.41202930097751195</v>
       </c>
       <c r="W86" t="n" s="87">
-        <v>0.3166887546564764</v>
+        <v>0.3167136368826862</v>
       </c>
       <c r="X86" t="n" s="87">
         <v>1.0</v>
@@ -12279,16 +12113,16 @@
         <v>0.46407590236861584</v>
       </c>
       <c r="AC86" t="n" s="87">
-        <v>0.3579914476370975</v>
+        <v>0.3582621749274045</v>
       </c>
       <c r="AD86" t="n" s="87">
-        <v>0.35799144763709756</v>
+        <v>0.3582621749274045</v>
       </c>
       <c r="AE86" t="n" s="87">
-        <v>0.3360842730886778</v>
+        <v>0.33634711276598256</v>
       </c>
       <c r="AF86" t="n" s="87">
-        <v>0.3360842730886777</v>
+        <v>0.3363471127659824</v>
       </c>
       <c r="AG86" t="n" s="87">
         <v>1.0</v>
@@ -12297,7 +12131,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI86" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ86" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -12306,7 +12140,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL86" t="n" s="87">
-        <v>0.9656891488752742</v>
+        <v>0.9649786041082531</v>
       </c>
       <c r="AM86" t="n" s="87">
         <v>0.7159208149572642</v>
@@ -12315,7 +12149,7 @@
         <v>0.9754892101081346</v>
       </c>
       <c r="AO86" t="n" s="87">
-        <v>0.9998933788185306</v>
+        <v>0.9998953208171847</v>
       </c>
       <c r="AP86" t="n" s="87">
         <v>0.7827275653816528</v>
@@ -12324,11 +12158,9 @@
         <v>0.9859181820794217</v>
       </c>
       <c r="AR86" t="n" s="87">
-        <v>0.9989651381508606</v>
-      </c>
-      <c r="AS86" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.998982301980372</v>
+      </c>
+      <c r="AS86" s="87"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -12350,10 +12182,10 @@
         <v>1.0</v>
       </c>
       <c r="J87" t="n" s="87">
-        <v>0.7999357727501174</v>
+        <v>0.7999161187687872</v>
       </c>
       <c r="K87" t="n" s="87">
-        <v>0.7999357727501174</v>
+        <v>0.7999161187687872</v>
       </c>
       <c r="L87" t="n" s="87">
         <v>1.0</v>
@@ -12383,16 +12215,16 @@
         <v>0.4034799396376645</v>
       </c>
       <c r="U87" t="n" s="87">
-        <v>0.3208092591870186</v>
+        <v>0.3208343131521745</v>
       </c>
       <c r="V87" t="n" s="87">
         <v>0.4077009958836299</v>
       </c>
       <c r="W87" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="X87" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="Y87" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -12407,25 +12239,25 @@
         <v>0.47579634006273275</v>
       </c>
       <c r="AC87" t="n" s="87">
-        <v>0.3662313977183278</v>
+        <v>0.3665047990657056</v>
       </c>
       <c r="AD87" t="n" s="87">
-        <v>0.36623139771832786</v>
+        <v>0.3665047990657057</v>
       </c>
       <c r="AE87" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.34435608791788436</v>
       </c>
       <c r="AF87" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.3443560879178843</v>
       </c>
       <c r="AG87" t="n" s="87">
-        <v>0.27322071668067444</v>
+        <v>0.27345464247082935</v>
       </c>
       <c r="AH87" t="n" s="87">
         <v>0.4362638694223085</v>
       </c>
       <c r="AI87" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ87" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -12434,7 +12266,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL87" t="n" s="87">
-        <v>0.992065844391403</v>
+        <v>0.9918036583312065</v>
       </c>
       <c r="AM87" t="n" s="87">
         <v>0.6632323759973663</v>
@@ -12443,7 +12275,7 @@
         <v>0.9407854695324936</v>
       </c>
       <c r="AO87" t="n" s="87">
-        <v>0.9999687257824604</v>
+        <v>0.999969723945199</v>
       </c>
       <c r="AP87" t="n" s="87">
         <v>0.7436959359094376</v>
@@ -12452,11 +12284,9 @@
         <v>0.9756773616509858</v>
       </c>
       <c r="AR87" t="n" s="87">
-        <v>0.999971005129663</v>
-      </c>
-      <c r="AS87" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999971884419768</v>
+      </c>
+      <c r="AS87" s="87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -12478,7 +12308,7 @@
         <v>1.0</v>
       </c>
       <c r="J88" t="n" s="87">
-        <v>0.28051643311368596</v>
+        <v>0.2804916487676305</v>
       </c>
       <c r="K88" t="n" s="87">
         <v>1.0</v>
@@ -12511,16 +12341,16 @@
         <v>0.3939639241397491</v>
       </c>
       <c r="U88" t="n" s="87">
-        <v>0.29968308258298954</v>
+        <v>0.2997072147164184</v>
       </c>
       <c r="V88" t="n" s="87">
         <v>0.3950664721012117</v>
       </c>
       <c r="W88" t="n" s="87">
-        <v>0.3028365028459904</v>
+        <v>0.30286077909466785</v>
       </c>
       <c r="X88" t="n" s="87">
-        <v>0.3028365028459904</v>
+        <v>0.30286077909466785</v>
       </c>
       <c r="Y88" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -12535,25 +12365,25 @@
         <v>0.4610917027033609</v>
       </c>
       <c r="AC88" t="n" s="87">
-        <v>0.3471994575742801</v>
+        <v>0.3474664405916021</v>
       </c>
       <c r="AD88" t="n" s="87">
-        <v>0.3471994575742801</v>
+        <v>0.3474664405916021</v>
       </c>
       <c r="AE88" t="n" s="87">
-        <v>0.32561774353467493</v>
+        <v>0.3258764154808761</v>
       </c>
       <c r="AF88" t="n" s="87">
-        <v>0.32561774353467493</v>
+        <v>0.32587641548087604</v>
       </c>
       <c r="AG88" t="n" s="87">
-        <v>0.30275638036045754</v>
+        <v>0.3030050510977328</v>
       </c>
       <c r="AH88" t="n" s="87">
         <v>0.44585118391102757</v>
       </c>
       <c r="AI88" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ88" t="n" s="87">
         <v>0.51581649417632</v>
@@ -12562,7 +12392,7 @@
         <v>0.6024782262767725</v>
       </c>
       <c r="AL88" t="n" s="87">
-        <v>0.8707631646459919</v>
+        <v>0.8718499221564912</v>
       </c>
       <c r="AM88" t="n" s="87">
         <v>0.6118150259839317</v>
@@ -12571,7 +12401,7 @@
         <v>0.8849212992714632</v>
       </c>
       <c r="AO88" t="n" s="87">
-        <v>0.9987752400710813</v>
+        <v>0.9987699321198652</v>
       </c>
       <c r="AP88" t="n" s="87">
         <v>0.5374281349714671</v>
@@ -12580,11 +12410,9 @@
         <v>0.7249513795541794</v>
       </c>
       <c r="AR88" t="n" s="87">
-        <v>0.9423793084168122</v>
-      </c>
-      <c r="AS88" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9420541785717471</v>
+      </c>
+      <c r="AS88" s="87"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -12606,10 +12434,10 @@
         <v>1.0</v>
       </c>
       <c r="J89" t="n" s="87">
-        <v>0.8627034148893941</v>
+        <v>0.862688868655053</v>
       </c>
       <c r="K89" t="n" s="87">
-        <v>0.8627034148893941</v>
+        <v>0.862688868655053</v>
       </c>
       <c r="L89" t="n" s="87">
         <v>1.0</v>
@@ -12645,10 +12473,10 @@
         <v>0.40988817174170833</v>
       </c>
       <c r="W89" t="n" s="87">
-        <v>0.3215395890025705</v>
+        <v>0.3215646729998482</v>
       </c>
       <c r="X89" t="n" s="87">
-        <v>0.3215395890025705</v>
+        <v>0.3215646729998482</v>
       </c>
       <c r="Y89" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -12663,25 +12491,25 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC89" t="n" s="87">
-        <v>0.363138715748161</v>
+        <v>0.36341113220493887</v>
       </c>
       <c r="AD89" t="n" s="87">
-        <v>0.3631387157481611</v>
+        <v>0.3634111322049389</v>
       </c>
       <c r="AE89" t="n" s="87">
-        <v>0.3410839000354405</v>
+        <v>0.34134863942328236</v>
       </c>
       <c r="AF89" t="n" s="87">
-        <v>0.3410839000354404</v>
+        <v>0.34134863942328236</v>
       </c>
       <c r="AG89" t="n" s="87">
-        <v>0.26789865826800097</v>
+        <v>0.26812970849724294</v>
       </c>
       <c r="AH89" t="n" s="87">
         <v>0.41946027274563624</v>
       </c>
       <c r="AI89" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ89" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -12690,7 +12518,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL89" t="n" s="87">
-        <v>0.9612094069436898</v>
+        <v>0.9615691658467238</v>
       </c>
       <c r="AM89" t="n" s="87">
         <v>0.7159208149572642</v>
@@ -12699,7 +12527,7 @@
         <v>0.9649419537945452</v>
       </c>
       <c r="AO89" t="n" s="87">
-        <v>0.9998602865698536</v>
+        <v>0.9998596804092519</v>
       </c>
       <c r="AP89" t="n" s="87">
         <v>0.8276394699437587</v>
@@ -12708,11 +12536,9 @@
         <v>0.9930037898173485</v>
       </c>
       <c r="AR89" t="n" s="87">
-        <v>0.9995942159895286</v>
-      </c>
-      <c r="AS89" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9995917864716504</v>
+      </c>
+      <c r="AS89" s="87"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -12773,10 +12599,10 @@
         <v>0.40905887575025324</v>
       </c>
       <c r="W90" t="n" s="87">
-        <v>0.32553330518030876</v>
+        <v>0.32539962668520145</v>
       </c>
       <c r="X90" t="n" s="87">
-        <v>0.32553330518030876</v>
+        <v>0.32539962668520145</v>
       </c>
       <c r="Y90" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -12791,16 +12617,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC90" t="n" s="87">
-        <v>0.36864608376029995</v>
+        <v>0.36747482860879915</v>
       </c>
       <c r="AD90" t="n" s="87">
-        <v>0.36864608376029995</v>
+        <v>0.36747482860879915</v>
       </c>
       <c r="AE90" t="n" s="87">
-        <v>0.34643873622459237</v>
+        <v>0.3452994489971085</v>
       </c>
       <c r="AF90" t="n" s="87">
-        <v>0.34643873622459237</v>
+        <v>0.34529944899710835</v>
       </c>
       <c r="AG90" t="n" s="87">
         <v>1.0</v>
@@ -12809,7 +12635,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI90" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ90" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -12836,11 +12662,9 @@
         <v>0.9961774325703819</v>
       </c>
       <c r="AR90" t="n" s="87">
-        <v>0.9998898276786302</v>
-      </c>
-      <c r="AS90" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9998897557549973</v>
+      </c>
+      <c r="AS90" s="87"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -12862,10 +12686,10 @@
         <v>1.0</v>
       </c>
       <c r="J91" t="n" s="87">
-        <v>0.36332721917082605</v>
+        <v>0.36327468057370743</v>
       </c>
       <c r="K91" t="n" s="87">
-        <v>0.363327219170826</v>
+        <v>0.3632746805737075</v>
       </c>
       <c r="L91" t="n" s="87">
         <v>1.0</v>
@@ -12895,16 +12719,16 @@
         <v>0.3992471351802457</v>
       </c>
       <c r="U91" t="n" s="87">
-        <v>0.29970393278487695</v>
+        <v>0.29975263934082713</v>
       </c>
       <c r="V91" t="n" s="87">
         <v>0.40242404108929525</v>
       </c>
       <c r="W91" t="n" s="87">
-        <v>0.3046789284785206</v>
+        <v>0.3047280917303848</v>
       </c>
       <c r="X91" t="n" s="87">
-        <v>0.3046789284785206</v>
+        <v>0.3047280917303848</v>
       </c>
       <c r="Y91" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -12919,25 +12743,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC91" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD91" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE91" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF91" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG91" t="n" s="87">
-        <v>0.2526548452233839</v>
+        <v>0.2530473625404543</v>
       </c>
       <c r="AH91" t="n" s="87">
         <v>0.42036348076901847</v>
       </c>
       <c r="AI91" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ91" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -12946,7 +12770,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL91" t="n" s="87">
-        <v>0.7830495621798425</v>
+        <v>0.7879483498004128</v>
       </c>
       <c r="AM91" t="n" s="87">
         <v>0.682956778696853</v>
@@ -12955,20 +12779,18 @@
         <v>0.9308837298346594</v>
       </c>
       <c r="AO91" t="n" s="87">
-        <v>0.8383660761522116</v>
+        <v>0.8365981492844343</v>
       </c>
       <c r="AP91" t="n" s="87">
         <v>0.6612830393670293</v>
       </c>
       <c r="AQ91" t="n" s="87">
-        <v>0.7101231002979767</v>
+        <v>0.7100096623893716</v>
       </c>
       <c r="AR91" t="n" s="87">
-        <v>0.06274424732744538</v>
-      </c>
-      <c r="AS91" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.061857311798732065</v>
+      </c>
+      <c r="AS91" s="87"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -13023,16 +12845,16 @@
         <v>0.40086185469971114</v>
       </c>
       <c r="U92" t="n" s="87">
-        <v>0.31844124111709954</v>
+        <v>0.3184661968625736</v>
       </c>
       <c r="V92" t="n" s="87">
         <v>0.4050741206389171</v>
       </c>
       <c r="W92" t="n" s="87">
-        <v>0.32311952139621003</v>
+        <v>0.3231446699426682</v>
       </c>
       <c r="X92" t="n" s="87">
-        <v>0.32311952139621003</v>
+        <v>0.3231446699426682</v>
       </c>
       <c r="Y92" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -13047,16 +12869,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC92" t="n" s="87">
-        <v>0.36481314236604584</v>
+        <v>0.36508609485624016</v>
       </c>
       <c r="AD92" t="n" s="87">
-        <v>0.36481314236604584</v>
+        <v>0.3650860948562402</v>
       </c>
       <c r="AE92" t="n" s="87">
-        <v>0.34271135661692825</v>
+        <v>0.34297670168084476</v>
       </c>
       <c r="AF92" t="n" s="87">
-        <v>0.34271135661692825</v>
+        <v>0.3429767016808447</v>
       </c>
       <c r="AG92" t="n" s="87">
         <v>1.0</v>
@@ -13065,7 +12887,7 @@
         <v>0.4329174313995406</v>
       </c>
       <c r="AI92" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ92" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -13074,7 +12896,7 @@
         <v>0.7311609750999611</v>
       </c>
       <c r="AL92" t="n" s="87">
-        <v>0.987123122404529</v>
+        <v>0.9866997926622079</v>
       </c>
       <c r="AM92" t="n" s="87">
         <v>0.6776691474917769</v>
@@ -13083,7 +12905,7 @@
         <v>0.9507685853702996</v>
       </c>
       <c r="AO92" t="n" s="87">
-        <v>0.9999626471376716</v>
+        <v>0.9999638393023005</v>
       </c>
       <c r="AP92" t="n" s="87">
         <v>0.740469676593108</v>
@@ -13092,11 +12914,9 @@
         <v>0.9760928990775757</v>
       </c>
       <c r="AR92" t="n" s="87">
-        <v>0.9999586422045489</v>
-      </c>
-      <c r="AS92" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999598963941321</v>
+      </c>
+      <c r="AS92" s="87"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -13151,16 +12971,16 @@
         <v>0.39834433420441945</v>
       </c>
       <c r="U93" t="n" s="87">
-        <v>0.30163216688189265</v>
+        <v>0.30168105180985216</v>
       </c>
       <c r="V93" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W93" t="n" s="87">
-        <v>0.3066251559104505</v>
+        <v>0.3066744946963058</v>
       </c>
       <c r="X93" t="n" s="87">
-        <v>0.3066251559104505</v>
+        <v>0.3066744946963058</v>
       </c>
       <c r="Y93" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -13175,25 +12995,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC93" t="n" s="87">
-        <v>0.34710495950303416</v>
+        <v>0.34757596816518727</v>
       </c>
       <c r="AD93" t="n" s="87">
-        <v>0.34710495950303427</v>
+        <v>0.3475759681651873</v>
       </c>
       <c r="AE93" t="n" s="87">
-        <v>0.32552619030072916</v>
+        <v>0.32598253731090177</v>
       </c>
       <c r="AF93" t="n" s="87">
-        <v>0.3255261903007291</v>
+        <v>0.3259825373109017</v>
       </c>
       <c r="AG93" t="n" s="87">
-        <v>0.2543903357547365</v>
+        <v>0.2547846300897743</v>
       </c>
       <c r="AH93" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI93" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ93" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -13202,7 +13022,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL93" t="n" s="87">
-        <v>0.8761960671147624</v>
+        <v>0.8749386160879234</v>
       </c>
       <c r="AM93" t="n" s="87">
         <v>0.7385601264156041</v>
@@ -13211,20 +13031,18 @@
         <v>0.9770652000532023</v>
       </c>
       <c r="AO93" t="n" s="87">
-        <v>0.986861041113693</v>
+        <v>0.9870420290546573</v>
       </c>
       <c r="AP93" t="n" s="87">
         <v>0.7153527004638593</v>
       </c>
       <c r="AQ93" t="n" s="87">
-        <v>0.9105044135724668</v>
+        <v>0.9104595036199425</v>
       </c>
       <c r="AR93" t="n" s="87">
-        <v>0.5720770220599781</v>
-      </c>
-      <c r="AS93" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.5749781520959886</v>
+      </c>
+      <c r="AS93" s="87"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -13246,10 +13064,10 @@
         <v>1.0</v>
       </c>
       <c r="J94" t="n" s="87">
-        <v>0.8265166108542821</v>
+        <v>0.8264990017655738</v>
       </c>
       <c r="K94" t="n" s="87">
-        <v>0.8265166108542821</v>
+        <v>0.8264990017655738</v>
       </c>
       <c r="L94" t="n" s="87">
         <v>1.0</v>
@@ -13279,16 +13097,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U94" t="n" s="87">
-        <v>0.32273955743330107</v>
+        <v>0.3227646905085092</v>
       </c>
       <c r="V94" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W94" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="X94" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="Y94" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -13303,16 +13121,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC94" t="n" s="87">
-        <v>0.3662313977183278</v>
+        <v>0.3665047990657056</v>
       </c>
       <c r="AD94" t="n" s="87">
-        <v>0.36623139771832786</v>
+        <v>0.3665047990657057</v>
       </c>
       <c r="AE94" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.34435608791788436</v>
       </c>
       <c r="AF94" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.3443560879178843</v>
       </c>
       <c r="AG94" t="n" s="87">
         <v>1.0</v>
@@ -13321,7 +13139,7 @@
         <v>0.4362638694223085</v>
       </c>
       <c r="AI94" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ94" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -13330,7 +13148,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL94" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM94" t="n" s="87">
         <v>0.682956778696853</v>
@@ -13339,7 +13157,7 @@
         <v>0.9591963679410248</v>
       </c>
       <c r="AO94" t="n" s="87">
-        <v>0.9999942859288277</v>
+        <v>0.9999945925346259</v>
       </c>
       <c r="AP94" t="n" s="87">
         <v>0.7604100612629137</v>
@@ -13348,11 +13166,9 @@
         <v>0.9859191716282969</v>
       </c>
       <c r="AR94" t="n" s="87">
-        <v>0.9999955093548759</v>
-      </c>
-      <c r="AS94" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999957433307355</v>
+      </c>
+      <c r="AS94" s="87"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -13413,10 +13229,10 @@
         <v>0.40905887575025324</v>
       </c>
       <c r="W95" t="n" s="87">
-        <v>0.3153397980501314</v>
+        <v>0.3153899012641032</v>
       </c>
       <c r="X95" t="n" s="87">
-        <v>0.3153397980501314</v>
+        <v>0.3153899012641032</v>
       </c>
       <c r="Y95" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -13431,25 +13247,25 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC95" t="n" s="87">
-        <v>0.3593513928579271</v>
+        <v>0.3598298608282553</v>
       </c>
       <c r="AD95" t="n" s="87">
-        <v>0.35935139285792717</v>
+        <v>0.35982986082825535</v>
       </c>
       <c r="AE95" t="n" s="87">
-        <v>0.3345188546342922</v>
+        <v>0.33498154709476885</v>
       </c>
       <c r="AF95" t="n" s="87">
-        <v>0.3345188546342921</v>
+        <v>0.33498154709476885</v>
       </c>
       <c r="AG95" t="n" s="87">
-        <v>0.2621817570787902</v>
+        <v>0.2625838748115461</v>
       </c>
       <c r="AH95" t="n" s="87">
         <v>0.41946027274563624</v>
       </c>
       <c r="AI95" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ95" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -13473,14 +13289,12 @@
         <v>0.8385462195778848</v>
       </c>
       <c r="AQ95" t="n" s="87">
-        <v>0.9871490491605331</v>
+        <v>0.9871420572596691</v>
       </c>
       <c r="AR95" t="n" s="87">
-        <v>0.7953978339372875</v>
-      </c>
-      <c r="AS95" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7950407155803995</v>
+      </c>
+      <c r="AS95" s="87"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -13586,7 +13400,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL96" t="n" s="87">
-        <v>0.9859496457848731</v>
+        <v>0.9853490463366767</v>
       </c>
       <c r="AM96" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -13595,7 +13409,7 @@
         <v>0.9623764425979473</v>
       </c>
       <c r="AO96" t="n" s="87">
-        <v>0.9998429333533416</v>
+        <v>0.9998486026012814</v>
       </c>
       <c r="AP96" t="n" s="87">
         <v>0.8579484721509307</v>
@@ -13604,11 +13418,9 @@
         <v>0.9968416331257416</v>
       </c>
       <c r="AR96" t="n" s="87">
-        <v>0.9999985660603286</v>
-      </c>
-      <c r="AS96" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999986178254829</v>
+      </c>
+      <c r="AS96" s="87"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -13663,16 +13475,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U97" t="n" s="87">
-        <v>0.3206822851159674</v>
+        <v>0.3205496519189544</v>
       </c>
       <c r="V97" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W97" t="n" s="87">
-        <v>0.3253777711900295</v>
+        <v>0.3252441257648487</v>
       </c>
       <c r="X97" t="n" s="87">
-        <v>0.3253777711900295</v>
+        <v>0.3252441257648487</v>
       </c>
       <c r="Y97" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -13687,16 +13499,16 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC97" t="n" s="87">
-        <v>0.3653177697943423</v>
+        <v>0.3641509900701537</v>
       </c>
       <c r="AD97" t="n" s="87">
-        <v>0.36531776979434233</v>
+        <v>0.3641509900701537</v>
       </c>
       <c r="AE97" t="n" s="87">
-        <v>0.34320193047491776</v>
+        <v>0.3420677164963395</v>
       </c>
       <c r="AF97" t="n" s="87">
-        <v>0.3432019304749177</v>
+        <v>0.34206771649633944</v>
       </c>
       <c r="AG97" t="n" s="87">
         <v>1.0</v>
@@ -13705,7 +13517,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI97" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ97" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -13714,7 +13526,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL97" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM97" t="n" s="87">
         <v>0.640178587661418</v>
@@ -13723,7 +13535,7 @@
         <v>0.9245978509765803</v>
       </c>
       <c r="AO97" t="n" s="87">
-        <v>0.9999429875628986</v>
+        <v>0.9999460465894054</v>
       </c>
       <c r="AP97" t="n" s="87">
         <v>0.7110947045956966</v>
@@ -13732,11 +13544,9 @@
         <v>0.9704973931204313</v>
       </c>
       <c r="AR97" t="n" s="87">
-        <v>0.999967056090858</v>
-      </c>
-      <c r="AS97" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999688033961933</v>
+      </c>
+      <c r="AS97" s="87"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -13797,10 +13607,10 @@
         <v>0.4108826240129469</v>
       </c>
       <c r="W98" t="n" s="87">
-        <v>0.31447596361065383</v>
+        <v>0.3145259926250439</v>
       </c>
       <c r="X98" t="n" s="87">
-        <v>0.31447596361065383</v>
+        <v>0.3145259926250439</v>
       </c>
       <c r="Y98" t="n" s="87">
         <v>0.47903141456775666</v>
@@ -13815,25 +13625,25 @@
         <v>0.4626135206857456</v>
       </c>
       <c r="AC98" t="n" s="87">
-        <v>0.3544132736700592</v>
+        <v>0.3548888088815626</v>
       </c>
       <c r="AD98" t="n" s="87">
-        <v>0.3544132736700592</v>
+        <v>0.3548888088815627</v>
       </c>
       <c r="AE98" t="n" s="87">
-        <v>0.33261162290522606</v>
+        <v>0.3330729976819544</v>
       </c>
       <c r="AF98" t="n" s="87">
-        <v>0.332611622905226</v>
+        <v>0.33307299768195436</v>
       </c>
       <c r="AG98" t="n" s="87">
-        <v>0.2619805998328753</v>
+        <v>0.26238251875991886</v>
       </c>
       <c r="AH98" t="n" s="87">
         <v>0.42036348076901847</v>
       </c>
       <c r="AI98" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ98" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -13842,7 +13652,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL98" t="n" s="87">
-        <v>0.9450390982885042</v>
+        <v>0.9427911986162315</v>
       </c>
       <c r="AM98" t="n" s="87">
         <v>0.7534243418060365</v>
@@ -13851,20 +13661,18 @@
         <v>0.9709470417124095</v>
       </c>
       <c r="AO98" t="n" s="87">
-        <v>0.9935282063208356</v>
+        <v>0.993760380317177</v>
       </c>
       <c r="AP98" t="n" s="87">
         <v>0.7586993308133311</v>
       </c>
       <c r="AQ98" t="n" s="87">
-        <v>0.9656096382274153</v>
+        <v>0.9655913357260095</v>
       </c>
       <c r="AR98" t="n" s="87">
-        <v>0.9365188557054572</v>
-      </c>
-      <c r="AS98" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9385436081609784</v>
+      </c>
+      <c r="AS98" s="87"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -13925,10 +13733,10 @@
         <v>0.4209588706031546</v>
       </c>
       <c r="W99" t="n" s="87">
-        <v>0.32782731384018154</v>
+        <v>0.32783778714034206</v>
       </c>
       <c r="X99" t="n" s="87">
-        <v>0.32782731384018154</v>
+        <v>0.32783778714034206</v>
       </c>
       <c r="Y99" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -13943,25 +13751,25 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC99" t="n" s="87">
-        <v>0.3697830148267832</v>
+        <v>0.36989611914386666</v>
       </c>
       <c r="AD99" t="n" s="87">
-        <v>0.3697830148267832</v>
+        <v>0.36989611914386666</v>
       </c>
       <c r="AE99" t="n" s="87">
-        <v>0.34461737918937646</v>
+        <v>0.34472699659510564</v>
       </c>
       <c r="AF99" t="n" s="87">
-        <v>0.34461737918937646</v>
+        <v>0.34472699659510564</v>
       </c>
       <c r="AG99" t="n" s="87">
-        <v>0.27544633579099115</v>
+        <v>0.2755432013881712</v>
       </c>
       <c r="AH99" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI99" t="n" s="87">
-        <v>0.3679918139471926</v>
+        <v>0.36810469040127886</v>
       </c>
       <c r="AJ99" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -13970,7 +13778,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL99" t="n" s="87">
-        <v>0.9909399731266233</v>
+        <v>0.990349814811923</v>
       </c>
       <c r="AM99" t="n" s="87">
         <v>0.6754769416418173</v>
@@ -13979,7 +13787,7 @@
         <v>0.9438758314287737</v>
       </c>
       <c r="AO99" t="n" s="87">
-        <v>0.9997891761770197</v>
+        <v>0.9998004863720661</v>
       </c>
       <c r="AP99" t="n" s="87">
         <v>0.7898241333585748</v>
@@ -13988,11 +13796,9 @@
         <v>0.9870898789636567</v>
       </c>
       <c r="AR99" t="n" s="87">
-        <v>0.9999927205675884</v>
-      </c>
-      <c r="AS99" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999931066693156</v>
+      </c>
+      <c r="AS99" s="87"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -14047,16 +13853,16 @@
         <v>0.39466831058278906</v>
       </c>
       <c r="U100" t="n" s="87">
-        <v>0.30347887547942776</v>
+        <v>0.30352792961991226</v>
       </c>
       <c r="V100" t="n" s="87">
         <v>0.39577154248671925</v>
       </c>
       <c r="W100" t="n" s="87">
-        <v>0.3060249316862024</v>
+        <v>0.3060742165241861</v>
       </c>
       <c r="X100" t="n" s="87">
-        <v>0.3060249316862024</v>
+        <v>0.3060742165241861</v>
       </c>
       <c r="Y100" t="n" s="87">
         <v>0.47903141456775666</v>
@@ -14071,25 +13877,25 @@
         <v>0.4718359078672398</v>
       </c>
       <c r="AC100" t="n" s="87">
-        <v>0.35339212152977345</v>
+        <v>0.3538670376220345</v>
       </c>
       <c r="AD100" t="n" s="87">
-        <v>0.35339212152977345</v>
+        <v>0.3538670376220346</v>
       </c>
       <c r="AE100" t="n" s="87">
-        <v>0.32876006488498055</v>
+        <v>0.3292187325333191</v>
       </c>
       <c r="AF100" t="n" s="87">
-        <v>0.32876006488498055</v>
+        <v>0.329218732533319</v>
       </c>
       <c r="AG100" t="n" s="87">
-        <v>0.2544167360251208</v>
+        <v>0.25481105729535203</v>
       </c>
       <c r="AH100" t="n" s="87">
         <v>0.42401241692379116</v>
       </c>
       <c r="AI100" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ100" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -14098,7 +13904,7 @@
         <v>0.6983306715135913</v>
       </c>
       <c r="AL100" t="n" s="87">
-        <v>0.7378171669954069</v>
+        <v>0.7374591693163969</v>
       </c>
       <c r="AM100" t="n" s="87">
         <v>0.667454894245504</v>
@@ -14107,20 +13913,18 @@
         <v>0.9048270955075952</v>
       </c>
       <c r="AO100" t="n" s="87">
-        <v>0.7976626935630582</v>
+        <v>0.7992276109190357</v>
       </c>
       <c r="AP100" t="n" s="87">
         <v>0.6938280213254956</v>
       </c>
       <c r="AQ100" t="n" s="87">
-        <v>0.8312030148101104</v>
+        <v>0.8311256912685936</v>
       </c>
       <c r="AR100" t="n" s="87">
-        <v>0.1313328165686887</v>
-      </c>
-      <c r="AS100" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.13219440174617356</v>
+      </c>
+      <c r="AS100" s="87"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -14181,10 +13985,10 @@
         <v>0.42930552280396966</v>
       </c>
       <c r="W101" t="n" s="87">
-        <v>0.321350355570731</v>
+        <v>0.3213754317982554</v>
       </c>
       <c r="X101" t="n" s="87">
-        <v>0.321350355570731</v>
+        <v>0.3213754317982554</v>
       </c>
       <c r="Y101" t="n" s="87">
         <v>0.49821377345635</v>
@@ -14199,16 +14003,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC101" t="n" s="87">
-        <v>0.3629380967878219</v>
+        <v>0.3632104485773051</v>
       </c>
       <c r="AD101" t="n" s="87">
-        <v>0.36293809678782196</v>
+        <v>0.3632104485773052</v>
       </c>
       <c r="AE101" t="n" s="87">
-        <v>0.340888943587085</v>
+        <v>0.34115361000104405</v>
       </c>
       <c r="AF101" t="n" s="87">
-        <v>0.34088894358708494</v>
+        <v>0.34115361000104405</v>
       </c>
       <c r="AG101" t="n" s="87">
         <v>1.0</v>
@@ -14217,7 +14021,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI101" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ101" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -14244,11 +14048,9 @@
         <v>0.9988784109365518</v>
       </c>
       <c r="AR101" t="n" s="87">
-        <v>0.9999190022219072</v>
-      </c>
-      <c r="AS101" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999188691269985</v>
+      </c>
+      <c r="AS101" s="87"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -14303,16 +14105,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U102" t="n" s="87">
-        <v>0.3093205060282526</v>
+        <v>0.3093700850093433</v>
       </c>
       <c r="V102" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W102" t="n" s="87">
-        <v>0.3143834703620324</v>
+        <v>0.3144334914111301</v>
       </c>
       <c r="X102" t="n" s="87">
-        <v>0.3143834703620324</v>
+        <v>0.3144334914111301</v>
       </c>
       <c r="Y102" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -14327,16 +14129,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC102" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.35583868176366007</v>
       </c>
       <c r="AD102" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.3558386817636602</v>
       </c>
       <c r="AE102" t="n" s="87">
-        <v>0.3335326975164327</v>
+        <v>0.33399471054186936</v>
       </c>
       <c r="AF102" t="n" s="87">
-        <v>0.3335326975164326</v>
+        <v>0.33399471054186936</v>
       </c>
       <c r="AG102" t="n" s="87">
         <v>1.0</v>
@@ -14345,7 +14147,7 @@
         <v>0.4282959160201773</v>
       </c>
       <c r="AI102" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ102" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -14354,7 +14156,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL102" t="n" s="87">
-        <v>0.7717558888014165</v>
+        <v>0.776837013129118</v>
       </c>
       <c r="AM102" t="n" s="87">
         <v>0.682956778696853</v>
@@ -14363,20 +14165,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO102" t="n" s="87">
-        <v>0.9474666399585132</v>
+        <v>0.9468163368910982</v>
       </c>
       <c r="AP102" t="n" s="87">
         <v>0.7604100612629137</v>
       </c>
       <c r="AQ102" t="n" s="87">
-        <v>0.9308688001860315</v>
+        <v>0.9308333330299963</v>
       </c>
       <c r="AR102" t="n" s="87">
-        <v>0.43942144104656466</v>
-      </c>
-      <c r="AS102" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.4356850524483717</v>
+      </c>
+      <c r="AS102" s="87"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -14431,16 +14231,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U103" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V103" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W103" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X103" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y103" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -14455,25 +14255,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC103" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD103" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE103" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF103" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG103" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH103" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI103" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ103" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -14482,7 +14282,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL103" t="n" s="87">
-        <v>0.7402111854788673</v>
+        <v>0.7439212593163966</v>
       </c>
       <c r="AM103" t="n" s="87">
         <v>0.6996969133754084</v>
@@ -14491,20 +14291,18 @@
         <v>0.9631272288594732</v>
       </c>
       <c r="AO103" t="n" s="87">
-        <v>0.8867541308442368</v>
+        <v>0.8858816020496717</v>
       </c>
       <c r="AP103" t="n" s="87">
         <v>0.6996969133754084</v>
       </c>
       <c r="AQ103" t="n" s="87">
-        <v>0.8201994606988693</v>
+        <v>0.8201181874206922</v>
       </c>
       <c r="AR103" t="n" s="87">
-        <v>0.07408706238020046</v>
-      </c>
-      <c r="AS103" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.07334602436531115</v>
+      </c>
+      <c r="AS103" s="87"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -14526,10 +14324,10 @@
         <v>1.0</v>
       </c>
       <c r="J104" t="n" s="87">
-        <v>0.37698466099056593</v>
+        <v>0.3769313166906019</v>
       </c>
       <c r="K104" t="n" s="87">
-        <v>0.3769846609905658</v>
+        <v>0.37693131669060187</v>
       </c>
       <c r="L104" t="n" s="87">
         <v>1.0</v>
@@ -14559,16 +14357,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U104" t="n" s="87">
-        <v>0.30146155372528805</v>
+        <v>0.3015104229402114</v>
       </c>
       <c r="V104" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W104" t="n" s="87">
-        <v>0.3064529578497201</v>
+        <v>0.3065022811756007</v>
       </c>
       <c r="X104" t="n" s="87">
-        <v>0.3064529578497201</v>
+        <v>0.3065022811756007</v>
       </c>
       <c r="Y104" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -14583,25 +14381,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC104" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD104" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE104" t="n" s="87">
-        <v>0.32534835823743874</v>
+        <v>0.3258045763728488</v>
       </c>
       <c r="AF104" t="n" s="87">
-        <v>0.3253483582374387</v>
+        <v>0.3258045763728488</v>
       </c>
       <c r="AG104" t="n" s="87">
-        <v>0.2542367163221647</v>
+        <v>0.254630853867583</v>
       </c>
       <c r="AH104" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI104" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ104" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -14610,7 +14408,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL104" t="n" s="87">
-        <v>0.7717558888014165</v>
+        <v>0.776837013129118</v>
       </c>
       <c r="AM104" t="n" s="87">
         <v>0.682956778696853</v>
@@ -14619,20 +14417,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO104" t="n" s="87">
-        <v>0.942323838552676</v>
+        <v>0.9416137965464277</v>
       </c>
       <c r="AP104" t="n" s="87">
         <v>0.6829567786968532</v>
       </c>
       <c r="AQ104" t="n" s="87">
-        <v>0.8040930655625953</v>
+        <v>0.8040062516002362</v>
       </c>
       <c r="AR104" t="n" s="87">
-        <v>0.1779372719515628</v>
-      </c>
-      <c r="AS104" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.17572729835456347</v>
+      </c>
+      <c r="AS104" s="87"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -14687,16 +14483,16 @@
         <v>0.39834433420441945</v>
       </c>
       <c r="U105" t="n" s="87">
-        <v>0.30181495281373755</v>
+        <v>0.30186385456082276</v>
       </c>
       <c r="V105" t="n" s="87">
         <v>0.400870640635473</v>
       </c>
       <c r="W105" t="n" s="87">
-        <v>0.306408213939172</v>
+        <v>0.3064575332456829</v>
       </c>
       <c r="X105" t="n" s="87">
-        <v>0.306408213939172</v>
+        <v>0.3064575332456829</v>
       </c>
       <c r="Y105" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -14711,25 +14507,25 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC105" t="n" s="87">
-        <v>0.3468737051872326</v>
+        <v>0.34734456699141825</v>
       </c>
       <c r="AD105" t="n" s="87">
-        <v>0.34687370518723265</v>
+        <v>0.34734456699141825</v>
       </c>
       <c r="AE105" t="n" s="87">
-        <v>0.32530214949755865</v>
+        <v>0.3257583341239965</v>
       </c>
       <c r="AF105" t="n" s="87">
-        <v>0.32530214949755865</v>
+        <v>0.32575833412399646</v>
       </c>
       <c r="AG105" t="n" s="87">
-        <v>0.25419680200617356</v>
+        <v>0.2545908987975044</v>
       </c>
       <c r="AH105" t="n" s="87">
         <v>0.41946027274563624</v>
       </c>
       <c r="AI105" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ105" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -14738,7 +14534,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL105" t="n" s="87">
-        <v>0.9396715960742006</v>
+        <v>0.9390139792021004</v>
       </c>
       <c r="AM105" t="n" s="87">
         <v>0.7385601264156041</v>
@@ -14747,20 +14543,18 @@
         <v>0.9595557507147646</v>
       </c>
       <c r="AO105" t="n" s="87">
-        <v>0.9892541547558396</v>
+        <v>0.9894025317739868</v>
       </c>
       <c r="AP105" t="n" s="87">
         <v>0.6893647932250114</v>
       </c>
       <c r="AQ105" t="n" s="87">
-        <v>0.8556679852240344</v>
+        <v>0.8555999218060435</v>
       </c>
       <c r="AR105" t="n" s="87">
-        <v>0.6616956884129434</v>
-      </c>
-      <c r="AS105" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.6643457253247108</v>
+      </c>
+      <c r="AS105" s="87"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -14782,10 +14576,10 @@
         <v>1.0</v>
       </c>
       <c r="J106" t="n" s="87">
-        <v>0.5292918299563892</v>
+        <v>0.5292352415385446</v>
       </c>
       <c r="K106" t="n" s="87">
-        <v>0.5292918299563892</v>
+        <v>0.5292352415385446</v>
       </c>
       <c r="L106" t="n" s="87">
         <v>0.4409439625369919</v>
@@ -14815,16 +14609,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U106" t="n" s="87">
-        <v>0.3065636984002855</v>
+        <v>0.3066130316700534</v>
       </c>
       <c r="V106" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W106" t="n" s="87">
-        <v>0.3116018968306582</v>
+        <v>0.311651676482046</v>
       </c>
       <c r="X106" t="n" s="87">
-        <v>0.3116018968306582</v>
+        <v>0.311651676482046</v>
       </c>
       <c r="Y106" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -14839,16 +14633,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC106" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.35583868176366007</v>
       </c>
       <c r="AD106" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.3558386817636602</v>
       </c>
       <c r="AE106" t="n" s="87">
-        <v>0.33066340940044403</v>
+        <v>0.33112342255710003</v>
       </c>
       <c r="AF106" t="n" s="87">
-        <v>0.330663409400444</v>
+        <v>0.33112342255710003</v>
       </c>
       <c r="AG106" t="n" s="87">
         <v>1.0</v>
@@ -14857,7 +14651,7 @@
         <v>0.4282959160201773</v>
       </c>
       <c r="AI106" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ106" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -14866,7 +14660,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL106" t="n" s="87">
-        <v>0.7131464276712869</v>
+        <v>0.7190573344990832</v>
       </c>
       <c r="AM106" t="n" s="87">
         <v>0.682956778696853</v>
@@ -14875,20 +14669,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO106" t="n" s="87">
-        <v>0.841473881490228</v>
+        <v>0.8397334490911575</v>
       </c>
       <c r="AP106" t="n" s="87">
         <v>0.7604100612629137</v>
       </c>
       <c r="AQ106" t="n" s="87">
-        <v>0.9121727132997778</v>
+        <v>0.9121285597256471</v>
       </c>
       <c r="AR106" t="n" s="87">
-        <v>0.15106489426075267</v>
-      </c>
-      <c r="AS106" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.14912812912940093</v>
+      </c>
+      <c r="AS106" s="87"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -14949,10 +14741,10 @@
         <v>0.4221084469142438</v>
       </c>
       <c r="W107" t="n" s="87">
-        <v>0.30956609047230943</v>
+        <v>0.3096156911709522</v>
       </c>
       <c r="X107" t="n" s="87">
-        <v>0.30956609047230943</v>
+        <v>0.3096156911709522</v>
       </c>
       <c r="Y107" t="n" s="87">
         <v>0.49821377345635</v>
@@ -14967,25 +14759,25 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC107" t="n" s="87">
-        <v>0.35318754955154885</v>
+        <v>0.353662341091421</v>
       </c>
       <c r="AD107" t="n" s="87">
-        <v>0.3531875495515489</v>
+        <v>0.353662341091421</v>
       </c>
       <c r="AE107" t="n" s="87">
-        <v>0.32856250645913515</v>
+        <v>0.3290210335866087</v>
       </c>
       <c r="AF107" t="n" s="87">
-        <v>0.3285625064591351</v>
+        <v>0.32902103358660867</v>
       </c>
       <c r="AG107" t="n" s="87">
-        <v>0.2725360078159105</v>
+        <v>0.27294813134522616</v>
       </c>
       <c r="AH107" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI107" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ107" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -15009,14 +14801,12 @@
         <v>0.8804238341748946</v>
       </c>
       <c r="AQ107" t="n" s="87">
-        <v>0.9889144541748488</v>
+        <v>0.9889084119971027</v>
       </c>
       <c r="AR107" t="n" s="87">
-        <v>0.7613710604518669</v>
-      </c>
-      <c r="AS107" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.7609723986794481</v>
+      </c>
+      <c r="AS107" s="87"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -15038,10 +14828,10 @@
         <v>1.0</v>
       </c>
       <c r="J108" t="n" s="87">
-        <v>0.9793910433625038</v>
+        <v>0.9793885645271341</v>
       </c>
       <c r="K108" t="n" s="87">
-        <v>0.9793910433625038</v>
+        <v>0.9793885645271341</v>
       </c>
       <c r="L108" t="n" s="87">
         <v>1.0</v>
@@ -15077,10 +14867,10 @@
         <v>0.4209588706031546</v>
       </c>
       <c r="W108" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="X108" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="Y108" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -15095,13 +14885,13 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC108" t="n" s="87">
-        <v>0.3714443350545217</v>
+        <v>0.371719345489888</v>
       </c>
       <c r="AD108" t="n" s="87">
         <v>1.0</v>
       </c>
       <c r="AE108" t="n" s="87">
-        <v>0.3491616439798356</v>
+        <v>0.3494293281920188</v>
       </c>
       <c r="AF108" t="n" s="87">
         <v>1.0</v>
@@ -15113,7 +14903,7 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI108" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ108" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -15122,7 +14912,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL108" t="n" s="87">
-        <v>0.9952436823794146</v>
+        <v>0.9949324284416474</v>
       </c>
       <c r="AM108" t="n" s="87">
         <v>0.7316044330870544</v>
@@ -15131,7 +14921,7 @@
         <v>0.9822472371849684</v>
       </c>
       <c r="AO108" t="n" s="87">
-        <v>0.9999998060897692</v>
+        <v>0.9999998164946644</v>
       </c>
       <c r="AP108" t="n" s="87">
         <v>0.8477949709403929</v>
@@ -15140,11 +14930,9 @@
         <v>0.9977642301510017</v>
       </c>
       <c r="AR108" t="n" s="87">
-        <v>0.9999999949266926</v>
-      </c>
-      <c r="AS108" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999951910279</v>
+      </c>
+      <c r="AS108" s="87"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -15166,10 +14954,10 @@
         <v>1.0</v>
       </c>
       <c r="J109" t="n" s="87">
-        <v>0.20913500677974683</v>
+        <v>0.2090974422348091</v>
       </c>
       <c r="K109" t="n" s="87">
-        <v>0.2091350067797468</v>
+        <v>0.20909744223480908</v>
       </c>
       <c r="L109" t="n" s="87">
         <v>1.0</v>
@@ -15199,16 +14987,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U109" t="n" s="87">
-        <v>0.2980831113694036</v>
+        <v>0.298131666655606</v>
       </c>
       <c r="V109" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W109" t="n" s="87">
-        <v>0.3030428447212599</v>
+        <v>0.30309185905132996</v>
       </c>
       <c r="X109" t="n" s="87">
-        <v>0.3030428447212599</v>
+        <v>0.30309185905132996</v>
       </c>
       <c r="Y109" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -15223,25 +15011,25 @@
         <v>0.4610917027033609</v>
       </c>
       <c r="AC109" t="n" s="87">
-        <v>0.34620602002014167</v>
+        <v>0.3466764565628544</v>
       </c>
       <c r="AD109" t="n" s="87">
-        <v>0.34620602002014167</v>
+        <v>0.3466764565628544</v>
       </c>
       <c r="AE109" t="n" s="87">
-        <v>0.3218255505844971</v>
+        <v>0.3222791886277111</v>
       </c>
       <c r="AF109" t="n" s="87">
-        <v>0.3218255505844971</v>
+        <v>0.32227918862771104</v>
       </c>
       <c r="AG109" t="n" s="87">
-        <v>0.2511971990264284</v>
+        <v>0.2515882141326497</v>
       </c>
       <c r="AH109" t="n" s="87">
         <v>0.41848006318594666</v>
       </c>
       <c r="AI109" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ109" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -15250,7 +15038,7 @@
         <v>0.7267419268737556</v>
       </c>
       <c r="AL109" t="n" s="87">
-        <v>0.6360619217926321</v>
+        <v>0.6427655578030074</v>
       </c>
       <c r="AM109" t="n" s="87">
         <v>0.6341705891098454</v>
@@ -15259,20 +15047,18 @@
         <v>0.8760437399026901</v>
       </c>
       <c r="AO109" t="n" s="87">
-        <v>0.6022511866129917</v>
+        <v>0.599135535270922</v>
       </c>
       <c r="AP109" t="n" s="87">
         <v>0.6177930467893799</v>
       </c>
       <c r="AQ109" t="n" s="87">
-        <v>0.5350710618313524</v>
+        <v>0.5349339840356935</v>
       </c>
       <c r="AR109" t="n" s="87">
-        <v>0.014221856145758736</v>
-      </c>
-      <c r="AS109" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.01401056671051849</v>
+      </c>
+      <c r="AS109" s="87"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -15294,7 +15080,7 @@
         <v>1.0</v>
       </c>
       <c r="J110" t="n" s="87">
-        <v>0.43806594998142706</v>
+        <v>0.43801003908279523</v>
       </c>
       <c r="K110" t="n" s="87">
         <v>1.0</v>
@@ -15327,16 +15113,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U110" t="n" s="87">
-        <v>0.30315065352807863</v>
+        <v>0.30318961516583653</v>
       </c>
       <c r="V110" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W110" t="n" s="87">
-        <v>0.3081576871207397</v>
+        <v>0.30819700766521674</v>
       </c>
       <c r="X110" t="n" s="87">
-        <v>0.3081576871207397</v>
+        <v>0.30819700766521674</v>
       </c>
       <c r="Y110" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -15351,25 +15137,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC110" t="n" s="87">
-        <v>0.34881007039422085</v>
+        <v>0.3491992677597837</v>
       </c>
       <c r="AD110" t="n" s="87">
-        <v>0.34881007039422096</v>
+        <v>0.3491992677597837</v>
       </c>
       <c r="AE110" t="n" s="87">
-        <v>0.3271784183200361</v>
+        <v>0.32755562021069157</v>
       </c>
       <c r="AF110" t="n" s="87">
-        <v>0.327178418320036</v>
+        <v>0.32755562021069157</v>
       </c>
       <c r="AG110" t="n" s="87">
-        <v>0.25581845226337513</v>
+        <v>0.2561447042542107</v>
       </c>
       <c r="AH110" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI110" t="n" s="87">
-        <v>0.37158062152895593</v>
+        <v>0.3719807126216904</v>
       </c>
       <c r="AJ110" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -15378,7 +15164,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL110" t="n" s="87">
-        <v>0.8829188279498318</v>
+        <v>0.8849077611645194</v>
       </c>
       <c r="AM110" t="n" s="87">
         <v>0.6996969133754084</v>
@@ -15387,20 +15173,18 @@
         <v>0.9631272288594732</v>
       </c>
       <c r="AO110" t="n" s="87">
-        <v>0.9963583145642743</v>
+        <v>0.9963267582741676</v>
       </c>
       <c r="AP110" t="n" s="87">
         <v>0.6996969133754084</v>
       </c>
       <c r="AQ110" t="n" s="87">
-        <v>0.8908320353060305</v>
+        <v>0.890799091607307</v>
       </c>
       <c r="AR110" t="n" s="87">
-        <v>0.8333674250441108</v>
-      </c>
-      <c r="AS110" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.8318845981072093</v>
+      </c>
+      <c r="AS110" s="87"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -15455,16 +15239,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U111" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V111" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W111" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X111" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y111" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -15479,25 +15263,25 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC111" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD111" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE111" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF111" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG111" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH111" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI111" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ111" t="n" s="87">
         <v>0.5576432406459444</v>
@@ -15506,7 +15290,7 @@
         <v>0.7534243418060365</v>
       </c>
       <c r="AL111" t="n" s="87">
-        <v>0.7131464276712869</v>
+        <v>0.7190573344990832</v>
       </c>
       <c r="AM111" t="n" s="87">
         <v>0.682956778696853</v>
@@ -15515,20 +15299,18 @@
         <v>0.9477193914260249</v>
       </c>
       <c r="AO111" t="n" s="87">
-        <v>0.8278402435120712</v>
+        <v>0.8259810841335778</v>
       </c>
       <c r="AP111" t="n" s="87">
         <v>0.6829567786968532</v>
       </c>
       <c r="AQ111" t="n" s="87">
-        <v>0.7599527007488124</v>
+        <v>0.7598521682967407</v>
       </c>
       <c r="AR111" t="n" s="87">
-        <v>0.04683539357075047</v>
-      </c>
-      <c r="AS111" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.04616226517147868</v>
+      </c>
+      <c r="AS111" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="4">
